--- a/Current_Financial_Model.xlsx
+++ b/Current_Financial_Model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francis/PycharmProjects/financial_model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francis/PycharmProjects/VerticalFarming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C94C9-E73F-634B-BC8C-53B22B281149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFB7A5D-15DF-3747-8D18-9B0FDEAF29D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-80" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46043,7 +46043,7 @@
   </sheetPr>
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>

--- a/Current_Financial_Model.xlsx
+++ b/Current_Financial_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francis/PycharmProjects/VerticalFarming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD9A1A6-FEFE-AD4F-A899-9D1FD01FE006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4340A06-5EBB-D846-9BC9-C0A1A36C3932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27220" yWindow="-1300" windowWidth="36780" windowHeight="18320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="21360" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="14" r:id="rId1"/>
@@ -1925,7 +1925,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="881">
   <si>
     <t>Packaging types &amp; ROUGH Cost per package</t>
   </si>
@@ -4538,6 +4538,36 @@
   </si>
   <si>
     <t>capex_full</t>
+  </si>
+  <si>
+    <t>target_productivity_space</t>
+  </si>
+  <si>
+    <t>target_productivity_energy</t>
+  </si>
+  <si>
+    <t>target_productivity_labour</t>
+  </si>
+  <si>
+    <t>target_productivity_water</t>
+  </si>
+  <si>
+    <t>target_productivity_nutrients</t>
+  </si>
+  <si>
+    <t>target_productivity_volume</t>
+  </si>
+  <si>
+    <t>target_productivity_CO2_net</t>
+  </si>
+  <si>
+    <t>target_productivity_plants</t>
+  </si>
+  <si>
+    <t>target_productivity_CO2_emit</t>
+  </si>
+  <si>
+    <t>target_productivity_CO2_miti</t>
   </si>
 </sst>
 </file>
@@ -5871,6 +5901,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5932,7 +5963,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -6156,28 +6186,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-7.9453467335346917E-2</c:v>
+                  <c:v>-0.24285589089229545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.207800140113324E-3</c:v>
+                  <c:v>-4.9592599494643438E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8373334738601595E-2</c:v>
+                  <c:v>-3.4427064896155164E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9273562731264559E-2</c:v>
+                  <c:v>-2.3526836903492204E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9320729402763217E-2</c:v>
+                  <c:v>-1.3479670231993545E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8514834753096397E-2</c:v>
+                  <c:v>0.12341122369054316</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7045447964745817E-2</c:v>
+                  <c:v>0.13194183690219261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2922092621660305E-2</c:v>
+                  <c:v>0.13781848155910709</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.14331598785105873</c:v>
@@ -6286,28 +6316,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-7.9453467335346917E-2</c:v>
+                  <c:v>-0.24285589089229545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.207800140113324E-3</c:v>
+                  <c:v>-4.9592599494643438E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8373334738601595E-2</c:v>
+                  <c:v>-3.4427064896155164E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9273562731264559E-2</c:v>
+                  <c:v>-2.3526836903492204E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9320729402763217E-2</c:v>
+                  <c:v>-1.3479670231993545E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8514834753096397E-2</c:v>
+                  <c:v>0.12341122369054316</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7045447964745817E-2</c:v>
+                  <c:v>0.13194183690219261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2922092621660305E-2</c:v>
+                  <c:v>0.13781848155910709</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.14331598785105873</c:v>
@@ -6407,28 +6437,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-7.9453467335346917E-2</c:v>
+                  <c:v>-0.24285589089229545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.207800140113324E-3</c:v>
+                  <c:v>-4.9592599494643438E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8373334738601595E-2</c:v>
+                  <c:v>-3.4427064896155164E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9273562731264559E-2</c:v>
+                  <c:v>-2.3526836903492204E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9320729402763217E-2</c:v>
+                  <c:v>-1.3479670231993545E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8514834753096397E-2</c:v>
+                  <c:v>0.12341122369054316</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7045447964745817E-2</c:v>
+                  <c:v>0.13194183690219261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2922092621660305E-2</c:v>
+                  <c:v>0.13781848155910709</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.14331598785105873</c:v>
@@ -6537,28 +6567,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-7.9453467335346917E-2</c:v>
+                  <c:v>-0.24285589089229545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.207800140113324E-3</c:v>
+                  <c:v>-4.9592599494643438E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8373334738601595E-2</c:v>
+                  <c:v>-3.4427064896155164E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9273562731264559E-2</c:v>
+                  <c:v>-2.3526836903492204E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9320729402763217E-2</c:v>
+                  <c:v>-1.3479670231993545E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8514834753096397E-2</c:v>
+                  <c:v>0.12341122369054316</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7045447964745817E-2</c:v>
+                  <c:v>0.13194183690219261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2922092621660305E-2</c:v>
+                  <c:v>0.13781848155910709</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.14331598785105873</c:v>
@@ -6658,28 +6688,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-7.9453467335346917E-2</c:v>
+                  <c:v>-0.24285589089229545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.207800140113324E-3</c:v>
+                  <c:v>-4.9592599494643438E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8373334738601595E-2</c:v>
+                  <c:v>-3.4427064896155164E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9273562731264559E-2</c:v>
+                  <c:v>-2.3526836903492204E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9320729402763217E-2</c:v>
+                  <c:v>-1.3479670231993545E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8514834753096397E-2</c:v>
+                  <c:v>0.12341122369054316</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7045447964745817E-2</c:v>
+                  <c:v>0.13194183690219261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2922092621660305E-2</c:v>
+                  <c:v>0.13781848155910709</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.14331598785105873</c:v>
@@ -6788,28 +6818,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-7.9453467335346917E-2</c:v>
+                  <c:v>-0.24285589089229545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.207800140113324E-3</c:v>
+                  <c:v>-4.9592599494643438E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8373334738601595E-2</c:v>
+                  <c:v>-3.4427064896155164E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9273562731264559E-2</c:v>
+                  <c:v>-2.3526836903492204E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9320729402763217E-2</c:v>
+                  <c:v>-1.3479670231993545E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8514834753096397E-2</c:v>
+                  <c:v>0.12341122369054316</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7045447964745817E-2</c:v>
+                  <c:v>0.13194183690219261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2922092621660305E-2</c:v>
+                  <c:v>0.13781848155910709</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.14331598785105873</c:v>
@@ -6909,28 +6939,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-7.9453467335346917E-2</c:v>
+                  <c:v>-0.24285589089229545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.207800140113324E-3</c:v>
+                  <c:v>-4.9592599494643438E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8373334738601595E-2</c:v>
+                  <c:v>-3.4427064896155164E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9273562731264559E-2</c:v>
+                  <c:v>-2.3526836903492204E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9320729402763217E-2</c:v>
+                  <c:v>-1.3479670231993545E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8514834753096397E-2</c:v>
+                  <c:v>0.12341122369054316</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7045447964745817E-2</c:v>
+                  <c:v>0.13194183690219261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2922092621660305E-2</c:v>
+                  <c:v>0.13781848155910709</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.14331598785105873</c:v>
@@ -7039,28 +7069,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-7.9453467335346917E-2</c:v>
+                  <c:v>-0.24285589089229545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.207800140113324E-3</c:v>
+                  <c:v>-4.9592599494643438E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8373334738601595E-2</c:v>
+                  <c:v>-3.4427064896155164E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9273562731264559E-2</c:v>
+                  <c:v>-2.3526836903492204E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9320729402763217E-2</c:v>
+                  <c:v>-1.3479670231993545E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8514834753096397E-2</c:v>
+                  <c:v>0.12341122369054316</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7045447964745817E-2</c:v>
+                  <c:v>0.13194183690219261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2922092621660305E-2</c:v>
+                  <c:v>0.13781848155910709</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.14331598785105873</c:v>
@@ -7450,28 +7480,28 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-17726.674835327263</c:v>
+                  <c:v>-54183.002379510188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>715.6846885045743</c:v>
+                  <c:v>-11064.487365538342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4099.231178636277</c:v>
+                  <c:v>-7680.940875406639</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6531.1552184183311</c:v>
+                  <c:v>-5249.0168356245849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8772.7547681306241</c:v>
+                  <c:v>-3007.4172859122918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10824.029827772894</c:v>
+                  <c:v>27533.985699562461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12727.274728471926</c:v>
+                  <c:v>29437.230600261497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14038.398993398023</c:v>
+                  <c:v>30748.354865187594</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>31974.890467860259</c:v>
@@ -7580,28 +7610,28 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-17726.674835327263</c:v>
+                  <c:v>-54183.002379510188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>715.6846885045743</c:v>
+                  <c:v>-11064.487365538342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4099.231178636277</c:v>
+                  <c:v>-7680.940875406639</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6531.1552184183311</c:v>
+                  <c:v>-5249.0168356245849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8772.7547681306241</c:v>
+                  <c:v>-3007.4172859122918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10824.029827772894</c:v>
+                  <c:v>27533.985699562461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12727.274728471926</c:v>
+                  <c:v>29437.230600261497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14038.398993398023</c:v>
+                  <c:v>30748.354865187594</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>31974.890467860259</c:v>
@@ -8410,28 +8440,28 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-17726.674835327263</c:v>
+                  <c:v>-54183.002379510188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>715.6846885045743</c:v>
+                  <c:v>-11064.487365538342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4099.231178636277</c:v>
+                  <c:v>-7680.940875406639</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6531.1552184183311</c:v>
+                  <c:v>-5249.0168356245849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8772.7547681306241</c:v>
+                  <c:v>-3007.4172859122918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10824.029827772894</c:v>
+                  <c:v>27533.985699562461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12727.274728471926</c:v>
+                  <c:v>29437.230600261497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14038.398993398023</c:v>
+                  <c:v>30748.354865187594</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>31974.890467860259</c:v>
@@ -8620,7 +8650,7 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>39967.780947032166</c:v>
+                  <c:v>64643.936437172168</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>96630.077384056305</c:v>
@@ -8690,7 +8720,7 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>9129.4651929772517</c:v>
+                  <c:v>-15546.69029716275</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>37718.008873324041</c:v>
@@ -11453,7 +11483,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.65184201819348098</c:v>
+                  <c:v>0.82818050488328576</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.51366499546627742</c:v>
@@ -11477,7 +11507,7 @@
                   <c:v>0.9022472241454822</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.3185344886939368</c:v>
+                  <c:v>-1.2741379547757472</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.0097648469642859</c:v>
@@ -14187,10 +14217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262F1FB0-CD2F-E14E-8300-C92D3DA9F93F}">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A93" zoomScale="96" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -14507,7 +14537,7 @@
       </c>
       <c r="B35" s="342">
         <f>loan_interest</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -14516,7 +14546,7 @@
       </c>
       <c r="B36" s="344">
         <f>loan_tenure</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -15255,6 +15285,96 @@
       <c r="B118" s="106">
         <f>'CapEx Breakdown'!D16+'CapEx Breakdown'!D17+'CapEx Breakdown'!D18+'CapEx Breakdown'!C18+'CapEx Breakdown'!C17+'CapEx Breakdown'!C16</f>
         <v>11000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="47" t="s">
+        <v>871</v>
+      </c>
+      <c r="B119">
+        <f>target_productivity_space</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="47" t="s">
+        <v>872</v>
+      </c>
+      <c r="B120">
+        <f>target_productivity_energy</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="47" t="s">
+        <v>873</v>
+      </c>
+      <c r="B121">
+        <f>target_productivity_labour</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="47" t="s">
+        <v>874</v>
+      </c>
+      <c r="B122">
+        <f>target_productivity_water</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="47" t="s">
+        <v>875</v>
+      </c>
+      <c r="B123">
+        <f>target_productivity_nutrients</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="47" t="s">
+        <v>876</v>
+      </c>
+      <c r="B124">
+        <f>target_productivity_volume</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="47" t="s">
+        <v>878</v>
+      </c>
+      <c r="B125">
+        <f>target_productivity_plants</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="47" t="s">
+        <v>879</v>
+      </c>
+      <c r="B126">
+        <f>target_productivity_CO2</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="47" t="s">
+        <v>880</v>
+      </c>
+      <c r="B127">
+        <f>target_productivity_CO2_omitted</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="47" t="s">
+        <v>877</v>
+      </c>
+      <c r="B128">
+        <f>target_productivity_CO2_net</f>
+        <v>-100</v>
       </c>
     </row>
   </sheetData>
@@ -15270,6 +15390,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -15282,7 +15403,7 @@
   <dimension ref="A1:AA1007"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -15565,11 +15686,11 @@
       </c>
       <c r="C7" s="49">
         <f>Overview!F90</f>
-        <v>3330.6484122526804</v>
+        <v>5386.9947030976809</v>
       </c>
       <c r="D7" s="49">
         <f>Overview!H90</f>
-        <v>39967.780947032166</v>
+        <v>64643.936437172168</v>
       </c>
       <c r="E7" s="49">
         <f>Overview!I90</f>
@@ -15644,11 +15765,11 @@
       </c>
       <c r="C8" s="50">
         <f>Overview!F92</f>
-        <v>7028.2887660814413</v>
+        <v>4971.9424752364403</v>
       </c>
       <c r="D8" s="50">
         <f>Overview!H92</f>
-        <v>84339.465192977252</v>
+        <v>59663.30970283725</v>
       </c>
       <c r="E8" s="50">
         <f>Overview!I92</f>
@@ -15860,11 +15981,11 @@
       </c>
       <c r="C12" s="50">
         <f>Overview!F102</f>
-        <v>760.78876608144128</v>
+        <v>-1295.5575247635597</v>
       </c>
       <c r="D12" s="50">
         <f>Overview!H102</f>
-        <v>9129.4651929772517</v>
+        <v>-15546.69029716275</v>
       </c>
       <c r="E12" s="50">
         <f>Overview!I102</f>
@@ -15969,35 +16090,35 @@
       <c r="C14" s="78"/>
       <c r="D14" s="78">
         <f>Overview!H104</f>
-        <v>16709.955871789567</v>
+        <v>28490.127925832483</v>
       </c>
       <c r="E14" s="78">
         <f>Overview!I104</f>
-        <v>16709.955871789567</v>
+        <v>28490.127925832483</v>
       </c>
       <c r="F14" s="78">
         <f>Overview!J104</f>
-        <v>16709.955871789567</v>
+        <v>28490.127925832483</v>
       </c>
       <c r="G14" s="78">
         <f>Overview!K104</f>
-        <v>16709.955871789567</v>
+        <v>28490.127925832483</v>
       </c>
       <c r="H14" s="78">
         <f>Overview!L104</f>
-        <v>16709.955871789567</v>
+        <v>28490.127925832483</v>
       </c>
       <c r="I14" s="78">
         <f>Overview!M104</f>
-        <v>16709.955871789567</v>
+        <v>0</v>
       </c>
       <c r="J14" s="78">
         <f>Overview!N104</f>
-        <v>16709.955871789567</v>
+        <v>0</v>
       </c>
       <c r="K14" s="78">
         <f>Overview!O104</f>
-        <v>16709.955871789567</v>
+        <v>0</v>
       </c>
       <c r="L14" s="78">
         <f>Overview!P104</f>
@@ -16047,63 +16168,63 @@
       <c r="C15" s="81"/>
       <c r="D15" s="78">
         <f>Overview!H105</f>
-        <v>-96690.044128210429</v>
+        <v>-90309.872074167521</v>
       </c>
       <c r="E15" s="78">
         <f>Overview!I105</f>
-        <v>-84814.590462831373</v>
+        <v>-70850.731355751792</v>
       </c>
       <c r="F15" s="78">
         <f>Overview!J105</f>
-        <v>-72345.364114183365</v>
+        <v>-49445.67656549449</v>
       </c>
       <c r="G15" s="78">
         <f>Overview!K105</f>
-        <v>-59252.67644810296</v>
+        <v>-25900.116296211458</v>
       </c>
       <c r="H15" s="78">
         <f>Overview!L105</f>
-        <v>-45505.354398718548</v>
+        <v>-1.2050804798491299E-10</v>
       </c>
       <c r="I15" s="78">
         <f>Overview!M105</f>
-        <v>-31070.666246864908</v>
+        <v>-1.3255885278340429E-10</v>
       </c>
       <c r="J15" s="78">
         <f>Overview!N105</f>
-        <v>-15914.243687418588</v>
+        <v>-1.4581473806174471E-10</v>
       </c>
       <c r="K15" s="78">
         <f>Overview!O105</f>
-        <v>4.9794834922067821E-11</v>
+        <v>-1.6039621186791918E-10</v>
       </c>
       <c r="L15" s="78">
         <f>Overview!P105</f>
-        <v>5.2284576668171209E-11</v>
+        <v>-1.764358330547111E-10</v>
       </c>
       <c r="M15" s="78">
         <f>Overview!Q105</f>
-        <v>5.4898805501579771E-11</v>
+        <v>-1.9407941636018222E-10</v>
       </c>
       <c r="N15" s="78">
         <f>Overview!R105</f>
-        <v>5.7643745776658758E-11</v>
+        <v>-2.1348735799620044E-10</v>
       </c>
       <c r="O15" s="78">
         <f>Overview!S105</f>
-        <v>6.0525933065491697E-11</v>
+        <v>-2.3483609379582046E-10</v>
       </c>
       <c r="P15" s="78">
         <f>Overview!T105</f>
-        <v>6.355222971876628E-11</v>
+        <v>-2.5831970317540249E-10</v>
       </c>
       <c r="Q15" s="78">
         <f>Overview!U105</f>
-        <v>6.67298412047046E-11</v>
+        <v>-2.8415167349294275E-10</v>
       </c>
       <c r="R15" s="78">
         <f>Overview!V105</f>
-        <v>7.006633326493983E-11</v>
+        <v>-3.1256684084223703E-10</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -16225,39 +16346,39 @@
       </c>
       <c r="C18" s="78">
         <f>C12-C16</f>
-        <v>-84.726580294804535</v>
+        <v>-2141.0728711398056</v>
       </c>
       <c r="D18" s="78">
         <f>D12-(D12*Overview!$B$54)-D14-D16</f>
-        <v>-17726.674835327263</v>
+        <v>-54183.002379510188</v>
       </c>
       <c r="E18" s="78">
         <f>E12-(E12*Overview!$B$54)-E14-E16</f>
-        <v>715.6846885045743</v>
+        <v>-11064.487365538342</v>
       </c>
       <c r="F18" s="78">
         <f>F12-(F12*Overview!$B$54)-F14-F16</f>
-        <v>4099.231178636277</v>
+        <v>-7680.940875406639</v>
       </c>
       <c r="G18" s="78">
         <f>G12-(G12*Overview!$B$54)-G14-G16</f>
-        <v>6531.1552184183311</v>
+        <v>-5249.0168356245849</v>
       </c>
       <c r="H18" s="78">
         <f>H12-(H12*Overview!$B$54)-H14-H16</f>
-        <v>8772.7547681306241</v>
+        <v>-3007.4172859122918</v>
       </c>
       <c r="I18" s="78">
         <f>I12-(I12*Overview!$B$54)-I14-I16</f>
-        <v>10824.029827772894</v>
+        <v>27533.985699562461</v>
       </c>
       <c r="J18" s="78">
         <f>J12-(J12*Overview!$B$54)-J14-J16</f>
-        <v>12727.274728471926</v>
+        <v>29437.230600261497</v>
       </c>
       <c r="K18" s="78">
         <f>K12-(K12*Overview!$B$54)-K14-K16</f>
-        <v>14038.398993398023</v>
+        <v>30748.354865187594</v>
       </c>
       <c r="L18" s="78">
         <f>L12-(L12*Overview!$B$54)-L14-L16</f>
@@ -16305,63 +16426,63 @@
       <c r="C19" s="51"/>
       <c r="D19" s="51">
         <f>-H3+D12</f>
-        <v>-213978.16534640256</v>
+        <v>-238654.32083654255</v>
       </c>
       <c r="E19" s="51">
         <f>D19+E12</f>
-        <v>-176260.15647307853</v>
+        <v>-200936.3119632185</v>
       </c>
       <c r="F19" s="51">
         <f>E19+F12</f>
-        <v>-135158.6011096228</v>
+        <v>-159834.75659976277</v>
       </c>
       <c r="G19" s="51">
         <f t="shared" ref="G19:J19" si="0">F19+G12</f>
-        <v>-91625.121706385005</v>
+        <v>-116301.27719652497</v>
       </c>
       <c r="H19" s="51">
         <f>G19+H12</f>
-        <v>-45850.042753434915</v>
+        <v>-70526.19824357488</v>
       </c>
       <c r="I19" s="51">
         <f t="shared" si="0"/>
-        <v>1976.3112591574463</v>
+        <v>-22699.844230982519</v>
       </c>
       <c r="J19" s="51">
         <f t="shared" si="0"/>
-        <v>51705.910172448843</v>
+        <v>27029.754682308878</v>
       </c>
       <c r="K19" s="51">
         <f t="shared" ref="K19:R19" si="1">J19+K12</f>
-        <v>102746.63335066634</v>
+        <v>78070.477860526371</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>155013.89213155649</v>
+        <v>130337.73664141653</v>
       </c>
       <c r="M19" s="51">
         <f t="shared" si="1"/>
-        <v>208444.24501842947</v>
+        <v>183768.08952828951</v>
       </c>
       <c r="N19" s="51">
         <f t="shared" si="1"/>
-        <v>262953.10334903188</v>
+        <v>238276.94785889192</v>
       </c>
       <c r="O19" s="51">
         <f t="shared" si="1"/>
-        <v>318477.02562667377</v>
+        <v>293800.87013653381</v>
       </c>
       <c r="P19" s="51">
         <f t="shared" si="1"/>
-        <v>374973.71752022847</v>
+        <v>350297.56203008851</v>
       </c>
       <c r="Q19" s="51">
         <f t="shared" si="1"/>
-        <v>432379.73753300606</v>
+        <v>407703.5820428661</v>
       </c>
       <c r="R19" s="51">
         <f t="shared" si="1"/>
-        <v>490631.64416831656</v>
+        <v>465955.4886781766</v>
       </c>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
@@ -16442,35 +16563,35 @@
       <c r="C21" s="15"/>
       <c r="D21" s="76">
         <f>(D18/$H$3)</f>
-        <v>-7.9453467335346917E-2</v>
+        <v>-0.24285589089229545</v>
       </c>
       <c r="E21" s="76">
         <f t="shared" ref="E21:R21" si="2">(E18/$H$3)</f>
-        <v>3.207800140113324E-3</v>
+        <v>-4.9592599494643438E-2</v>
       </c>
       <c r="F21" s="76">
         <f t="shared" si="2"/>
-        <v>1.8373334738601595E-2</v>
+        <v>-3.4427064896155164E-2</v>
       </c>
       <c r="G21" s="76">
         <f t="shared" si="2"/>
-        <v>2.9273562731264559E-2</v>
+        <v>-2.3526836903492204E-2</v>
       </c>
       <c r="H21" s="76">
         <f t="shared" si="2"/>
-        <v>3.9320729402763217E-2</v>
+        <v>-1.3479670231993545E-2</v>
       </c>
       <c r="I21" s="76">
         <f t="shared" si="2"/>
-        <v>4.8514834753096397E-2</v>
+        <v>0.12341122369054316</v>
       </c>
       <c r="J21" s="76">
         <f>(J18/$H$3)</f>
-        <v>5.7045447964745817E-2</v>
+        <v>0.13194183690219261</v>
       </c>
       <c r="K21" s="76">
         <f t="shared" si="2"/>
-        <v>6.2922092621660305E-2</v>
+        <v>0.13781848155910709</v>
       </c>
       <c r="L21" s="76">
         <f t="shared" si="2"/>
@@ -45136,8 +45257,8 @@
   </sheetPr>
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="G37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -45156,26 +45277,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13">
-      <c r="A1" s="365" t="s">
+      <c r="A1" s="366" t="s">
         <v>518</v>
       </c>
-      <c r="B1" s="366"/>
-      <c r="C1" s="366"/>
-      <c r="D1" s="366"/>
-      <c r="E1" s="366"/>
-      <c r="F1" s="366"/>
-      <c r="G1" s="366"/>
-      <c r="H1" s="366"/>
+      <c r="B1" s="367"/>
+      <c r="C1" s="367"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A2" s="366"/>
-      <c r="B2" s="366"/>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366"/>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366"/>
+      <c r="A2" s="367"/>
+      <c r="B2" s="367"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
     </row>
     <row r="3" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="59" t="s">
@@ -45183,28 +45304,28 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="13">
-      <c r="A4" s="367" t="s">
+      <c r="A4" s="368" t="s">
         <v>517</v>
       </c>
-      <c r="B4" s="366"/>
-      <c r="C4" s="366"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
-      <c r="F4" s="366"/>
-      <c r="G4" s="366"/>
-      <c r="H4" s="366"/>
+      <c r="B4" s="367"/>
+      <c r="C4" s="367"/>
+      <c r="D4" s="367"/>
+      <c r="E4" s="367"/>
+      <c r="F4" s="367"/>
+      <c r="G4" s="367"/>
+      <c r="H4" s="367"/>
     </row>
     <row r="5" spans="1:22" ht="13">
-      <c r="A5" s="368" t="s">
+      <c r="A5" s="369" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="366"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="366"/>
-      <c r="G5" s="366"/>
-      <c r="H5" s="366"/>
+      <c r="B5" s="367"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
+      <c r="G5" s="367"/>
+      <c r="H5" s="367"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="13">
       <c r="A6" s="92" t="s">
@@ -45219,16 +45340,16 @@
       <c r="H6" s="93"/>
     </row>
     <row r="7" spans="1:22" ht="13">
-      <c r="A7" s="369" t="s">
+      <c r="A7" s="370" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="366"/>
-      <c r="C7" s="366"/>
-      <c r="D7" s="366"/>
-      <c r="E7" s="366"/>
-      <c r="F7" s="366"/>
-      <c r="G7" s="366"/>
-      <c r="H7" s="366"/>
+      <c r="B7" s="367"/>
+      <c r="C7" s="367"/>
+      <c r="D7" s="367"/>
+      <c r="E7" s="367"/>
+      <c r="F7" s="367"/>
+      <c r="G7" s="367"/>
+      <c r="H7" s="367"/>
     </row>
     <row r="8" spans="1:22" s="26" customFormat="1" ht="13">
       <c r="A8" s="256" t="s">
@@ -45292,8 +45413,8 @@
       <c r="Q13" s="218"/>
       <c r="R13" s="219"/>
       <c r="S13" s="219"/>
-      <c r="T13" s="364"/>
-      <c r="U13" s="364"/>
+      <c r="T13" s="365"/>
+      <c r="U13" s="365"/>
     </row>
     <row r="14" spans="1:22" ht="16">
       <c r="A14" s="2" t="s">
@@ -45478,7 +45599,7 @@
       </c>
       <c r="D18" s="269"/>
       <c r="E18" s="269"/>
-      <c r="F18" s="371" t="s">
+      <c r="F18" s="372" t="s">
         <v>618</v>
       </c>
       <c r="G18" s="323" t="s">
@@ -45529,7 +45650,7 @@
       </c>
       <c r="D19" s="269"/>
       <c r="E19" s="269"/>
-      <c r="F19" s="371"/>
+      <c r="F19" s="372"/>
       <c r="G19" s="292" t="s">
         <v>585</v>
       </c>
@@ -45676,7 +45797,7 @@
       </c>
       <c r="D23" s="269"/>
       <c r="E23" s="269"/>
-      <c r="F23" s="380" t="s">
+      <c r="F23" s="381" t="s">
         <v>316</v>
       </c>
       <c r="G23" s="326" t="s">
@@ -45708,7 +45829,7 @@
       </c>
       <c r="D24" s="269"/>
       <c r="E24" s="269"/>
-      <c r="F24" s="380"/>
+      <c r="F24" s="381"/>
       <c r="G24" s="326" t="s">
         <v>596</v>
       </c>
@@ -45740,7 +45861,7 @@
       </c>
       <c r="D25" s="269"/>
       <c r="E25" s="269"/>
-      <c r="F25" s="379" t="s">
+      <c r="F25" s="380" t="s">
         <v>542</v>
       </c>
       <c r="G25" s="323" t="s">
@@ -45781,7 +45902,7 @@
       </c>
       <c r="D26" s="269"/>
       <c r="E26" s="269"/>
-      <c r="F26" s="379"/>
+      <c r="F26" s="380"/>
       <c r="G26" s="323" t="s">
         <v>315</v>
       </c>
@@ -45810,7 +45931,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
-      <c r="F27" s="377" t="s">
+      <c r="F27" s="378" t="s">
         <v>588</v>
       </c>
       <c r="G27" s="185" t="s">
@@ -45843,7 +45964,7 @@
       </c>
       <c r="B28" s="54"/>
       <c r="C28" s="47"/>
-      <c r="F28" s="378"/>
+      <c r="F28" s="379"/>
       <c r="G28" s="185" t="s">
         <v>315</v>
       </c>
@@ -45876,7 +45997,7 @@
         <v>79</v>
       </c>
       <c r="C29" s="47"/>
-      <c r="F29" s="381" t="s">
+      <c r="F29" s="382" t="s">
         <v>587</v>
       </c>
       <c r="G29" s="185" t="s">
@@ -45911,7 +46032,7 @@
         <v>865</v>
       </c>
       <c r="C30" s="170"/>
-      <c r="F30" s="378"/>
+      <c r="F30" s="379"/>
       <c r="G30" s="185" t="s">
         <v>483</v>
       </c>
@@ -45944,7 +46065,7 @@
         <v>165</v>
       </c>
       <c r="C31" s="170"/>
-      <c r="F31" s="373" t="s">
+      <c r="F31" s="374" t="s">
         <v>531</v>
       </c>
       <c r="G31" s="212" t="s">
@@ -45976,7 +46097,7 @@
         <v>164</v>
       </c>
       <c r="C32" s="170"/>
-      <c r="F32" s="374"/>
+      <c r="F32" s="375"/>
       <c r="G32" s="212" t="s">
         <v>315</v>
       </c>
@@ -46035,7 +46156,7 @@
       <c r="B34" s="356" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="370" t="s">
+      <c r="F34" s="371" t="s">
         <v>615</v>
       </c>
       <c r="G34" s="185" t="s">
@@ -46069,7 +46190,7 @@
       <c r="C35" s="254" t="s">
         <v>489</v>
       </c>
-      <c r="F35" s="370"/>
+      <c r="F35" s="371"/>
       <c r="G35" s="185" t="s">
         <v>533</v>
       </c>
@@ -46101,7 +46222,7 @@
       <c r="C36" s="264">
         <v>8</v>
       </c>
-      <c r="F36" s="370"/>
+      <c r="F36" s="371"/>
       <c r="G36" s="185" t="s">
         <v>534</v>
       </c>
@@ -46134,7 +46255,7 @@
         <f>C36*16</f>
         <v>128</v>
       </c>
-      <c r="F37" s="370"/>
+      <c r="F37" s="371"/>
       <c r="G37" s="185" t="s">
         <v>535</v>
       </c>
@@ -46165,7 +46286,7 @@
         <f>C36*VLOOKUP(B36, Database!A97:I107, 5, FALSE)</f>
         <v>2880</v>
       </c>
-      <c r="F38" s="370"/>
+      <c r="F38" s="371"/>
       <c r="G38" s="185" t="s">
         <v>536</v>
       </c>
@@ -46195,7 +46316,7 @@
         <v>507</v>
       </c>
       <c r="C39" s="170"/>
-      <c r="F39" s="375" t="s">
+      <c r="F39" s="376" t="s">
         <v>589</v>
       </c>
       <c r="G39" s="212" t="s">
@@ -46227,7 +46348,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="170"/>
-      <c r="F40" s="376"/>
+      <c r="F40" s="377"/>
       <c r="G40" s="212" t="s">
         <v>315</v>
       </c>
@@ -46261,7 +46382,7 @@
       </c>
       <c r="C41" s="170"/>
       <c r="D41" s="55"/>
-      <c r="F41" s="371" t="s">
+      <c r="F41" s="372" t="s">
         <v>613</v>
       </c>
       <c r="G41" s="292" t="s">
@@ -46292,7 +46413,7 @@
         <v>166</v>
       </c>
       <c r="C42" s="170"/>
-      <c r="F42" s="371"/>
+      <c r="F42" s="372"/>
       <c r="G42" s="212" t="s">
         <v>614</v>
       </c>
@@ -46330,11 +46451,11 @@
         <v>722</v>
       </c>
       <c r="C44" s="170"/>
-      <c r="G44" s="382" t="s">
+      <c r="G44" s="383" t="s">
         <v>602</v>
       </c>
-      <c r="H44" s="382"/>
-      <c r="I44" s="382"/>
+      <c r="H44" s="383"/>
+      <c r="I44" s="383"/>
     </row>
     <row r="45" spans="1:12" s="160" customFormat="1" ht="16">
       <c r="A45" s="171" t="s">
@@ -46383,15 +46504,15 @@
         <v>511</v>
       </c>
       <c r="I46" s="183">
-        <f>SUM(I68:I71)/B17</f>
-        <v>133.62761372966361</v>
+        <f>SUM(V68:V71)/growing_area_full</f>
+        <v>74.536245439495715</v>
       </c>
       <c r="J46" s="275">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="K46" s="183">
         <f>I46/J46</f>
-        <v>0.65184201819348098</v>
+        <v>0.82818050488328576</v>
       </c>
       <c r="L46" s="269">
         <v>1</v>
@@ -46423,7 +46544,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K47" s="183">
-        <f t="shared" ref="K47:K55" si="2">I47/J47</f>
+        <f>I47/J47</f>
         <v>0.51366499546627742</v>
       </c>
       <c r="L47" s="269">
@@ -46456,7 +46577,7 @@
         <v>6</v>
       </c>
       <c r="K48" s="183">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K48:K55" si="2">I48/J48</f>
         <v>0.62050345962648679</v>
       </c>
       <c r="L48" s="269">
@@ -46643,11 +46764,11 @@
         <v>127.41379547757472</v>
       </c>
       <c r="J54" s="275">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="K54" s="183">
         <f t="shared" si="2"/>
-        <v>-0.3185344886939368</v>
+        <v>-1.2741379547757472</v>
       </c>
       <c r="L54" s="269">
         <v>1</v>
@@ -46658,7 +46779,7 @@
         <v>210</v>
       </c>
       <c r="B55" s="248">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C55" s="48"/>
       <c r="D55" s="6"/>
@@ -46693,7 +46814,7 @@
         <v>212</v>
       </c>
       <c r="B56" s="249">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" s="48"/>
       <c r="D56" s="26"/>
@@ -46718,6 +46839,10 @@
       <c r="A58" s="26"/>
       <c r="B58" s="26"/>
       <c r="C58" s="54"/>
+      <c r="I58" s="102">
+        <f>SUM(V68:V71)</f>
+        <v>8854.9059582120917</v>
+      </c>
       <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:12" s="28" customFormat="1" ht="16">
@@ -48126,8 +48251,8 @@
       <c r="D86" s="206"/>
       <c r="E86" s="206"/>
       <c r="F86" s="35">
-        <f>(B$23*F68/0.2*4)/12</f>
-        <v>1028.1731454225001</v>
+        <f>(B$23*F68/crop1_product_weight)</f>
+        <v>3084.5194362675002</v>
       </c>
       <c r="G86" s="194">
         <f>I86/12</f>
@@ -48135,61 +48260,61 @@
       </c>
       <c r="H86" s="35">
         <f>F86*12</f>
-        <v>12338.077745070001</v>
+        <v>37014.233235210006</v>
       </c>
       <c r="I86" s="36">
         <f>C$23*(y2_wa_yield_crop1/H21)</f>
         <v>56723.198359905007</v>
       </c>
-      <c r="J86" s="387">
+      <c r="J86" s="364">
         <f>$C$23*(y3_wa_yield_crop1/$H$21)</f>
         <v>57803.51162470501</v>
       </c>
-      <c r="K86" s="387">
+      <c r="K86" s="364">
         <f>$C$23*(K68/$H$21)</f>
         <v>58579.986783779997</v>
       </c>
-      <c r="L86" s="387">
+      <c r="L86" s="364">
         <f t="shared" ref="L86:V86" si="11">$C$23*(L68/$H$21)</f>
         <v>59295.694321710005</v>
       </c>
-      <c r="M86" s="387">
+      <c r="M86" s="364">
         <f t="shared" si="11"/>
         <v>59950.634238494997</v>
       </c>
-      <c r="N86" s="387">
+      <c r="N86" s="364">
         <f t="shared" si="11"/>
         <v>60558.310449944998</v>
       </c>
-      <c r="O86" s="387">
+      <c r="O86" s="364">
         <f t="shared" si="11"/>
         <v>60976.931840055011</v>
       </c>
-      <c r="P86" s="387">
+      <c r="P86" s="364">
         <f t="shared" si="11"/>
         <v>61368.545398545</v>
       </c>
-      <c r="Q86" s="387">
+      <c r="Q86" s="364">
         <f t="shared" si="11"/>
         <v>61739.903083320009</v>
       </c>
-      <c r="R86" s="387">
+      <c r="R86" s="364">
         <f t="shared" si="11"/>
         <v>62084.252936475008</v>
       </c>
-      <c r="S86" s="387">
+      <c r="S86" s="364">
         <f t="shared" si="11"/>
         <v>62408.346915915005</v>
       </c>
-      <c r="T86" s="387">
+      <c r="T86" s="364">
         <f t="shared" si="11"/>
         <v>62718.936979545004</v>
       </c>
-      <c r="U86" s="387">
+      <c r="U86" s="364">
         <f t="shared" si="11"/>
         <v>63009.27116946</v>
       </c>
-      <c r="V86" s="387">
+      <c r="V86" s="364">
         <f t="shared" si="11"/>
         <v>63279.349485660001</v>
       </c>
@@ -48441,7 +48566,7 @@
       <c r="E90" s="21"/>
       <c r="F90" s="38">
         <f>SUM(F84:F89)</f>
-        <v>3330.6484122526804</v>
+        <v>5386.9947030976809</v>
       </c>
       <c r="G90" s="195">
         <f>SUM(G84:G89)</f>
@@ -48449,7 +48574,7 @@
       </c>
       <c r="H90" s="38">
         <f t="shared" ref="H90:V90" si="12">SUM(H84:H89)</f>
-        <v>39967.780947032166</v>
+        <v>64643.936437172168</v>
       </c>
       <c r="I90" s="38">
         <f t="shared" si="12"/>
@@ -48542,7 +48667,7 @@
       <c r="E92" s="204"/>
       <c r="F92" s="83">
         <f>F81-F90</f>
-        <v>7028.2887660814413</v>
+        <v>4971.9424752364403</v>
       </c>
       <c r="G92" s="83">
         <f>G81-G90</f>
@@ -48550,7 +48675,7 @@
       </c>
       <c r="H92" s="83">
         <f>H81-H90</f>
-        <v>84339.465192977252</v>
+        <v>59663.30970283725</v>
       </c>
       <c r="I92" s="83">
         <f t="shared" ref="I92:V92" si="13">I81-I90</f>
@@ -49192,7 +49317,7 @@
       <c r="E102" s="204"/>
       <c r="F102" s="43">
         <f>F92-F100</f>
-        <v>760.78876608144128</v>
+        <v>-1295.5575247635597</v>
       </c>
       <c r="G102" s="43">
         <f>G92-G100</f>
@@ -49200,7 +49325,7 @@
       </c>
       <c r="H102" s="43">
         <f>H92-H100</f>
-        <v>9129.4651929772517</v>
+        <v>-15546.69029716275</v>
       </c>
       <c r="I102" s="43">
         <f>I92-I100</f>
@@ -49293,43 +49418,43 @@
       <c r="E104" s="206"/>
       <c r="F104" s="106">
         <f>H104/12</f>
-        <v>1392.4963226491307</v>
+        <v>2374.1773271527068</v>
       </c>
       <c r="G104" s="106">
         <f>I104/12</f>
-        <v>1392.4963226491307</v>
+        <v>2374.1773271527068</v>
       </c>
       <c r="H104" s="78">
         <f>IF($B$56/H73&gt;=1,  (Overview!$B$55*Overview!$B$53)/(1-(1+Overview!$B$55)^(-Overview!$B$56)), 0)</f>
-        <v>16709.955871789567</v>
+        <v>28490.127925832483</v>
       </c>
       <c r="I104" s="78">
         <f>IF($B$56/I73&gt;=1, H104, 0)</f>
-        <v>16709.955871789567</v>
+        <v>28490.127925832483</v>
       </c>
       <c r="J104" s="78">
         <f>IF($B$56/J73&gt;=1, I104, 0)</f>
-        <v>16709.955871789567</v>
+        <v>28490.127925832483</v>
       </c>
       <c r="K104" s="78">
         <f t="shared" ref="K104:V104" si="19">IF($B$56/K73&gt;=1, J104, 0)</f>
-        <v>16709.955871789567</v>
+        <v>28490.127925832483</v>
       </c>
       <c r="L104" s="78">
         <f t="shared" si="19"/>
-        <v>16709.955871789567</v>
+        <v>28490.127925832483</v>
       </c>
       <c r="M104" s="78">
         <f t="shared" si="19"/>
-        <v>16709.955871789567</v>
+        <v>0</v>
       </c>
       <c r="N104" s="78">
         <f t="shared" si="19"/>
-        <v>16709.955871789567</v>
+        <v>0</v>
       </c>
       <c r="O104" s="78">
         <f t="shared" si="19"/>
-        <v>16709.955871789567</v>
+        <v>0</v>
       </c>
       <c r="P104" s="78">
         <f t="shared" si="19"/>
@@ -49374,67 +49499,67 @@
       </c>
       <c r="G105" s="196">
         <f>H105</f>
-        <v>-96690.044128210429</v>
+        <v>-90309.872074167521</v>
       </c>
       <c r="H105" s="81">
         <f>F105+H104+(F105*$B$55)</f>
-        <v>-96690.044128210429</v>
+        <v>-90309.872074167521</v>
       </c>
       <c r="I105" s="81">
         <f t="shared" ref="I105:V105" si="20">H105+I104+(H105*$B$55)</f>
-        <v>-84814.590462831373</v>
+        <v>-70850.731355751792</v>
       </c>
       <c r="J105" s="81">
         <f>I105+J104+(I105*$B$55)</f>
-        <v>-72345.364114183365</v>
+        <v>-49445.67656549449</v>
       </c>
       <c r="K105" s="81">
         <f t="shared" si="20"/>
-        <v>-59252.67644810296</v>
+        <v>-25900.116296211458</v>
       </c>
       <c r="L105" s="81">
         <f t="shared" si="20"/>
-        <v>-45505.354398718548</v>
+        <v>-1.2050804798491299E-10</v>
       </c>
       <c r="M105" s="81">
         <f t="shared" si="20"/>
-        <v>-31070.666246864908</v>
+        <v>-1.3255885278340429E-10</v>
       </c>
       <c r="N105" s="81">
         <f t="shared" si="20"/>
-        <v>-15914.243687418588</v>
+        <v>-1.4581473806174471E-10</v>
       </c>
       <c r="O105" s="81">
         <f t="shared" si="20"/>
-        <v>4.9794834922067821E-11</v>
+        <v>-1.6039621186791918E-10</v>
       </c>
       <c r="P105" s="81">
         <f t="shared" si="20"/>
-        <v>5.2284576668171209E-11</v>
+        <v>-1.764358330547111E-10</v>
       </c>
       <c r="Q105" s="81">
         <f t="shared" si="20"/>
-        <v>5.4898805501579771E-11</v>
+        <v>-1.9407941636018222E-10</v>
       </c>
       <c r="R105" s="81">
         <f t="shared" si="20"/>
-        <v>5.7643745776658758E-11</v>
+        <v>-2.1348735799620044E-10</v>
       </c>
       <c r="S105" s="81">
         <f t="shared" si="20"/>
-        <v>6.0525933065491697E-11</v>
+        <v>-2.3483609379582046E-10</v>
       </c>
       <c r="T105" s="81">
         <f t="shared" si="20"/>
-        <v>6.355222971876628E-11</v>
+        <v>-2.5831970317540249E-10</v>
       </c>
       <c r="U105" s="81">
         <f t="shared" si="20"/>
-        <v>6.67298412047046E-11</v>
+        <v>-2.8415167349294275E-10</v>
       </c>
       <c r="V105" s="81">
         <f t="shared" si="20"/>
-        <v>7.006633326493983E-11</v>
+        <v>-3.1256684084223703E-10</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="13">
@@ -49619,7 +49744,7 @@
       <c r="E109" s="206"/>
       <c r="F109" s="42">
         <f>F102</f>
-        <v>760.78876608144128</v>
+        <v>-1295.5575247635597</v>
       </c>
       <c r="G109" s="42">
         <f>G102</f>
@@ -49627,35 +49752,35 @@
       </c>
       <c r="H109" s="42">
         <f>H102-H106-H104-H107</f>
-        <v>-17726.674835327263</v>
+        <v>-54183.002379510188</v>
       </c>
       <c r="I109" s="42">
         <f t="shared" ref="I109:V109" si="22">I102-I106-I104-I107</f>
-        <v>715.6846885045743</v>
+        <v>-11064.487365538342</v>
       </c>
       <c r="J109" s="42">
         <f t="shared" si="22"/>
-        <v>4099.231178636277</v>
+        <v>-7680.940875406639</v>
       </c>
       <c r="K109" s="42">
         <f t="shared" si="22"/>
-        <v>6531.1552184183311</v>
+        <v>-5249.0168356245849</v>
       </c>
       <c r="L109" s="42">
         <f t="shared" si="22"/>
-        <v>8772.7547681306241</v>
+        <v>-3007.4172859122918</v>
       </c>
       <c r="M109" s="42">
         <f t="shared" si="22"/>
-        <v>10824.029827772894</v>
+        <v>27533.985699562461</v>
       </c>
       <c r="N109" s="42">
         <f t="shared" si="22"/>
-        <v>12727.274728471926</v>
+        <v>29437.230600261497</v>
       </c>
       <c r="O109" s="42">
         <f t="shared" si="22"/>
-        <v>14038.398993398023</v>
+        <v>30748.354865187594</v>
       </c>
       <c r="P109" s="42">
         <f t="shared" si="22"/>
@@ -50015,55 +50140,55 @@
         <v>0</v>
       </c>
       <c r="J116" s="82">
-        <f>I116*(1-labour_improvement)</f>
+        <f t="shared" ref="J116:V116" si="26">I116*(1-labour_improvement)</f>
         <v>0</v>
       </c>
       <c r="K116" s="82">
-        <f>J116*(1-labour_improvement)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L116" s="82">
-        <f>K116*(1-labour_improvement)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M116" s="82">
-        <f>L116*(1-labour_improvement)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N116" s="82">
-        <f>M116*(1-labour_improvement)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O116" s="82">
-        <f>N116*(1-labour_improvement)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P116" s="82">
-        <f>O116*(1-labour_improvement)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q116" s="82">
-        <f>P116*(1-labour_improvement)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R116" s="82">
-        <f>Q116*(1-labour_improvement)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S116" s="82">
-        <f>R116*(1-labour_improvement)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T116" s="82">
-        <f>S116*(1-labour_improvement)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U116" s="82">
-        <f>T116*(1-labour_improvement)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V116" s="82">
-        <f>U116*(1-labour_improvement)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -50084,47 +50209,47 @@
         <v>1500</v>
       </c>
       <c r="H117" s="38">
-        <f t="shared" ref="H117:R117" si="26">SUM(H113:H115)</f>
+        <f t="shared" ref="H117:R117" si="27">SUM(H113:H115)</f>
         <v>18000</v>
       </c>
       <c r="I117" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18000</v>
       </c>
       <c r="J117" s="84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18000</v>
       </c>
       <c r="K117" s="84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18000</v>
       </c>
       <c r="L117" s="84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18000</v>
       </c>
       <c r="M117" s="84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18000</v>
       </c>
       <c r="N117" s="84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18000</v>
       </c>
       <c r="O117" s="84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18000</v>
       </c>
       <c r="P117" s="84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18000</v>
       </c>
       <c r="Q117" s="84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18000</v>
       </c>
       <c r="R117" s="84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18000</v>
       </c>
       <c r="S117" s="84">
@@ -50248,11 +50373,11 @@
         <v>102</v>
       </c>
       <c r="H120" s="35">
-        <f t="shared" ref="H120:I125" si="27">F130*$C120</f>
+        <f t="shared" ref="H120:I125" si="28">F130*$C120</f>
         <v>0</v>
       </c>
       <c r="I120" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J120" s="82">
@@ -50260,51 +50385,51 @@
         <v>0</v>
       </c>
       <c r="K120" s="82">
-        <f t="shared" ref="K120:Q120" si="28">J120</f>
+        <f t="shared" ref="K120:Q120" si="29">J120</f>
         <v>0</v>
       </c>
       <c r="L120" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M120" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N120" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O120" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P120" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q120" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R120" s="82">
-        <f t="shared" ref="R120:V126" si="29">Q120</f>
+        <f t="shared" ref="R120:V126" si="30">Q120</f>
         <v>0</v>
       </c>
       <c r="S120" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T120" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="U120" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V120" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -50316,7 +50441,7 @@
         <v>1560</v>
       </c>
       <c r="C121" s="35">
-        <f t="shared" ref="C121:C126" si="30">B121*12</f>
+        <f t="shared" ref="C121:C126" si="31">B121*12</f>
         <v>18720</v>
       </c>
       <c r="D121" s="35"/>
@@ -50328,63 +50453,63 @@
         <v>102</v>
       </c>
       <c r="H121" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I121" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>18720</v>
       </c>
       <c r="J121" s="82">
-        <f t="shared" ref="J121:Q126" si="31">I121</f>
+        <f t="shared" ref="J121:Q126" si="32">I121</f>
         <v>18720</v>
       </c>
       <c r="K121" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="L121" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="M121" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="N121" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="O121" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="P121" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="Q121" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="R121" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18720</v>
       </c>
       <c r="S121" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18720</v>
       </c>
       <c r="T121" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18720</v>
       </c>
       <c r="U121" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18720</v>
       </c>
       <c r="V121" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18720</v>
       </c>
     </row>
@@ -50396,7 +50521,7 @@
         <v>2025</v>
       </c>
       <c r="C122" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>24300</v>
       </c>
       <c r="D122" s="35"/>
@@ -50408,63 +50533,63 @@
         <v>102</v>
       </c>
       <c r="H122" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>12150</v>
       </c>
       <c r="I122" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>12150</v>
       </c>
       <c r="J122" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12150</v>
       </c>
       <c r="K122" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12150</v>
       </c>
       <c r="L122" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12150</v>
       </c>
       <c r="M122" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12150</v>
       </c>
       <c r="N122" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12150</v>
       </c>
       <c r="O122" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12150</v>
       </c>
       <c r="P122" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12150</v>
       </c>
       <c r="Q122" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12150</v>
       </c>
       <c r="R122" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12150</v>
       </c>
       <c r="S122" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12150</v>
       </c>
       <c r="T122" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12150</v>
       </c>
       <c r="U122" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12150</v>
       </c>
       <c r="V122" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12150</v>
       </c>
     </row>
@@ -50488,63 +50613,63 @@
         <v>102</v>
       </c>
       <c r="H123" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>24300</v>
       </c>
       <c r="I123" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>24300</v>
       </c>
       <c r="J123" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>24300</v>
       </c>
       <c r="K123" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>24300</v>
       </c>
       <c r="L123" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>24300</v>
       </c>
       <c r="M123" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>24300</v>
       </c>
       <c r="N123" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>24300</v>
       </c>
       <c r="O123" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>24300</v>
       </c>
       <c r="P123" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>24300</v>
       </c>
       <c r="Q123" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>24300</v>
       </c>
       <c r="R123" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>24300</v>
       </c>
       <c r="S123" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>24300</v>
       </c>
       <c r="T123" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>24300</v>
       </c>
       <c r="U123" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>24300</v>
       </c>
       <c r="V123" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>24300</v>
       </c>
     </row>
@@ -50556,7 +50681,7 @@
         <v>1560</v>
       </c>
       <c r="C124" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>18720</v>
       </c>
       <c r="D124" s="35"/>
@@ -50568,63 +50693,63 @@
         <v>102</v>
       </c>
       <c r="H124" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I124" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>18720</v>
       </c>
       <c r="J124" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="K124" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="L124" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="M124" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="N124" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="O124" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="P124" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="Q124" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="R124" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18720</v>
       </c>
       <c r="S124" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18720</v>
       </c>
       <c r="T124" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18720</v>
       </c>
       <c r="U124" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18720</v>
       </c>
       <c r="V124" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18720</v>
       </c>
     </row>
@@ -50636,7 +50761,7 @@
         <v>2025</v>
       </c>
       <c r="C125" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>24300</v>
       </c>
       <c r="D125" s="35"/>
@@ -50648,7 +50773,7 @@
         <v>102</v>
       </c>
       <c r="H125" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>24300</v>
       </c>
       <c r="I125" s="36">
@@ -50660,51 +50785,51 @@
         <v>0</v>
       </c>
       <c r="K125" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L125" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M125" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N125" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O125" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P125" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q125" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R125" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S125" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T125" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="U125" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V125" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -50716,7 +50841,7 @@
         <v>624</v>
       </c>
       <c r="C126" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7488</v>
       </c>
       <c r="D126" s="35"/>
@@ -50736,55 +50861,55 @@
         <v>7488</v>
       </c>
       <c r="J126" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7488</v>
       </c>
       <c r="K126" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7488</v>
       </c>
       <c r="L126" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7488</v>
       </c>
       <c r="M126" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7488</v>
       </c>
       <c r="N126" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7488</v>
       </c>
       <c r="O126" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7488</v>
       </c>
       <c r="P126" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7488</v>
       </c>
       <c r="Q126" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7488</v>
       </c>
       <c r="R126" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7488</v>
       </c>
       <c r="S126" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7488</v>
       </c>
       <c r="T126" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7488</v>
       </c>
       <c r="U126" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7488</v>
       </c>
       <c r="V126" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7488</v>
       </c>
     </row>
@@ -50805,63 +50930,63 @@
         <v>6781.5</v>
       </c>
       <c r="H127" s="38">
-        <f t="shared" ref="H127:V127" si="32">SUM(H120:H126)</f>
+        <f t="shared" ref="H127:V127" si="33">SUM(H120:H126)</f>
         <v>60750</v>
       </c>
       <c r="I127" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
       <c r="J127" s="84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
       <c r="K127" s="84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
       <c r="L127" s="84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
       <c r="M127" s="84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
       <c r="N127" s="84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
       <c r="O127" s="84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
       <c r="P127" s="84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
       <c r="Q127" s="84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
       <c r="R127" s="84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
       <c r="S127" s="84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
       <c r="T127" s="84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
       <c r="U127" s="84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
       <c r="V127" s="84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>81378</v>
       </c>
     </row>
@@ -50964,51 +51089,51 @@
         <v>0</v>
       </c>
       <c r="I130" s="206">
-        <f t="shared" ref="I130:O130" si="33">H130</f>
+        <f t="shared" ref="I130:O130" si="34">H130</f>
         <v>0</v>
       </c>
       <c r="J130" s="206">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K130" s="206">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L130" s="206">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M130" s="206">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N130" s="206">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O130" s="206">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P130" s="206">
-        <f t="shared" ref="P130:T139" si="34">O130</f>
+        <f t="shared" ref="P130:T139" si="35">O130</f>
         <v>0</v>
       </c>
       <c r="Q130" s="206">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R130" s="206">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S130" s="206">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T130" s="206">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U130" s="206"/>
@@ -51029,55 +51154,55 @@
         <v>1</v>
       </c>
       <c r="H131" s="206">
-        <f t="shared" ref="H131:O139" si="35">G131</f>
+        <f t="shared" ref="H131:O139" si="36">G131</f>
         <v>1</v>
       </c>
       <c r="I131" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="J131" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="K131" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="L131" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="M131" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="N131" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O131" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="P131" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="J131" s="206">
+      <c r="Q131" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="K131" s="206">
+      <c r="R131" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="L131" s="206">
+      <c r="S131" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="M131" s="206">
+      <c r="T131" s="206">
         <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="N131" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="O131" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="P131" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Q131" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="R131" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="S131" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="T131" s="206">
-        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="U131" s="206"/>
@@ -51098,55 +51223,55 @@
         <v>0.5</v>
       </c>
       <c r="H132" s="206">
+        <f t="shared" si="36"/>
+        <v>0.5</v>
+      </c>
+      <c r="I132" s="206">
+        <f t="shared" si="36"/>
+        <v>0.5</v>
+      </c>
+      <c r="J132" s="206">
+        <f t="shared" si="36"/>
+        <v>0.5</v>
+      </c>
+      <c r="K132" s="206">
+        <f t="shared" si="36"/>
+        <v>0.5</v>
+      </c>
+      <c r="L132" s="206">
+        <f t="shared" si="36"/>
+        <v>0.5</v>
+      </c>
+      <c r="M132" s="206">
+        <f t="shared" si="36"/>
+        <v>0.5</v>
+      </c>
+      <c r="N132" s="206">
+        <f t="shared" si="36"/>
+        <v>0.5</v>
+      </c>
+      <c r="O132" s="206">
+        <f t="shared" si="36"/>
+        <v>0.5</v>
+      </c>
+      <c r="P132" s="206">
         <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
-      <c r="I132" s="206">
+      <c r="Q132" s="206">
         <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
-      <c r="J132" s="206">
+      <c r="R132" s="206">
         <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
-      <c r="K132" s="206">
+      <c r="S132" s="206">
         <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
-      <c r="L132" s="206">
+      <c r="T132" s="206">
         <f t="shared" si="35"/>
-        <v>0.5</v>
-      </c>
-      <c r="M132" s="206">
-        <f t="shared" si="35"/>
-        <v>0.5</v>
-      </c>
-      <c r="N132" s="206">
-        <f t="shared" si="35"/>
-        <v>0.5</v>
-      </c>
-      <c r="O132" s="206">
-        <f t="shared" si="35"/>
-        <v>0.5</v>
-      </c>
-      <c r="P132" s="206">
-        <f t="shared" si="34"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q132" s="206">
-        <f t="shared" si="34"/>
-        <v>0.5</v>
-      </c>
-      <c r="R132" s="206">
-        <f t="shared" si="34"/>
-        <v>0.5</v>
-      </c>
-      <c r="S132" s="206">
-        <f t="shared" si="34"/>
-        <v>0.5</v>
-      </c>
-      <c r="T132" s="206">
-        <f t="shared" si="34"/>
         <v>0.5</v>
       </c>
       <c r="U132" s="206"/>
@@ -51167,55 +51292,55 @@
         <v>1</v>
       </c>
       <c r="H133" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="I133" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="J133" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="K133" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="L133" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="M133" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="N133" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O133" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="P133" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="I133" s="206">
+      <c r="Q133" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="J133" s="206">
+      <c r="R133" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="K133" s="206">
+      <c r="S133" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="L133" s="206">
+      <c r="T133" s="206">
         <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="M133" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="N133" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="O133" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="P133" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Q133" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="R133" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="S133" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="T133" s="206">
-        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="U133" s="206"/>
@@ -51236,55 +51361,55 @@
         <v>1</v>
       </c>
       <c r="H134" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="I134" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="J134" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="K134" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="L134" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="M134" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="N134" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O134" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="P134" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="I134" s="206">
+      <c r="Q134" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="J134" s="206">
+      <c r="R134" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="K134" s="206">
+      <c r="S134" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="L134" s="206">
+      <c r="T134" s="206">
         <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="M134" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="N134" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="O134" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="P134" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Q134" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="R134" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="S134" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="T134" s="206">
-        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="U134" s="206"/>
@@ -51301,55 +51426,55 @@
         <v>0</v>
       </c>
       <c r="H135" s="211">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I135" s="211">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="211">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="211">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L135" s="211">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M135" s="211">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="N135" s="211">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O135" s="211">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P135" s="211">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I135" s="211">
+      <c r="Q135" s="211">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J135" s="211">
+      <c r="R135" s="211">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="K135" s="211">
+      <c r="S135" s="211">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="L135" s="211">
+      <c r="T135" s="211">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="M135" s="211">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="N135" s="211">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O135" s="211">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="P135" s="211">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="Q135" s="211">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="R135" s="211">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="S135" s="211">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="T135" s="211">
-        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -51368,55 +51493,55 @@
         <v>0</v>
       </c>
       <c r="H136" s="206">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I136" s="206">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="206">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="206">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L136" s="206">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M136" s="206">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="N136" s="206">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O136" s="206">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P136" s="206">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I136" s="206">
+      <c r="Q136" s="206">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J136" s="206">
+      <c r="R136" s="206">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="K136" s="206">
+      <c r="S136" s="206">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="L136" s="206">
+      <c r="T136" s="206">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="M136" s="206">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="N136" s="206">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O136" s="206">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="P136" s="206">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="Q136" s="206">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="R136" s="206">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="S136" s="206">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="T136" s="206">
-        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="U136" s="206"/>
@@ -51437,55 +51562,55 @@
         <v>1</v>
       </c>
       <c r="H137" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="I137" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="J137" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="K137" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="L137" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="M137" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="N137" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O137" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="P137" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="I137" s="206">
+      <c r="Q137" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="J137" s="206">
+      <c r="R137" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="K137" s="206">
+      <c r="S137" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="L137" s="206">
+      <c r="T137" s="206">
         <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="M137" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="N137" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="O137" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="P137" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Q137" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="R137" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="S137" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="T137" s="206">
-        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="U137" s="206"/>
@@ -51506,55 +51631,55 @@
         <v>1</v>
       </c>
       <c r="H138" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="I138" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="J138" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="K138" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="L138" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="M138" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="N138" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O138" s="206">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="P138" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="I138" s="206">
+      <c r="Q138" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="J138" s="206">
+      <c r="R138" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="K138" s="206">
+      <c r="S138" s="206">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="L138" s="206">
+      <c r="T138" s="206">
         <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="M138" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="N138" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="O138" s="206">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="P138" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Q138" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="R138" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="S138" s="206">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="T138" s="206">
-        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="U138" s="206"/>
@@ -51571,55 +51696,55 @@
         <v>0</v>
       </c>
       <c r="H139" s="277">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I139" s="277">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J139" s="277">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K139" s="277">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L139" s="277">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M139" s="277">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="N139" s="277">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O139" s="277">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P139" s="277">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I139" s="277">
+      <c r="Q139" s="277">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J139" s="277">
+      <c r="R139" s="277">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="K139" s="277">
+      <c r="S139" s="277">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="L139" s="277">
+      <c r="T139" s="277">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="M139" s="277">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="N139" s="277">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O139" s="277">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="P139" s="277">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="Q139" s="277">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="R139" s="277">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="S139" s="277">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="T139" s="277">
-        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -51632,63 +51757,63 @@
       <c r="D140" s="204"/>
       <c r="E140" s="204"/>
       <c r="F140" s="204">
-        <f t="shared" ref="F140:T140" si="36">SUM(F130:F139)</f>
+        <f t="shared" ref="F140:T140" si="37">SUM(F130:F139)</f>
         <v>3.5</v>
       </c>
       <c r="G140" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="H140" s="85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="I140" s="85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="J140" s="85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="K140" s="85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="L140" s="85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="M140" s="85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="N140" s="85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="O140" s="85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="P140" s="85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="Q140" s="85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="R140" s="85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="S140" s="85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="T140" s="85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="U140" s="206"/>
@@ -51696,17 +51821,17 @@
     </row>
     <row r="142" spans="1:22" ht="15.75" customHeight="1">
       <c r="F142" s="269"/>
-      <c r="G142" s="371" t="s">
+      <c r="G142" s="372" t="s">
         <v>632</v>
       </c>
-      <c r="H142" s="372"/>
-      <c r="I142" s="372"/>
+      <c r="H142" s="373"/>
+      <c r="I142" s="373"/>
       <c r="K142" s="269"/>
-      <c r="L142" s="371" t="s">
+      <c r="L142" s="372" t="s">
         <v>633</v>
       </c>
-      <c r="M142" s="372"/>
-      <c r="N142" s="372"/>
+      <c r="M142" s="373"/>
+      <c r="N142" s="373"/>
     </row>
     <row r="143" spans="1:22" ht="15.75" customHeight="1">
       <c r="F143" s="272" t="s">
@@ -51976,11 +52101,11 @@
         <v>30</v>
       </c>
       <c r="H151" s="269">
-        <f t="shared" ref="H151:I151" si="37">H150*H143</f>
+        <f t="shared" ref="H151:I151" si="38">H150*H143</f>
         <v>41</v>
       </c>
       <c r="I151" s="269">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>51</v>
       </c>
       <c r="K151" s="185" t="s">
@@ -51991,11 +52116,11 @@
         <v>30</v>
       </c>
       <c r="M151" s="269">
-        <f t="shared" ref="M151" si="38">M150*M143</f>
+        <f t="shared" ref="M151" si="39">M150*M143</f>
         <v>41</v>
       </c>
       <c r="N151" s="269">
-        <f t="shared" ref="N151" si="39">N150*N143</f>
+        <f t="shared" ref="N151" si="40">N150*N143</f>
         <v>51</v>
       </c>
       <c r="P151" s="47" t="s">
@@ -52014,11 +52139,11 @@
         <v>261.60000000000002</v>
       </c>
       <c r="H152" s="270">
-        <f t="shared" ref="H152:I152" si="40">$B$116*H151</f>
+        <f t="shared" ref="H152:I152" si="41">$B$116*H151</f>
         <v>357.52000000000004</v>
       </c>
       <c r="I152" s="270">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>444.72</v>
       </c>
       <c r="K152" s="185" t="s">
@@ -52029,11 +52154,11 @@
         <v>261.60000000000002</v>
       </c>
       <c r="M152" s="270">
-        <f t="shared" ref="M152" si="41">$B$116*M151</f>
+        <f t="shared" ref="M152" si="42">$B$116*M151</f>
         <v>357.52000000000004</v>
       </c>
       <c r="N152" s="270">
-        <f t="shared" ref="N152" si="42">$B$116*N151</f>
+        <f t="shared" ref="N152" si="43">$B$116*N151</f>
         <v>444.72</v>
       </c>
       <c r="P152" s="47" t="s">
@@ -52045,17 +52170,17 @@
     </row>
     <row r="153" spans="6:17" ht="15.75" customHeight="1">
       <c r="F153" s="269"/>
-      <c r="G153" s="371" t="s">
+      <c r="G153" s="372" t="s">
         <v>631</v>
       </c>
-      <c r="H153" s="371"/>
-      <c r="I153" s="371"/>
+      <c r="H153" s="372"/>
+      <c r="I153" s="372"/>
       <c r="K153" s="269"/>
-      <c r="L153" s="371" t="s">
+      <c r="L153" s="372" t="s">
         <v>631</v>
       </c>
-      <c r="M153" s="371"/>
-      <c r="N153" s="371"/>
+      <c r="M153" s="372"/>
+      <c r="N153" s="372"/>
       <c r="P153" s="47" t="s">
         <v>64</v>
       </c>
@@ -52073,11 +52198,11 @@
         <v>130</v>
       </c>
       <c r="H154" s="269">
-        <f t="shared" ref="H154:I154" si="43">H150*52/12</f>
+        <f t="shared" ref="H154:I154" si="44">H150*52/12</f>
         <v>88.833333333333329</v>
       </c>
       <c r="I154" s="269">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>73.666666666666671</v>
       </c>
       <c r="K154" s="185" t="s">
@@ -52088,11 +52213,11 @@
         <v>130</v>
       </c>
       <c r="M154" s="269">
-        <f t="shared" ref="M154:N154" si="44">M150*52/12</f>
+        <f t="shared" ref="M154:N154" si="45">M150*52/12</f>
         <v>88.833333333333329</v>
       </c>
       <c r="N154" s="269">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>73.666666666666671</v>
       </c>
     </row>
@@ -52105,11 +52230,11 @@
         <v>130</v>
       </c>
       <c r="H155" s="269">
-        <f t="shared" ref="H155:I155" si="45">H154*H143</f>
+        <f t="shared" ref="H155:I155" si="46">H154*H143</f>
         <v>177.66666666666666</v>
       </c>
       <c r="I155" s="269">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>221</v>
       </c>
       <c r="K155" s="185" t="s">
@@ -52120,11 +52245,11 @@
         <v>130</v>
       </c>
       <c r="M155" s="269">
-        <f t="shared" ref="M155" si="46">M154*M143</f>
+        <f t="shared" ref="M155" si="47">M154*M143</f>
         <v>177.66666666666666</v>
       </c>
       <c r="N155" s="269">
-        <f t="shared" ref="N155" si="47">N154*N143</f>
+        <f t="shared" ref="N155" si="48">N154*N143</f>
         <v>221</v>
       </c>
     </row>
@@ -52137,11 +52262,11 @@
         <v>1133.6000000000001</v>
       </c>
       <c r="H156" s="270">
-        <f t="shared" ref="H156:I156" si="48">H155*$B$116</f>
+        <f t="shared" ref="H156:I156" si="49">H155*$B$116</f>
         <v>1549.2533333333333</v>
       </c>
       <c r="I156" s="270">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1927.1200000000001</v>
       </c>
       <c r="K156" s="185" t="s">
@@ -52152,11 +52277,11 @@
         <v>1133.6000000000001</v>
       </c>
       <c r="M156" s="270">
-        <f t="shared" ref="M156" si="49">M155*$B$116</f>
+        <f t="shared" ref="M156" si="50">M155*$B$116</f>
         <v>1549.2533333333333</v>
       </c>
       <c r="N156" s="270">
-        <f t="shared" ref="N156" si="50">N155*$B$116</f>
+        <f t="shared" ref="N156" si="51">N155*$B$116</f>
         <v>1927.1200000000001</v>
       </c>
     </row>
@@ -52319,34 +52444,34 @@
       <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="367" t="s">
+      <c r="A2" s="368" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="367"/>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366"/>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366"/>
-      <c r="I2" s="366"/>
-      <c r="J2" s="366"/>
-      <c r="K2" s="366"/>
+      <c r="B2" s="368"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="367"/>
+      <c r="K2" s="367"/>
     </row>
     <row r="3" spans="1:11" s="96" customFormat="1">
-      <c r="A3" s="368" t="s">
+      <c r="A3" s="369" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="368"/>
-      <c r="C3" s="366"/>
-      <c r="D3" s="366"/>
-      <c r="E3" s="366"/>
-      <c r="F3" s="366"/>
-      <c r="G3" s="366"/>
-      <c r="H3" s="366"/>
-      <c r="I3" s="366"/>
-      <c r="J3" s="366"/>
-      <c r="K3" s="366"/>
+      <c r="B3" s="369"/>
+      <c r="C3" s="367"/>
+      <c r="D3" s="367"/>
+      <c r="E3" s="367"/>
+      <c r="F3" s="367"/>
+      <c r="G3" s="367"/>
+      <c r="H3" s="367"/>
+      <c r="I3" s="367"/>
+      <c r="J3" s="367"/>
+      <c r="K3" s="367"/>
     </row>
     <row r="4" spans="1:11" s="96" customFormat="1">
       <c r="A4" s="92" t="s">
@@ -52364,19 +52489,19 @@
       <c r="K4" s="93"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="369" t="s">
+      <c r="A5" s="370" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="369"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="366"/>
-      <c r="G5" s="366"/>
-      <c r="H5" s="366"/>
-      <c r="I5" s="366"/>
-      <c r="J5" s="366"/>
-      <c r="K5" s="366"/>
+      <c r="B5" s="370"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
+      <c r="G5" s="367"/>
+      <c r="H5" s="367"/>
+      <c r="I5" s="367"/>
+      <c r="J5" s="367"/>
+      <c r="K5" s="367"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="94" t="s">
@@ -52485,12 +52610,12 @@
       <c r="C14" s="98"/>
       <c r="D14" s="98"/>
       <c r="E14" s="98"/>
-      <c r="F14" s="383" t="s">
+      <c r="F14" s="384" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="383"/>
-      <c r="H14" s="383"/>
-      <c r="I14" s="383"/>
+      <c r="G14" s="384"/>
+      <c r="H14" s="384"/>
+      <c r="I14" s="384"/>
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
@@ -54094,13 +54219,13 @@
     </row>
     <row r="21" spans="1:13" s="160" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="147"/>
-      <c r="B21" s="384" t="s">
+      <c r="B21" s="385" t="s">
         <v>481</v>
       </c>
-      <c r="C21" s="384"/>
-      <c r="D21" s="384"/>
-      <c r="E21" s="384"/>
-      <c r="F21" s="384"/>
+      <c r="C21" s="385"/>
+      <c r="D21" s="385"/>
+      <c r="E21" s="385"/>
+      <c r="F21" s="385"/>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
       <c r="I21" s="55"/>
@@ -54300,13 +54425,13 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1">
       <c r="A33" s="147"/>
-      <c r="B33" s="384" t="s">
+      <c r="B33" s="385" t="s">
         <v>481</v>
       </c>
-      <c r="C33" s="384"/>
-      <c r="D33" s="384"/>
-      <c r="E33" s="384"/>
-      <c r="F33" s="384"/>
+      <c r="C33" s="385"/>
+      <c r="D33" s="385"/>
+      <c r="E33" s="385"/>
+      <c r="F33" s="385"/>
       <c r="H33" s="55"/>
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
@@ -56611,14 +56736,14 @@
       <c r="G6" s="149"/>
       <c r="H6" s="149"/>
       <c r="I6" s="149"/>
-      <c r="J6" s="385" t="s">
+      <c r="J6" s="386" t="s">
         <v>465</v>
       </c>
-      <c r="K6" s="385"/>
-      <c r="L6" s="385"/>
-      <c r="M6" s="385"/>
-      <c r="N6" s="385"/>
-      <c r="O6" s="385"/>
+      <c r="K6" s="386"/>
+      <c r="L6" s="386"/>
+      <c r="M6" s="386"/>
+      <c r="N6" s="386"/>
+      <c r="O6" s="386"/>
       <c r="P6" s="153"/>
       <c r="Q6" s="153"/>
     </row>
@@ -67608,12 +67733,12 @@
       <c r="C19" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="386" t="s">
+      <c r="G19" s="387" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="386"/>
-      <c r="I19" s="386"/>
-      <c r="J19" s="386"/>
+      <c r="H19" s="387"/>
+      <c r="I19" s="387"/>
+      <c r="J19" s="387"/>
       <c r="L19" s="30" t="s">
         <v>99</v>
       </c>

--- a/Current_Financial_Model.xlsx
+++ b/Current_Financial_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francis/PycharmProjects/VerticalFarming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4340A06-5EBB-D846-9BC9-C0A1A36C3932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15217002-06B2-BA41-9954-12948D157AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="21360" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24400" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <definedName name="ceo_msalary">Overview!$B$120</definedName>
     <definedName name="climate_control">Overview!$B$33</definedName>
     <definedName name="co2_enrichment">Overview!$B$43</definedName>
-    <definedName name="construction_cost">Overview!$B$60</definedName>
+    <definedName name="construction_cost">Overview!$B$62</definedName>
     <definedName name="crop_total_percent">Overview!$L$16</definedName>
     <definedName name="crop_typ1">Overview!$H$15</definedName>
     <definedName name="crop_typ2">Overview!$I$15</definedName>
@@ -161,7 +161,7 @@
     <definedName name="education_avg_revenue_y2">Overview!$G$77</definedName>
     <definedName name="education_multiplier">Overview!$C$77</definedName>
     <definedName name="electricity_price">Overview!$B$46</definedName>
-    <definedName name="equipment_cost">Overview!$B$61</definedName>
+    <definedName name="equipment_cost">Overview!$B$63</definedName>
     <definedName name="facility_size_full">Overview!$C$15</definedName>
     <definedName name="facility_size_pilot">Overview!$B$15</definedName>
     <definedName name="farm_type">Overview!$B$29</definedName>
@@ -199,14 +199,15 @@
     <definedName name="insultation_level">Overview!$B$41</definedName>
     <definedName name="insurance_full">Overview!$G$98</definedName>
     <definedName name="insurance_pilot">Overview!$F$98</definedName>
+    <definedName name="ipm">Overview!$B$50</definedName>
     <definedName name="labour_improvement">Overview!$B$47</definedName>
     <definedName name="light_qty">Overview!$C$37</definedName>
     <definedName name="light_system">Overview!$B$37</definedName>
     <definedName name="lighting_control">Overview!$B$34</definedName>
-    <definedName name="loan_amount">Overview!$B$53</definedName>
-    <definedName name="loan_interest">Overview!$B$55</definedName>
-    <definedName name="loan_tenure">Overview!$B$56</definedName>
-    <definedName name="loan_type">Overview!$B$57</definedName>
+    <definedName name="loan_amount">Overview!$B$55</definedName>
+    <definedName name="loan_interest">Overview!$B$57</definedName>
+    <definedName name="loan_tenure">Overview!$B$58</definedName>
+    <definedName name="loan_type">Overview!$B$59</definedName>
     <definedName name="m1_wa_sales">Overview!$F$72</definedName>
     <definedName name="m1_wa_yield_crop1">Overview!$F$68</definedName>
     <definedName name="m1_wa_yield_crop2">Overview!$F$69</definedName>
@@ -261,6 +262,7 @@
     <definedName name="percent_production_area_full">Overview!$C$16</definedName>
     <definedName name="percent_production_area_pilot">Overview!$B$16</definedName>
     <definedName name="percentage_renewable_energy">Overview!$B$48</definedName>
+    <definedName name="pest_detection">Overview!$B$51</definedName>
     <definedName name="plant_sites">Overview!$B$38</definedName>
     <definedName name="production_area_full">Overview!$C$16</definedName>
     <definedName name="production_area_pilot">Overview!$B$16</definedName>
@@ -273,7 +275,7 @@
     <definedName name="productivity_volume">Overview!$I$51</definedName>
     <definedName name="productivity_water">Overview!$I$49</definedName>
     <definedName name="produticity_net_CO2">Overview!$I$54</definedName>
-    <definedName name="reserve_fund">Overview!$B$63</definedName>
+    <definedName name="reserve_fund">Overview!$B$65</definedName>
     <definedName name="roof_type">Overview!$B$42</definedName>
     <definedName name="salesperson_count_y1">Overview!$F$134</definedName>
     <definedName name="salesperson_count_y2">Overview!$G$134</definedName>
@@ -297,12 +299,12 @@
     <definedName name="target_productivity_space">Overview!$J$46</definedName>
     <definedName name="target_productivity_volume">Overview!$J$51</definedName>
     <definedName name="target_productivity_water">Overview!$J$49</definedName>
-    <definedName name="tax_rate">Overview!$B$54</definedName>
+    <definedName name="tax_rate">Overview!$B$56</definedName>
     <definedName name="total_brevenue_full">Overview!$L$28</definedName>
     <definedName name="total_brevenue_pilot">Overview!$L$27</definedName>
     <definedName name="total_byield_full">Overview!$L$26</definedName>
     <definedName name="total_byield_pilot">Overview!$L$25</definedName>
-    <definedName name="total_capex">Overview!$B$62</definedName>
+    <definedName name="total_capex">Overview!$B$64</definedName>
     <definedName name="total_headcount_y1">Overview!$F$140</definedName>
     <definedName name="total_headcount_y2">Overview!$G$140</definedName>
     <definedName name="total_plants_full">Overview!$L$30</definedName>
@@ -1925,7 +1927,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="886">
   <si>
     <t>Packaging types &amp; ROUGH Cost per package</t>
   </si>
@@ -4568,6 +4570,21 @@
   </si>
   <si>
     <t>target_productivity_CO2_miti</t>
+  </si>
+  <si>
+    <t>Integrated Pest Management</t>
+  </si>
+  <si>
+    <t>Pest Detection Technology</t>
+  </si>
+  <si>
+    <t>ipm</t>
+  </si>
+  <si>
+    <t>pest_detection</t>
+  </si>
+  <si>
+    <t>electrical_backup</t>
   </si>
 </sst>
 </file>
@@ -5390,7 +5407,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="388">
+  <cellXfs count="390">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5902,6 +5919,8 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14217,10 +14236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262F1FB0-CD2F-E14E-8300-C92D3DA9F93F}">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="96" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -15375,6 +15394,32 @@
       <c r="B128">
         <f>target_productivity_CO2_net</f>
         <v>-100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="47" t="s">
+        <v>883</v>
+      </c>
+      <c r="B129" t="str">
+        <f>ipm</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="47" t="s">
+        <v>884</v>
+      </c>
+      <c r="B130" t="str">
+        <f>pest_detection</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="47" t="s">
+        <v>885</v>
+      </c>
+      <c r="B131" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -16349,63 +16394,63 @@
         <v>-2141.0728711398056</v>
       </c>
       <c r="D18" s="78">
-        <f>D12-(D12*Overview!$B$54)-D14-D16</f>
+        <f>D12-(D12*Overview!$B$56)-D14-D16</f>
         <v>-54183.002379510188</v>
       </c>
       <c r="E18" s="78">
-        <f>E12-(E12*Overview!$B$54)-E14-E16</f>
+        <f>E12-(E12*Overview!$B$56)-E14-E16</f>
         <v>-11064.487365538342</v>
       </c>
       <c r="F18" s="78">
-        <f>F12-(F12*Overview!$B$54)-F14-F16</f>
+        <f>F12-(F12*Overview!$B$56)-F14-F16</f>
         <v>-7680.940875406639</v>
       </c>
       <c r="G18" s="78">
-        <f>G12-(G12*Overview!$B$54)-G14-G16</f>
+        <f>G12-(G12*Overview!$B$56)-G14-G16</f>
         <v>-5249.0168356245849</v>
       </c>
       <c r="H18" s="78">
-        <f>H12-(H12*Overview!$B$54)-H14-H16</f>
+        <f>H12-(H12*Overview!$B$56)-H14-H16</f>
         <v>-3007.4172859122918</v>
       </c>
       <c r="I18" s="78">
-        <f>I12-(I12*Overview!$B$54)-I14-I16</f>
+        <f>I12-(I12*Overview!$B$56)-I14-I16</f>
         <v>27533.985699562461</v>
       </c>
       <c r="J18" s="78">
-        <f>J12-(J12*Overview!$B$54)-J14-J16</f>
+        <f>J12-(J12*Overview!$B$56)-J14-J16</f>
         <v>29437.230600261497</v>
       </c>
       <c r="K18" s="78">
-        <f>K12-(K12*Overview!$B$54)-K14-K16</f>
+        <f>K12-(K12*Overview!$B$56)-K14-K16</f>
         <v>30748.354865187594</v>
       </c>
       <c r="L18" s="78">
-        <f>L12-(L12*Overview!$B$54)-L14-L16</f>
+        <f>L12-(L12*Overview!$B$56)-L14-L16</f>
         <v>31974.890467860259</v>
       </c>
       <c r="M18" s="78">
-        <f>M12-(M12*Overview!$B$54)-M14-M16</f>
+        <f>M12-(M12*Overview!$B$56)-M14-M16</f>
         <v>33137.984573843059</v>
       </c>
       <c r="N18" s="78">
-        <f>N12-(N12*Overview!$B$54)-N14-N16</f>
+        <f>N12-(N12*Overview!$B$56)-N14-N16</f>
         <v>34216.49001757252</v>
       </c>
       <c r="O18" s="78">
-        <f>O12-(O12*Overview!$B$54)-O14-O16</f>
+        <f>O12-(O12*Overview!$B$56)-O14-O16</f>
         <v>35231.553964611972</v>
       </c>
       <c r="P18" s="78">
-        <f>P12-(P12*Overview!$B$54)-P14-P16</f>
+        <f>P12-(P12*Overview!$B$56)-P14-P16</f>
         <v>36204.323580524811</v>
       </c>
       <c r="Q18" s="78">
-        <f>Q12-(Q12*Overview!$B$54)-Q14-Q16</f>
+        <f>Q12-(Q12*Overview!$B$56)-Q14-Q16</f>
         <v>37113.651699747701</v>
       </c>
       <c r="R18" s="78">
-        <f>R12-(R12*Overview!$B$54)-R14-R16</f>
+        <f>R12-(R12*Overview!$B$56)-R14-R16</f>
         <v>37959.538322280612</v>
       </c>
       <c r="S18" s="1"/>
@@ -45257,8 +45302,8 @@
   </sheetPr>
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -45277,26 +45322,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13">
-      <c r="A1" s="366" t="s">
+      <c r="A1" s="368" t="s">
         <v>518</v>
       </c>
-      <c r="B1" s="367"/>
-      <c r="C1" s="367"/>
-      <c r="D1" s="367"/>
-      <c r="E1" s="367"/>
-      <c r="F1" s="367"/>
-      <c r="G1" s="367"/>
-      <c r="H1" s="367"/>
+      <c r="B1" s="369"/>
+      <c r="C1" s="369"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="369"/>
+      <c r="G1" s="369"/>
+      <c r="H1" s="369"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A2" s="367"/>
-      <c r="B2" s="367"/>
-      <c r="C2" s="367"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="367"/>
-      <c r="F2" s="367"/>
-      <c r="G2" s="367"/>
-      <c r="H2" s="367"/>
+      <c r="A2" s="369"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
     </row>
     <row r="3" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="59" t="s">
@@ -45304,28 +45349,28 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="13">
-      <c r="A4" s="368" t="s">
+      <c r="A4" s="370" t="s">
         <v>517</v>
       </c>
-      <c r="B4" s="367"/>
-      <c r="C4" s="367"/>
-      <c r="D4" s="367"/>
-      <c r="E4" s="367"/>
-      <c r="F4" s="367"/>
-      <c r="G4" s="367"/>
-      <c r="H4" s="367"/>
+      <c r="B4" s="369"/>
+      <c r="C4" s="369"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="369"/>
+      <c r="G4" s="369"/>
+      <c r="H4" s="369"/>
     </row>
     <row r="5" spans="1:22" ht="13">
-      <c r="A5" s="369" t="s">
+      <c r="A5" s="371" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="367"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
-      <c r="G5" s="367"/>
-      <c r="H5" s="367"/>
+      <c r="B5" s="369"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
+      <c r="G5" s="369"/>
+      <c r="H5" s="369"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="13">
       <c r="A6" s="92" t="s">
@@ -45340,16 +45385,16 @@
       <c r="H6" s="93"/>
     </row>
     <row r="7" spans="1:22" ht="13">
-      <c r="A7" s="370" t="s">
+      <c r="A7" s="372" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="367"/>
-      <c r="C7" s="367"/>
-      <c r="D7" s="367"/>
-      <c r="E7" s="367"/>
-      <c r="F7" s="367"/>
-      <c r="G7" s="367"/>
-      <c r="H7" s="367"/>
+      <c r="B7" s="369"/>
+      <c r="C7" s="369"/>
+      <c r="D7" s="369"/>
+      <c r="E7" s="369"/>
+      <c r="F7" s="369"/>
+      <c r="G7" s="369"/>
+      <c r="H7" s="369"/>
     </row>
     <row r="8" spans="1:22" s="26" customFormat="1" ht="13">
       <c r="A8" s="256" t="s">
@@ -45413,8 +45458,8 @@
       <c r="Q13" s="218"/>
       <c r="R13" s="219"/>
       <c r="S13" s="219"/>
-      <c r="T13" s="365"/>
-      <c r="U13" s="365"/>
+      <c r="T13" s="367"/>
+      <c r="U13" s="367"/>
     </row>
     <row r="14" spans="1:22" ht="16">
       <c r="A14" s="2" t="s">
@@ -45599,7 +45644,7 @@
       </c>
       <c r="D18" s="269"/>
       <c r="E18" s="269"/>
-      <c r="F18" s="372" t="s">
+      <c r="F18" s="374" t="s">
         <v>618</v>
       </c>
       <c r="G18" s="323" t="s">
@@ -45650,7 +45695,7 @@
       </c>
       <c r="D19" s="269"/>
       <c r="E19" s="269"/>
-      <c r="F19" s="372"/>
+      <c r="F19" s="374"/>
       <c r="G19" s="292" t="s">
         <v>585</v>
       </c>
@@ -45797,7 +45842,7 @@
       </c>
       <c r="D23" s="269"/>
       <c r="E23" s="269"/>
-      <c r="F23" s="381" t="s">
+      <c r="F23" s="383" t="s">
         <v>316</v>
       </c>
       <c r="G23" s="326" t="s">
@@ -45829,7 +45874,7 @@
       </c>
       <c r="D24" s="269"/>
       <c r="E24" s="269"/>
-      <c r="F24" s="381"/>
+      <c r="F24" s="383"/>
       <c r="G24" s="326" t="s">
         <v>596</v>
       </c>
@@ -45861,7 +45906,7 @@
       </c>
       <c r="D25" s="269"/>
       <c r="E25" s="269"/>
-      <c r="F25" s="380" t="s">
+      <c r="F25" s="382" t="s">
         <v>542</v>
       </c>
       <c r="G25" s="323" t="s">
@@ -45902,7 +45947,7 @@
       </c>
       <c r="D26" s="269"/>
       <c r="E26" s="269"/>
-      <c r="F26" s="380"/>
+      <c r="F26" s="382"/>
       <c r="G26" s="323" t="s">
         <v>315</v>
       </c>
@@ -45931,7 +45976,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
-      <c r="F27" s="378" t="s">
+      <c r="F27" s="380" t="s">
         <v>588</v>
       </c>
       <c r="G27" s="185" t="s">
@@ -45964,7 +46009,7 @@
       </c>
       <c r="B28" s="54"/>
       <c r="C28" s="47"/>
-      <c r="F28" s="379"/>
+      <c r="F28" s="381"/>
       <c r="G28" s="185" t="s">
         <v>315</v>
       </c>
@@ -45997,7 +46042,7 @@
         <v>79</v>
       </c>
       <c r="C29" s="47"/>
-      <c r="F29" s="382" t="s">
+      <c r="F29" s="384" t="s">
         <v>587</v>
       </c>
       <c r="G29" s="185" t="s">
@@ -46032,7 +46077,7 @@
         <v>865</v>
       </c>
       <c r="C30" s="170"/>
-      <c r="F30" s="379"/>
+      <c r="F30" s="381"/>
       <c r="G30" s="185" t="s">
         <v>483</v>
       </c>
@@ -46065,7 +46110,7 @@
         <v>165</v>
       </c>
       <c r="C31" s="170"/>
-      <c r="F31" s="374" t="s">
+      <c r="F31" s="376" t="s">
         <v>531</v>
       </c>
       <c r="G31" s="212" t="s">
@@ -46097,7 +46142,7 @@
         <v>164</v>
       </c>
       <c r="C32" s="170"/>
-      <c r="F32" s="375"/>
+      <c r="F32" s="377"/>
       <c r="G32" s="212" t="s">
         <v>315</v>
       </c>
@@ -46156,7 +46201,7 @@
       <c r="B34" s="356" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="371" t="s">
+      <c r="F34" s="373" t="s">
         <v>615</v>
       </c>
       <c r="G34" s="185" t="s">
@@ -46190,7 +46235,7 @@
       <c r="C35" s="254" t="s">
         <v>489</v>
       </c>
-      <c r="F35" s="371"/>
+      <c r="F35" s="373"/>
       <c r="G35" s="185" t="s">
         <v>533</v>
       </c>
@@ -46222,7 +46267,7 @@
       <c r="C36" s="264">
         <v>8</v>
       </c>
-      <c r="F36" s="371"/>
+      <c r="F36" s="373"/>
       <c r="G36" s="185" t="s">
         <v>534</v>
       </c>
@@ -46255,7 +46300,7 @@
         <f>C36*16</f>
         <v>128</v>
       </c>
-      <c r="F37" s="371"/>
+      <c r="F37" s="373"/>
       <c r="G37" s="185" t="s">
         <v>535</v>
       </c>
@@ -46286,7 +46331,7 @@
         <f>C36*VLOOKUP(B36, Database!A97:I107, 5, FALSE)</f>
         <v>2880</v>
       </c>
-      <c r="F38" s="371"/>
+      <c r="F38" s="373"/>
       <c r="G38" s="185" t="s">
         <v>536</v>
       </c>
@@ -46316,7 +46361,7 @@
         <v>507</v>
       </c>
       <c r="C39" s="170"/>
-      <c r="F39" s="376" t="s">
+      <c r="F39" s="378" t="s">
         <v>589</v>
       </c>
       <c r="G39" s="212" t="s">
@@ -46348,7 +46393,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="170"/>
-      <c r="F40" s="377"/>
+      <c r="F40" s="379"/>
       <c r="G40" s="212" t="s">
         <v>315</v>
       </c>
@@ -46382,7 +46427,7 @@
       </c>
       <c r="C41" s="170"/>
       <c r="D41" s="55"/>
-      <c r="F41" s="372" t="s">
+      <c r="F41" s="374" t="s">
         <v>613</v>
       </c>
       <c r="G41" s="292" t="s">
@@ -46413,7 +46458,7 @@
         <v>166</v>
       </c>
       <c r="C42" s="170"/>
-      <c r="F42" s="372"/>
+      <c r="F42" s="374"/>
       <c r="G42" s="212" t="s">
         <v>614</v>
       </c>
@@ -46451,11 +46496,11 @@
         <v>722</v>
       </c>
       <c r="C44" s="170"/>
-      <c r="G44" s="383" t="s">
+      <c r="G44" s="385" t="s">
         <v>602</v>
       </c>
-      <c r="H44" s="383"/>
-      <c r="I44" s="383"/>
+      <c r="H44" s="385"/>
+      <c r="I44" s="385"/>
     </row>
     <row r="45" spans="1:12" s="160" customFormat="1" ht="16">
       <c r="A45" s="171" t="s">
@@ -46618,6 +46663,12 @@
       </c>
     </row>
     <row r="50" spans="1:12" s="26" customFormat="1" ht="13">
+      <c r="A50" s="366" t="s">
+        <v>881</v>
+      </c>
+      <c r="B50" s="365" t="s">
+        <v>540</v>
+      </c>
       <c r="C50" s="54"/>
       <c r="F50" s="185" t="s">
         <v>607</v>
@@ -46644,8 +46695,12 @@
       </c>
     </row>
     <row r="51" spans="1:12" s="96" customFormat="1" ht="13">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="366" t="s">
+        <v>882</v>
+      </c>
+      <c r="B51" s="365" t="s">
+        <v>540</v>
+      </c>
       <c r="C51" s="54"/>
       <c r="F51" s="185" t="s">
         <v>608</v>
@@ -46672,11 +46727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="26" customFormat="1" ht="16">
-      <c r="A52" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B52" s="60"/>
+    <row r="52" spans="1:12" s="26" customFormat="1" ht="13">
       <c r="C52" s="54"/>
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
@@ -46705,13 +46756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="26" customFormat="1" ht="16">
-      <c r="A53" s="245" t="s">
-        <v>211</v>
-      </c>
-      <c r="B53" s="246">
-        <v>108000</v>
-      </c>
+    <row r="53" spans="1:12" s="26" customFormat="1" ht="13">
       <c r="D53" s="6"/>
       <c r="E53" s="48"/>
       <c r="F53" s="185" t="s">
@@ -46740,12 +46785,10 @@
       </c>
     </row>
     <row r="54" spans="1:12" s="26" customFormat="1" ht="16">
-      <c r="A54" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="248">
-        <v>0</v>
-      </c>
+      <c r="A54" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B54" s="60"/>
       <c r="C54" s="48"/>
       <c r="D54" s="6"/>
       <c r="E54" s="48"/>
@@ -46775,11 +46818,11 @@
       </c>
     </row>
     <row r="55" spans="1:12" s="26" customFormat="1" ht="16">
-      <c r="A55" s="247" t="s">
-        <v>210</v>
-      </c>
-      <c r="B55" s="248">
-        <v>0.1</v>
+      <c r="A55" s="245" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="246">
+        <v>108000</v>
       </c>
       <c r="C55" s="48"/>
       <c r="D55" s="6"/>
@@ -46811,10 +46854,10 @@
     </row>
     <row r="56" spans="1:12" ht="16">
       <c r="A56" s="247" t="s">
-        <v>212</v>
-      </c>
-      <c r="B56" s="249">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="B56" s="248">
+        <v>0</v>
       </c>
       <c r="C56" s="48"/>
       <c r="D56" s="26"/>
@@ -46827,17 +46870,21 @@
     </row>
     <row r="57" spans="1:12" s="28" customFormat="1" ht="16">
       <c r="A57" s="247" t="s">
-        <v>217</v>
-      </c>
-      <c r="B57" s="249" t="s">
-        <v>218</v>
+        <v>210</v>
+      </c>
+      <c r="B57" s="248">
+        <v>0.1</v>
       </c>
       <c r="C57" s="54"/>
       <c r="J57" s="26"/>
     </row>
-    <row r="58" spans="1:12" s="102" customFormat="1" ht="13">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
+    <row r="58" spans="1:12" s="102" customFormat="1" ht="16">
+      <c r="A58" s="247" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" s="249">
+        <v>5</v>
+      </c>
       <c r="C58" s="54"/>
       <c r="I58" s="102">
         <f>SUM(V68:V71)</f>
@@ -46846,30 +46893,24 @@
       <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:12" s="28" customFormat="1" ht="16">
-      <c r="A59" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B59" s="6"/>
+      <c r="A59" s="247" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="249" t="s">
+        <v>218</v>
+      </c>
       <c r="C59" s="54"/>
       <c r="J59"/>
     </row>
     <row r="60" spans="1:12" s="28" customFormat="1" ht="13">
-      <c r="A60" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="48">
-        <f>'CapEx Breakdown'!C21+'CapEx Breakdown'!D21</f>
-        <v>49362.593242414143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="128" customFormat="1" ht="13">
-      <c r="A61" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="48">
-        <f>'CapEx Breakdown'!C34+'CapEx Breakdown'!D34</f>
-        <v>173745.03729696566</v>
-      </c>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+    </row>
+    <row r="61" spans="1:12" s="128" customFormat="1" ht="16">
+      <c r="A61" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="6"/>
       <c r="C61" s="28"/>
       <c r="J61" s="102">
         <f>1-0.4-0.002</f>
@@ -46878,26 +46919,42 @@
     </row>
     <row r="62" spans="1:12" s="128" customFormat="1" ht="13">
       <c r="A62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="48">
+        <f>'CapEx Breakdown'!C21+'CapEx Breakdown'!D21</f>
+        <v>49362.593242414143</v>
+      </c>
+      <c r="J62" s="28"/>
+    </row>
+    <row r="63" spans="1:12" s="128" customFormat="1" ht="13">
+      <c r="A63" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="48">
+        <f>'CapEx Breakdown'!C34+'CapEx Breakdown'!D34</f>
+        <v>173745.03729696566</v>
+      </c>
+      <c r="J63" s="28"/>
+    </row>
+    <row r="64" spans="1:12" s="28" customFormat="1" ht="13">
+      <c r="A64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="91">
+      <c r="B64" s="91">
         <f>'CapEx Breakdown'!E37</f>
         <v>223107.63053937981</v>
       </c>
-      <c r="J62" s="28"/>
-    </row>
-    <row r="63" spans="1:12" s="128" customFormat="1" ht="13">
-      <c r="A63" s="159" t="s">
+    </row>
+    <row r="65" spans="1:22" s="128" customFormat="1" ht="13">
+      <c r="A65" s="159" t="s">
         <v>634</v>
       </c>
-      <c r="B63" s="106">
-        <f>B53-B62</f>
+      <c r="B65" s="106">
+        <f>B55-B64</f>
         <v>-115107.63053937981</v>
       </c>
-      <c r="J63" s="28"/>
-    </row>
-    <row r="64" spans="1:12" s="28" customFormat="1" ht="13"/>
-    <row r="65" spans="1:22" s="128" customFormat="1" ht="13"/>
+    </row>
     <row r="66" spans="1:22" s="128" customFormat="1" ht="13"/>
     <row r="67" spans="1:22" s="28" customFormat="1" ht="16">
       <c r="A67" s="2" t="s">
@@ -49425,19 +49482,19 @@
         <v>2374.1773271527068</v>
       </c>
       <c r="H104" s="78">
-        <f>IF($B$56/H73&gt;=1,  (Overview!$B$55*Overview!$B$53)/(1-(1+Overview!$B$55)^(-Overview!$B$56)), 0)</f>
+        <f>IF($B$58/H73&gt;=1,  (Overview!$B$57*Overview!$B$55)/(1-(1+Overview!$B$57)^(-Overview!$B$58)), 0)</f>
         <v>28490.127925832483</v>
       </c>
       <c r="I104" s="78">
-        <f>IF($B$56/I73&gt;=1, H104, 0)</f>
+        <f t="shared" ref="I104:V104" si="19">IF($B$58/I73&gt;=1, H104, 0)</f>
         <v>28490.127925832483</v>
       </c>
       <c r="J104" s="78">
-        <f>IF($B$56/J73&gt;=1, I104, 0)</f>
+        <f t="shared" si="19"/>
         <v>28490.127925832483</v>
       </c>
       <c r="K104" s="78">
-        <f t="shared" ref="K104:V104" si="19">IF($B$56/K73&gt;=1, J104, 0)</f>
+        <f t="shared" si="19"/>
         <v>28490.127925832483</v>
       </c>
       <c r="L104" s="78">
@@ -49494,7 +49551,7 @@
       <c r="D105" s="206"/>
       <c r="E105" s="206"/>
       <c r="F105" s="81">
-        <f>-(Overview!$B$53)</f>
+        <f>-(Overview!$B$55)</f>
         <v>-108000</v>
       </c>
       <c r="G105" s="196">
@@ -49502,15 +49559,15 @@
         <v>-90309.872074167521</v>
       </c>
       <c r="H105" s="81">
-        <f>F105+H104+(F105*$B$55)</f>
+        <f>F105+H104+(F105*$B$57)</f>
         <v>-90309.872074167521</v>
       </c>
       <c r="I105" s="81">
-        <f t="shared" ref="I105:V105" si="20">H105+I104+(H105*$B$55)</f>
+        <f t="shared" ref="I105:V105" si="20">H105+I104+(H105*$B$57)</f>
         <v>-70850.731355751792</v>
       </c>
       <c r="J105" s="81">
-        <f>I105+J104+(I105*$B$55)</f>
+        <f t="shared" si="20"/>
         <v>-49445.67656549449</v>
       </c>
       <c r="K105" s="81">
@@ -49573,7 +49630,7 @@
       <c r="F106" s="90"/>
       <c r="G106" s="206"/>
       <c r="H106" s="90">
-        <f t="shared" ref="H106:V106" si="21">$B$54*H102</f>
+        <f t="shared" ref="H106:V106" si="21">$B$56*H102</f>
         <v>0</v>
       </c>
       <c r="I106" s="90">
@@ -51821,17 +51878,17 @@
     </row>
     <row r="142" spans="1:22" ht="15.75" customHeight="1">
       <c r="F142" s="269"/>
-      <c r="G142" s="372" t="s">
+      <c r="G142" s="374" t="s">
         <v>632</v>
       </c>
-      <c r="H142" s="373"/>
-      <c r="I142" s="373"/>
+      <c r="H142" s="375"/>
+      <c r="I142" s="375"/>
       <c r="K142" s="269"/>
-      <c r="L142" s="372" t="s">
+      <c r="L142" s="374" t="s">
         <v>633</v>
       </c>
-      <c r="M142" s="373"/>
-      <c r="N142" s="373"/>
+      <c r="M142" s="375"/>
+      <c r="N142" s="375"/>
     </row>
     <row r="143" spans="1:22" ht="15.75" customHeight="1">
       <c r="F143" s="272" t="s">
@@ -52170,17 +52227,17 @@
     </row>
     <row r="153" spans="6:17" ht="15.75" customHeight="1">
       <c r="F153" s="269"/>
-      <c r="G153" s="372" t="s">
+      <c r="G153" s="374" t="s">
         <v>631</v>
       </c>
-      <c r="H153" s="372"/>
-      <c r="I153" s="372"/>
+      <c r="H153" s="374"/>
+      <c r="I153" s="374"/>
       <c r="K153" s="269"/>
-      <c r="L153" s="372" t="s">
+      <c r="L153" s="374" t="s">
         <v>631</v>
       </c>
-      <c r="M153" s="372"/>
-      <c r="N153" s="372"/>
+      <c r="M153" s="374"/>
+      <c r="N153" s="374"/>
       <c r="P153" s="47" t="s">
         <v>64</v>
       </c>
@@ -52332,7 +52389,7 @@
       <formula>$B$40*2.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41 B31:B32 B49" xr:uid="{7D71A6BF-D46C-2B45-AA0C-5B85E55589B2}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
@@ -52349,11 +52406,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42" xr:uid="{6FA659DB-36A0-DB41-BC4B-A98B31225F76}">
       <formula1>"Pitched roof, Flat roof"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57" xr:uid="{A459DD22-BA10-A141-9360-472E62E9697B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59" xr:uid="{A459DD22-BA10-A141-9360-472E62E9697B}">
       <formula1>"Standard"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{EF0D7628-D52D-C04B-9260-03EC3F18C0B2}">
       <formula1>"Retail, Wholesale, Hybrid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B51" xr:uid="{687EBD68-1C3F-8C4B-AE82-97178D4132B8}">
+      <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52444,34 +52504,34 @@
       <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="368" t="s">
+      <c r="A2" s="370" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="368"/>
-      <c r="C2" s="367"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="367"/>
-      <c r="F2" s="367"/>
-      <c r="G2" s="367"/>
-      <c r="H2" s="367"/>
-      <c r="I2" s="367"/>
-      <c r="J2" s="367"/>
-      <c r="K2" s="367"/>
+      <c r="B2" s="370"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
+      <c r="K2" s="369"/>
     </row>
     <row r="3" spans="1:11" s="96" customFormat="1">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="371" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="369"/>
-      <c r="C3" s="367"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
-      <c r="J3" s="367"/>
-      <c r="K3" s="367"/>
+      <c r="B3" s="371"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
+      <c r="I3" s="369"/>
+      <c r="J3" s="369"/>
+      <c r="K3" s="369"/>
     </row>
     <row r="4" spans="1:11" s="96" customFormat="1">
       <c r="A4" s="92" t="s">
@@ -52489,19 +52549,19 @@
       <c r="K4" s="93"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="370" t="s">
+      <c r="A5" s="372" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="370"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
-      <c r="G5" s="367"/>
-      <c r="H5" s="367"/>
-      <c r="I5" s="367"/>
-      <c r="J5" s="367"/>
-      <c r="K5" s="367"/>
+      <c r="B5" s="372"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
+      <c r="G5" s="369"/>
+      <c r="H5" s="369"/>
+      <c r="I5" s="369"/>
+      <c r="J5" s="369"/>
+      <c r="K5" s="369"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="94" t="s">
@@ -52610,12 +52670,12 @@
       <c r="C14" s="98"/>
       <c r="D14" s="98"/>
       <c r="E14" s="98"/>
-      <c r="F14" s="384" t="s">
+      <c r="F14" s="386" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="384"/>
-      <c r="H14" s="384"/>
-      <c r="I14" s="384"/>
+      <c r="G14" s="386"/>
+      <c r="H14" s="386"/>
+      <c r="I14" s="386"/>
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
@@ -54219,13 +54279,13 @@
     </row>
     <row r="21" spans="1:13" s="160" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="147"/>
-      <c r="B21" s="385" t="s">
+      <c r="B21" s="387" t="s">
         <v>481</v>
       </c>
-      <c r="C21" s="385"/>
-      <c r="D21" s="385"/>
-      <c r="E21" s="385"/>
-      <c r="F21" s="385"/>
+      <c r="C21" s="387"/>
+      <c r="D21" s="387"/>
+      <c r="E21" s="387"/>
+      <c r="F21" s="387"/>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
       <c r="I21" s="55"/>
@@ -54425,13 +54485,13 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1">
       <c r="A33" s="147"/>
-      <c r="B33" s="385" t="s">
+      <c r="B33" s="387" t="s">
         <v>481</v>
       </c>
-      <c r="C33" s="385"/>
-      <c r="D33" s="385"/>
-      <c r="E33" s="385"/>
-      <c r="F33" s="385"/>
+      <c r="C33" s="387"/>
+      <c r="D33" s="387"/>
+      <c r="E33" s="387"/>
+      <c r="F33" s="387"/>
       <c r="H33" s="55"/>
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
@@ -56736,14 +56796,14 @@
       <c r="G6" s="149"/>
       <c r="H6" s="149"/>
       <c r="I6" s="149"/>
-      <c r="J6" s="386" t="s">
+      <c r="J6" s="388" t="s">
         <v>465</v>
       </c>
-      <c r="K6" s="386"/>
-      <c r="L6" s="386"/>
-      <c r="M6" s="386"/>
-      <c r="N6" s="386"/>
-      <c r="O6" s="386"/>
+      <c r="K6" s="388"/>
+      <c r="L6" s="388"/>
+      <c r="M6" s="388"/>
+      <c r="N6" s="388"/>
+      <c r="O6" s="388"/>
       <c r="P6" s="153"/>
       <c r="Q6" s="153"/>
     </row>
@@ -67733,12 +67793,12 @@
       <c r="C19" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="387" t="s">
+      <c r="G19" s="389" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="387"/>
-      <c r="I19" s="387"/>
-      <c r="J19" s="387"/>
+      <c r="H19" s="389"/>
+      <c r="I19" s="389"/>
+      <c r="J19" s="389"/>
       <c r="L19" s="30" t="s">
         <v>99</v>
       </c>

--- a/Current_Financial_Model.xlsx
+++ b/Current_Financial_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francis/PycharmProjects/VerticalFarming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15217002-06B2-BA41-9954-12948D157AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ACA535-6D49-7240-92A8-1CBF2685BFBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24400" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24400" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="14" r:id="rId1"/>
@@ -5921,24 +5921,17 @@
     <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5967,9 +5960,16 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6205,7 +6205,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-0.24285589089229545</c:v>
+                  <c:v>0.15605471465192411</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-4.9592599494643438E-2</c:v>
@@ -6335,7 +6335,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-0.24285589089229545</c:v>
+                  <c:v>0.15605471465192411</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-4.9592599494643438E-2</c:v>
@@ -6456,7 +6456,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-0.24285589089229545</c:v>
+                  <c:v>0.15605471465192411</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-4.9592599494643438E-2</c:v>
@@ -6586,7 +6586,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-0.24285589089229545</c:v>
+                  <c:v>0.15605471465192411</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-4.9592599494643438E-2</c:v>
@@ -6707,7 +6707,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-0.24285589089229545</c:v>
+                  <c:v>0.15605471465192411</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-4.9592599494643438E-2</c:v>
@@ -6837,7 +6837,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-0.24285589089229545</c:v>
+                  <c:v>0.15605471465192411</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-4.9592599494643438E-2</c:v>
@@ -6958,7 +6958,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-0.24285589089229545</c:v>
+                  <c:v>0.15605471465192411</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-4.9592599494643438E-2</c:v>
@@ -7088,7 +7088,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-0.24285589089229545</c:v>
+                  <c:v>0.15605471465192411</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-4.9592599494643438E-2</c:v>
@@ -7499,7 +7499,7 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-54183.002379510188</c:v>
+                  <c:v>34816.997620489827</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-11064.487365538342</c:v>
@@ -7629,7 +7629,7 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-54183.002379510188</c:v>
+                  <c:v>34816.997620489827</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-11064.487365538342</c:v>
@@ -8459,7 +8459,7 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-54183.002379510188</c:v>
+                  <c:v>34816.997620489827</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-11064.487365538342</c:v>
@@ -8529,7 +8529,7 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>124307.24614000942</c:v>
+                  <c:v>213307.24614000943</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>244160.53625738036</c:v>
@@ -8739,7 +8739,7 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-15546.69029716275</c:v>
+                  <c:v>73453.309702837258</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>37718.008873324041</c:v>
@@ -11526,7 +11526,7 @@
                   <c:v>0.9022472241454822</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.2741379547757472</c:v>
+                  <c:v>-0.12741379547757473</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.0097648469642859</c:v>
@@ -14238,8 +14238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262F1FB0-CD2F-E14E-8300-C92D3DA9F93F}">
   <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView topLeftCell="A105" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -15393,7 +15393,7 @@
       </c>
       <c r="B128">
         <f>target_productivity_CO2_net</f>
-        <v>-100</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -15656,7 +15656,7 @@
       </c>
       <c r="D6" s="49">
         <f>Overview!H81</f>
-        <v>124307.24614000942</v>
+        <v>213307.24614000943</v>
       </c>
       <c r="E6" s="49">
         <f>Overview!I81</f>
@@ -15814,7 +15814,7 @@
       </c>
       <c r="D8" s="50">
         <f>Overview!H92</f>
-        <v>59663.30970283725</v>
+        <v>148663.30970283726</v>
       </c>
       <c r="E8" s="50">
         <f>Overview!I92</f>
@@ -16030,7 +16030,7 @@
       </c>
       <c r="D12" s="50">
         <f>Overview!H102</f>
-        <v>-15546.69029716275</v>
+        <v>73453.309702837258</v>
       </c>
       <c r="E12" s="50">
         <f>Overview!I102</f>
@@ -16395,7 +16395,7 @@
       </c>
       <c r="D18" s="78">
         <f>D12-(D12*Overview!$B$56)-D14-D16</f>
-        <v>-54183.002379510188</v>
+        <v>34816.997620489827</v>
       </c>
       <c r="E18" s="78">
         <f>E12-(E12*Overview!$B$56)-E14-E16</f>
@@ -16471,63 +16471,63 @@
       <c r="C19" s="51"/>
       <c r="D19" s="51">
         <f>-H3+D12</f>
-        <v>-238654.32083654255</v>
+        <v>-149654.32083654255</v>
       </c>
       <c r="E19" s="51">
         <f>D19+E12</f>
-        <v>-200936.3119632185</v>
+        <v>-111936.31196321851</v>
       </c>
       <c r="F19" s="51">
         <f>E19+F12</f>
-        <v>-159834.75659976277</v>
+        <v>-70834.756599762768</v>
       </c>
       <c r="G19" s="51">
         <f t="shared" ref="G19:J19" si="0">F19+G12</f>
-        <v>-116301.27719652497</v>
+        <v>-27301.27719652497</v>
       </c>
       <c r="H19" s="51">
         <f>G19+H12</f>
-        <v>-70526.19824357488</v>
+        <v>18473.80175642512</v>
       </c>
       <c r="I19" s="51">
         <f t="shared" si="0"/>
-        <v>-22699.844230982519</v>
+        <v>66300.155769017481</v>
       </c>
       <c r="J19" s="51">
         <f t="shared" si="0"/>
-        <v>27029.754682308878</v>
+        <v>116029.75468230888</v>
       </c>
       <c r="K19" s="51">
         <f t="shared" ref="K19:R19" si="1">J19+K12</f>
-        <v>78070.477860526371</v>
+        <v>167070.47786052636</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>130337.73664141653</v>
+        <v>219337.7366414165</v>
       </c>
       <c r="M19" s="51">
         <f t="shared" si="1"/>
-        <v>183768.08952828951</v>
+        <v>272768.08952828945</v>
       </c>
       <c r="N19" s="51">
         <f t="shared" si="1"/>
-        <v>238276.94785889192</v>
+        <v>327276.94785889186</v>
       </c>
       <c r="O19" s="51">
         <f t="shared" si="1"/>
-        <v>293800.87013653381</v>
+        <v>382800.87013653375</v>
       </c>
       <c r="P19" s="51">
         <f t="shared" si="1"/>
-        <v>350297.56203008851</v>
+        <v>439297.56203008845</v>
       </c>
       <c r="Q19" s="51">
         <f t="shared" si="1"/>
-        <v>407703.5820428661</v>
+        <v>496703.58204286604</v>
       </c>
       <c r="R19" s="51">
         <f t="shared" si="1"/>
-        <v>465955.4886781766</v>
+        <v>554955.48867817654</v>
       </c>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
@@ -16608,7 +16608,7 @@
       <c r="C21" s="15"/>
       <c r="D21" s="76">
         <f>(D18/$H$3)</f>
-        <v>-0.24285589089229545</v>
+        <v>0.15605471465192411</v>
       </c>
       <c r="E21" s="76">
         <f t="shared" ref="E21:R21" si="2">(E18/$H$3)</f>
@@ -16710,9 +16710,9 @@
       <c r="B23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="17" t="str">
+      <c r="C23" s="17">
         <f>IF(D19&gt;0,D20,IF(E19&gt;0,E20,IF(F19&gt;0,F20,IF(G19&gt;0,G20,IF(H19&gt;0,H20,"&gt; 5 years")))))</f>
-        <v>&gt; 5 years</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -45302,8 +45302,8 @@
   </sheetPr>
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -45322,26 +45322,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="381" t="s">
         <v>518</v>
       </c>
-      <c r="B1" s="369"/>
-      <c r="C1" s="369"/>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="369"/>
-      <c r="G1" s="369"/>
-      <c r="H1" s="369"/>
+      <c r="B1" s="382"/>
+      <c r="C1" s="382"/>
+      <c r="D1" s="382"/>
+      <c r="E1" s="382"/>
+      <c r="F1" s="382"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="382"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A2" s="369"/>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="H2" s="369"/>
+      <c r="A2" s="382"/>
+      <c r="B2" s="382"/>
+      <c r="C2" s="382"/>
+      <c r="D2" s="382"/>
+      <c r="E2" s="382"/>
+      <c r="F2" s="382"/>
+      <c r="G2" s="382"/>
+      <c r="H2" s="382"/>
     </row>
     <row r="3" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="59" t="s">
@@ -45349,28 +45349,28 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="13">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="383" t="s">
         <v>517</v>
       </c>
-      <c r="B4" s="369"/>
-      <c r="C4" s="369"/>
-      <c r="D4" s="369"/>
-      <c r="E4" s="369"/>
-      <c r="F4" s="369"/>
-      <c r="G4" s="369"/>
-      <c r="H4" s="369"/>
+      <c r="B4" s="382"/>
+      <c r="C4" s="382"/>
+      <c r="D4" s="382"/>
+      <c r="E4" s="382"/>
+      <c r="F4" s="382"/>
+      <c r="G4" s="382"/>
+      <c r="H4" s="382"/>
     </row>
     <row r="5" spans="1:22" ht="13">
-      <c r="A5" s="371" t="s">
+      <c r="A5" s="384" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="369"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
-      <c r="G5" s="369"/>
-      <c r="H5" s="369"/>
+      <c r="B5" s="382"/>
+      <c r="C5" s="382"/>
+      <c r="D5" s="382"/>
+      <c r="E5" s="382"/>
+      <c r="F5" s="382"/>
+      <c r="G5" s="382"/>
+      <c r="H5" s="382"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="13">
       <c r="A6" s="92" t="s">
@@ -45385,16 +45385,16 @@
       <c r="H6" s="93"/>
     </row>
     <row r="7" spans="1:22" ht="13">
-      <c r="A7" s="372" t="s">
+      <c r="A7" s="385" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="369"/>
-      <c r="C7" s="369"/>
-      <c r="D7" s="369"/>
-      <c r="E7" s="369"/>
-      <c r="F7" s="369"/>
-      <c r="G7" s="369"/>
-      <c r="H7" s="369"/>
+      <c r="B7" s="382"/>
+      <c r="C7" s="382"/>
+      <c r="D7" s="382"/>
+      <c r="E7" s="382"/>
+      <c r="F7" s="382"/>
+      <c r="G7" s="382"/>
+      <c r="H7" s="382"/>
     </row>
     <row r="8" spans="1:22" s="26" customFormat="1" ht="13">
       <c r="A8" s="256" t="s">
@@ -45458,8 +45458,8 @@
       <c r="Q13" s="218"/>
       <c r="R13" s="219"/>
       <c r="S13" s="219"/>
-      <c r="T13" s="367"/>
-      <c r="U13" s="367"/>
+      <c r="T13" s="380"/>
+      <c r="U13" s="380"/>
     </row>
     <row r="14" spans="1:22" ht="16">
       <c r="A14" s="2" t="s">
@@ -45644,7 +45644,7 @@
       </c>
       <c r="D18" s="269"/>
       <c r="E18" s="269"/>
-      <c r="F18" s="374" t="s">
+      <c r="F18" s="367" t="s">
         <v>618</v>
       </c>
       <c r="G18" s="323" t="s">
@@ -45695,7 +45695,7 @@
       </c>
       <c r="D19" s="269"/>
       <c r="E19" s="269"/>
-      <c r="F19" s="374"/>
+      <c r="F19" s="367"/>
       <c r="G19" s="292" t="s">
         <v>585</v>
       </c>
@@ -45842,7 +45842,7 @@
       </c>
       <c r="D23" s="269"/>
       <c r="E23" s="269"/>
-      <c r="F23" s="383" t="s">
+      <c r="F23" s="378" t="s">
         <v>316</v>
       </c>
       <c r="G23" s="326" t="s">
@@ -45874,7 +45874,7 @@
       </c>
       <c r="D24" s="269"/>
       <c r="E24" s="269"/>
-      <c r="F24" s="383"/>
+      <c r="F24" s="378"/>
       <c r="G24" s="326" t="s">
         <v>596</v>
       </c>
@@ -45906,7 +45906,7 @@
       </c>
       <c r="D25" s="269"/>
       <c r="E25" s="269"/>
-      <c r="F25" s="382" t="s">
+      <c r="F25" s="377" t="s">
         <v>542</v>
       </c>
       <c r="G25" s="323" t="s">
@@ -45947,7 +45947,7 @@
       </c>
       <c r="D26" s="269"/>
       <c r="E26" s="269"/>
-      <c r="F26" s="382"/>
+      <c r="F26" s="377"/>
       <c r="G26" s="323" t="s">
         <v>315</v>
       </c>
@@ -45976,7 +45976,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
-      <c r="F27" s="380" t="s">
+      <c r="F27" s="375" t="s">
         <v>588</v>
       </c>
       <c r="G27" s="185" t="s">
@@ -46009,7 +46009,7 @@
       </c>
       <c r="B28" s="54"/>
       <c r="C28" s="47"/>
-      <c r="F28" s="381"/>
+      <c r="F28" s="376"/>
       <c r="G28" s="185" t="s">
         <v>315</v>
       </c>
@@ -46042,7 +46042,7 @@
         <v>79</v>
       </c>
       <c r="C29" s="47"/>
-      <c r="F29" s="384" t="s">
+      <c r="F29" s="379" t="s">
         <v>587</v>
       </c>
       <c r="G29" s="185" t="s">
@@ -46077,7 +46077,7 @@
         <v>865</v>
       </c>
       <c r="C30" s="170"/>
-      <c r="F30" s="381"/>
+      <c r="F30" s="376"/>
       <c r="G30" s="185" t="s">
         <v>483</v>
       </c>
@@ -46110,7 +46110,7 @@
         <v>165</v>
       </c>
       <c r="C31" s="170"/>
-      <c r="F31" s="376" t="s">
+      <c r="F31" s="371" t="s">
         <v>531</v>
       </c>
       <c r="G31" s="212" t="s">
@@ -46142,7 +46142,7 @@
         <v>164</v>
       </c>
       <c r="C32" s="170"/>
-      <c r="F32" s="377"/>
+      <c r="F32" s="372"/>
       <c r="G32" s="212" t="s">
         <v>315</v>
       </c>
@@ -46201,7 +46201,7 @@
       <c r="B34" s="356" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="373" t="s">
+      <c r="F34" s="370" t="s">
         <v>615</v>
       </c>
       <c r="G34" s="185" t="s">
@@ -46235,7 +46235,7 @@
       <c r="C35" s="254" t="s">
         <v>489</v>
       </c>
-      <c r="F35" s="373"/>
+      <c r="F35" s="370"/>
       <c r="G35" s="185" t="s">
         <v>533</v>
       </c>
@@ -46267,7 +46267,7 @@
       <c r="C36" s="264">
         <v>8</v>
       </c>
-      <c r="F36" s="373"/>
+      <c r="F36" s="370"/>
       <c r="G36" s="185" t="s">
         <v>534</v>
       </c>
@@ -46300,7 +46300,7 @@
         <f>C36*16</f>
         <v>128</v>
       </c>
-      <c r="F37" s="373"/>
+      <c r="F37" s="370"/>
       <c r="G37" s="185" t="s">
         <v>535</v>
       </c>
@@ -46331,7 +46331,7 @@
         <f>C36*VLOOKUP(B36, Database!A97:I107, 5, FALSE)</f>
         <v>2880</v>
       </c>
-      <c r="F38" s="373"/>
+      <c r="F38" s="370"/>
       <c r="G38" s="185" t="s">
         <v>536</v>
       </c>
@@ -46361,7 +46361,7 @@
         <v>507</v>
       </c>
       <c r="C39" s="170"/>
-      <c r="F39" s="378" t="s">
+      <c r="F39" s="373" t="s">
         <v>589</v>
       </c>
       <c r="G39" s="212" t="s">
@@ -46393,7 +46393,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="170"/>
-      <c r="F40" s="379"/>
+      <c r="F40" s="374"/>
       <c r="G40" s="212" t="s">
         <v>315</v>
       </c>
@@ -46427,7 +46427,7 @@
       </c>
       <c r="C41" s="170"/>
       <c r="D41" s="55"/>
-      <c r="F41" s="374" t="s">
+      <c r="F41" s="367" t="s">
         <v>613</v>
       </c>
       <c r="G41" s="292" t="s">
@@ -46458,7 +46458,7 @@
         <v>166</v>
       </c>
       <c r="C42" s="170"/>
-      <c r="F42" s="374"/>
+      <c r="F42" s="367"/>
       <c r="G42" s="212" t="s">
         <v>614</v>
       </c>
@@ -46496,11 +46496,11 @@
         <v>722</v>
       </c>
       <c r="C44" s="170"/>
-      <c r="G44" s="385" t="s">
+      <c r="G44" s="369" t="s">
         <v>602</v>
       </c>
-      <c r="H44" s="385"/>
-      <c r="I44" s="385"/>
+      <c r="H44" s="369"/>
+      <c r="I44" s="369"/>
     </row>
     <row r="45" spans="1:12" s="160" customFormat="1" ht="16">
       <c r="A45" s="171" t="s">
@@ -46807,11 +46807,11 @@
         <v>127.41379547757472</v>
       </c>
       <c r="J54" s="275">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="K54" s="183">
-        <f t="shared" si="2"/>
-        <v>-1.2741379547757472</v>
+        <f>I54/J54</f>
+        <v>-0.12741379547757473</v>
       </c>
       <c r="L54" s="269">
         <v>1</v>
@@ -47935,7 +47935,7 @@
         <v>102</v>
       </c>
       <c r="H80" s="261">
-        <v>0</v>
+        <v>89000</v>
       </c>
       <c r="I80" s="260"/>
       <c r="J80" s="262" t="s">
@@ -47996,7 +47996,7 @@
       </c>
       <c r="H81" s="38">
         <f>SUM(H75:H80)</f>
-        <v>124307.24614000942</v>
+        <v>213307.24614000943</v>
       </c>
       <c r="I81" s="38">
         <f>SUM(I75:I80)</f>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H92" s="83">
         <f>H81-H90</f>
-        <v>59663.30970283725</v>
+        <v>148663.30970283726</v>
       </c>
       <c r="I92" s="83">
         <f t="shared" ref="I92:V92" si="13">I81-I90</f>
@@ -49382,7 +49382,7 @@
       </c>
       <c r="H102" s="43">
         <f>H92-H100</f>
-        <v>-15546.69029716275</v>
+        <v>73453.309702837258</v>
       </c>
       <c r="I102" s="43">
         <f>I92-I100</f>
@@ -49809,7 +49809,7 @@
       </c>
       <c r="H109" s="42">
         <f>H102-H106-H104-H107</f>
-        <v>-54183.002379510188</v>
+        <v>34816.997620489827</v>
       </c>
       <c r="I109" s="42">
         <f t="shared" ref="I109:V109" si="22">I102-I106-I104-I107</f>
@@ -51878,17 +51878,17 @@
     </row>
     <row r="142" spans="1:22" ht="15.75" customHeight="1">
       <c r="F142" s="269"/>
-      <c r="G142" s="374" t="s">
+      <c r="G142" s="367" t="s">
         <v>632</v>
       </c>
-      <c r="H142" s="375"/>
-      <c r="I142" s="375"/>
+      <c r="H142" s="368"/>
+      <c r="I142" s="368"/>
       <c r="K142" s="269"/>
-      <c r="L142" s="374" t="s">
+      <c r="L142" s="367" t="s">
         <v>633</v>
       </c>
-      <c r="M142" s="375"/>
-      <c r="N142" s="375"/>
+      <c r="M142" s="368"/>
+      <c r="N142" s="368"/>
     </row>
     <row r="143" spans="1:22" ht="15.75" customHeight="1">
       <c r="F143" s="272" t="s">
@@ -52227,17 +52227,17 @@
     </row>
     <row r="153" spans="6:17" ht="15.75" customHeight="1">
       <c r="F153" s="269"/>
-      <c r="G153" s="374" t="s">
+      <c r="G153" s="367" t="s">
         <v>631</v>
       </c>
-      <c r="H153" s="374"/>
-      <c r="I153" s="374"/>
+      <c r="H153" s="367"/>
+      <c r="I153" s="367"/>
       <c r="K153" s="269"/>
-      <c r="L153" s="374" t="s">
+      <c r="L153" s="367" t="s">
         <v>631</v>
       </c>
-      <c r="M153" s="374"/>
-      <c r="N153" s="374"/>
+      <c r="M153" s="367"/>
+      <c r="N153" s="367"/>
       <c r="P153" s="47" t="s">
         <v>64</v>
       </c>
@@ -52344,11 +52344,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="L142:N142"/>
-    <mergeCell ref="L153:N153"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="F34:F38"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G142:I142"/>
@@ -52358,11 +52358,11 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="L142:N142"/>
+    <mergeCell ref="L153:N153"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="F41:F42"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="L16">
@@ -52474,8 +52474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1AB830-BB86-434F-80B6-DAC5753A91A4}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A49" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -52504,34 +52504,34 @@
       <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="370" t="s">
+      <c r="A2" s="383" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="370"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="H2" s="369"/>
-      <c r="I2" s="369"/>
-      <c r="J2" s="369"/>
-      <c r="K2" s="369"/>
+      <c r="B2" s="383"/>
+      <c r="C2" s="382"/>
+      <c r="D2" s="382"/>
+      <c r="E2" s="382"/>
+      <c r="F2" s="382"/>
+      <c r="G2" s="382"/>
+      <c r="H2" s="382"/>
+      <c r="I2" s="382"/>
+      <c r="J2" s="382"/>
+      <c r="K2" s="382"/>
     </row>
     <row r="3" spans="1:11" s="96" customFormat="1">
-      <c r="A3" s="371" t="s">
+      <c r="A3" s="384" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="371"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="369"/>
-      <c r="K3" s="369"/>
+      <c r="B3" s="384"/>
+      <c r="C3" s="382"/>
+      <c r="D3" s="382"/>
+      <c r="E3" s="382"/>
+      <c r="F3" s="382"/>
+      <c r="G3" s="382"/>
+      <c r="H3" s="382"/>
+      <c r="I3" s="382"/>
+      <c r="J3" s="382"/>
+      <c r="K3" s="382"/>
     </row>
     <row r="4" spans="1:11" s="96" customFormat="1">
       <c r="A4" s="92" t="s">
@@ -52549,19 +52549,19 @@
       <c r="K4" s="93"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="372" t="s">
+      <c r="A5" s="385" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="372"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
-      <c r="G5" s="369"/>
-      <c r="H5" s="369"/>
-      <c r="I5" s="369"/>
-      <c r="J5" s="369"/>
-      <c r="K5" s="369"/>
+      <c r="B5" s="385"/>
+      <c r="C5" s="382"/>
+      <c r="D5" s="382"/>
+      <c r="E5" s="382"/>
+      <c r="F5" s="382"/>
+      <c r="G5" s="382"/>
+      <c r="H5" s="382"/>
+      <c r="I5" s="382"/>
+      <c r="J5" s="382"/>
+      <c r="K5" s="382"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="94" t="s">
@@ -53795,6 +53795,7 @@
     <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -56678,9 +56679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D044E3B-C1AC-D346-B4EB-4AAE890C9158}">
   <dimension ref="A1:AA199"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="99" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A96" sqref="A96:I107"/>
+    <sheetView topLeftCell="A18" zoomScale="99" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Current_Financial_Model.xlsx
+++ b/Current_Financial_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francis/PycharmProjects/VerticalFarming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ACA535-6D49-7240-92A8-1CBF2685BFBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666EE548-796E-B949-ABEE-42E4054D66EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24400" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,6 +196,7 @@
     <definedName name="hospitality_avg_revenue_y1">Overview!$F$79</definedName>
     <definedName name="hospitality_avg_revenue_y2">Overview!$G$79</definedName>
     <definedName name="hospitality_multiplier">Overview!$C$79</definedName>
+    <definedName name="insulation_level">Overview!$B$41</definedName>
     <definedName name="insultation_level">Overview!$B$41</definedName>
     <definedName name="insurance_full">Overview!$G$98</definedName>
     <definedName name="insurance_pilot">Overview!$F$98</definedName>
@@ -1926,6 +1927,28 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="886">
   <si>
@@ -4239,9 +4262,6 @@
     <t>ceiling_height</t>
   </si>
   <si>
-    <t>insultation_level</t>
-  </si>
-  <si>
     <t>roof_type</t>
   </si>
   <si>
@@ -4585,6 +4605,9 @@
   </si>
   <si>
     <t>electrical_backup</t>
+  </si>
+  <si>
+    <t>insulation_level</t>
   </si>
 </sst>
 </file>
@@ -4602,11 +4625,18 @@
     <numFmt numFmtId="168" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="&quot;£&quot;#,##0.000_);[Red]\(&quot;£&quot;#,##0.000\)"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="66">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5402,217 +5432,217 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="168" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="168" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="16" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="17" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="18" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="19" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="20" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="49" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="49" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="50" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="55" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="18" fillId="30" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="25" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="19" fillId="30" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="17" fillId="25" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5627,360 +5657,363 @@
     <xf numFmtId="1" fontId="0" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="16" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="18" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="28" fillId="32" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="17" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="19" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="29" fillId="32" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="18" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="21" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="18" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="17" fillId="21" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="19" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="18" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="19" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="18" fillId="24" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="19" fillId="24" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="21" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="18" fillId="24" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="18" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="18" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="30" fillId="16" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="21" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="19" fillId="24" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="31" fillId="16" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="17" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="16" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="17" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="16" fillId="25" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="25" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="18" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="39" fontId="33" fillId="16" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="18" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="19" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="39" fontId="34" fillId="16" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="19" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="0" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="16" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="17" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="17" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="17" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="30" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="31" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="30" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="31" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="31" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="31" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="31" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="65" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="65" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="65" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="65" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="65" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="31" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="168" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="64" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="64" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="64" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="64" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="64" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="30" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6205,49 +6238,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.15605471465192411</c:v>
+                  <c:v>0.19530343652182644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9592599494643438E-2</c:v>
+                  <c:v>-7.029721952547642E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.4427064896155164E-2</c:v>
+                  <c:v>-4.9896769351976414E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3526836903492204E-2</c:v>
+                  <c:v>-3.3880563122985666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.3479670231993545E-2</c:v>
+                  <c:v>-1.8421718627130702E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12341122369054316</c:v>
+                  <c:v>0.12421560112571872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13194183690219261</c:v>
+                  <c:v>0.1388914046758549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13781848155910709</c:v>
+                  <c:v>0.15113808871889306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14331598785105873</c:v>
+                  <c:v>0.16353521579884206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14852914036928921</c:v>
+                  <c:v>0.1762452729168785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15336315452255725</c:v>
+                  <c:v>0.18922583172806826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15791281490210349</c:v>
+                  <c:v>0.20265138509921249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16227290609916875</c:v>
+                  <c:v>0.21670334356254198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16634864352251244</c:v>
+                  <c:v>0.23136009465728463</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.17014002717213444</c:v>
+                  <c:v>0.24671371251032773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6335,49 +6368,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.15605471465192411</c:v>
+                  <c:v>0.19530343652182644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9592599494643438E-2</c:v>
+                  <c:v>-7.029721952547642E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.4427064896155164E-2</c:v>
+                  <c:v>-4.9896769351976414E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3526836903492204E-2</c:v>
+                  <c:v>-3.3880563122985666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.3479670231993545E-2</c:v>
+                  <c:v>-1.8421718627130702E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12341122369054316</c:v>
+                  <c:v>0.12421560112571872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13194183690219261</c:v>
+                  <c:v>0.1388914046758549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13781848155910709</c:v>
+                  <c:v>0.15113808871889306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14331598785105873</c:v>
+                  <c:v>0.16353521579884206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14852914036928921</c:v>
+                  <c:v>0.1762452729168785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15336315452255725</c:v>
+                  <c:v>0.18922583172806826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15791281490210349</c:v>
+                  <c:v>0.20265138509921249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16227290609916875</c:v>
+                  <c:v>0.21670334356254198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16634864352251244</c:v>
+                  <c:v>0.23136009465728463</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.17014002717213444</c:v>
+                  <c:v>0.24671371251032773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6456,49 +6489,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.15605471465192411</c:v>
+                  <c:v>0.19530343652182644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9592599494643438E-2</c:v>
+                  <c:v>-7.029721952547642E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.4427064896155164E-2</c:v>
+                  <c:v>-4.9896769351976414E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3526836903492204E-2</c:v>
+                  <c:v>-3.3880563122985666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.3479670231993545E-2</c:v>
+                  <c:v>-1.8421718627130702E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12341122369054316</c:v>
+                  <c:v>0.12421560112571872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13194183690219261</c:v>
+                  <c:v>0.1388914046758549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13781848155910709</c:v>
+                  <c:v>0.15113808871889306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14331598785105873</c:v>
+                  <c:v>0.16353521579884206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14852914036928921</c:v>
+                  <c:v>0.1762452729168785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15336315452255725</c:v>
+                  <c:v>0.18922583172806826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15791281490210349</c:v>
+                  <c:v>0.20265138509921249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16227290609916875</c:v>
+                  <c:v>0.21670334356254198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16634864352251244</c:v>
+                  <c:v>0.23136009465728463</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.17014002717213444</c:v>
+                  <c:v>0.24671371251032773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6586,49 +6619,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.15605471465192411</c:v>
+                  <c:v>0.19530343652182644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9592599494643438E-2</c:v>
+                  <c:v>-7.029721952547642E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.4427064896155164E-2</c:v>
+                  <c:v>-4.9896769351976414E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3526836903492204E-2</c:v>
+                  <c:v>-3.3880563122985666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.3479670231993545E-2</c:v>
+                  <c:v>-1.8421718627130702E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12341122369054316</c:v>
+                  <c:v>0.12421560112571872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13194183690219261</c:v>
+                  <c:v>0.1388914046758549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13781848155910709</c:v>
+                  <c:v>0.15113808871889306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14331598785105873</c:v>
+                  <c:v>0.16353521579884206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14852914036928921</c:v>
+                  <c:v>0.1762452729168785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15336315452255725</c:v>
+                  <c:v>0.18922583172806826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15791281490210349</c:v>
+                  <c:v>0.20265138509921249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16227290609916875</c:v>
+                  <c:v>0.21670334356254198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16634864352251244</c:v>
+                  <c:v>0.23136009465728463</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.17014002717213444</c:v>
+                  <c:v>0.24671371251032773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6707,49 +6740,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.15605471465192411</c:v>
+                  <c:v>0.19530343652182644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9592599494643438E-2</c:v>
+                  <c:v>-7.029721952547642E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.4427064896155164E-2</c:v>
+                  <c:v>-4.9896769351976414E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3526836903492204E-2</c:v>
+                  <c:v>-3.3880563122985666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.3479670231993545E-2</c:v>
+                  <c:v>-1.8421718627130702E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12341122369054316</c:v>
+                  <c:v>0.12421560112571872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13194183690219261</c:v>
+                  <c:v>0.1388914046758549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13781848155910709</c:v>
+                  <c:v>0.15113808871889306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14331598785105873</c:v>
+                  <c:v>0.16353521579884206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14852914036928921</c:v>
+                  <c:v>0.1762452729168785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15336315452255725</c:v>
+                  <c:v>0.18922583172806826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15791281490210349</c:v>
+                  <c:v>0.20265138509921249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16227290609916875</c:v>
+                  <c:v>0.21670334356254198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16634864352251244</c:v>
+                  <c:v>0.23136009465728463</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.17014002717213444</c:v>
+                  <c:v>0.24671371251032773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6837,49 +6870,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.15605471465192411</c:v>
+                  <c:v>0.19530343652182644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9592599494643438E-2</c:v>
+                  <c:v>-7.029721952547642E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.4427064896155164E-2</c:v>
+                  <c:v>-4.9896769351976414E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3526836903492204E-2</c:v>
+                  <c:v>-3.3880563122985666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.3479670231993545E-2</c:v>
+                  <c:v>-1.8421718627130702E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12341122369054316</c:v>
+                  <c:v>0.12421560112571872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13194183690219261</c:v>
+                  <c:v>0.1388914046758549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13781848155910709</c:v>
+                  <c:v>0.15113808871889306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14331598785105873</c:v>
+                  <c:v>0.16353521579884206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14852914036928921</c:v>
+                  <c:v>0.1762452729168785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15336315452255725</c:v>
+                  <c:v>0.18922583172806826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15791281490210349</c:v>
+                  <c:v>0.20265138509921249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16227290609916875</c:v>
+                  <c:v>0.21670334356254198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16634864352251244</c:v>
+                  <c:v>0.23136009465728463</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.17014002717213444</c:v>
+                  <c:v>0.24671371251032773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6958,49 +6991,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.15605471465192411</c:v>
+                  <c:v>0.19530343652182644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9592599494643438E-2</c:v>
+                  <c:v>-7.029721952547642E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.4427064896155164E-2</c:v>
+                  <c:v>-4.9896769351976414E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3526836903492204E-2</c:v>
+                  <c:v>-3.3880563122985666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.3479670231993545E-2</c:v>
+                  <c:v>-1.8421718627130702E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12341122369054316</c:v>
+                  <c:v>0.12421560112571872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13194183690219261</c:v>
+                  <c:v>0.1388914046758549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13781848155910709</c:v>
+                  <c:v>0.15113808871889306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14331598785105873</c:v>
+                  <c:v>0.16353521579884206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14852914036928921</c:v>
+                  <c:v>0.1762452729168785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15336315452255725</c:v>
+                  <c:v>0.18922583172806826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15791281490210349</c:v>
+                  <c:v>0.20265138509921249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16227290609916875</c:v>
+                  <c:v>0.21670334356254198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16634864352251244</c:v>
+                  <c:v>0.23136009465728463</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.17014002717213444</c:v>
+                  <c:v>0.24671371251032773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7088,49 +7121,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.15605471465192411</c:v>
+                  <c:v>0.19530343652182644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9592599494643438E-2</c:v>
+                  <c:v>-7.029721952547642E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.4427064896155164E-2</c:v>
+                  <c:v>-4.9896769351976414E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3526836903492204E-2</c:v>
+                  <c:v>-3.3880563122985666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.3479670231993545E-2</c:v>
+                  <c:v>-1.8421718627130702E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12341122369054316</c:v>
+                  <c:v>0.12421560112571872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13194183690219261</c:v>
+                  <c:v>0.1388914046758549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13781848155910709</c:v>
+                  <c:v>0.15113808871889306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14331598785105873</c:v>
+                  <c:v>0.16353521579884206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14852914036928921</c:v>
+                  <c:v>0.1762452729168785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15336315452255725</c:v>
+                  <c:v>0.18922583172806826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15791281490210349</c:v>
+                  <c:v>0.20265138509921249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16227290609916875</c:v>
+                  <c:v>0.21670334356254198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16634864352251244</c:v>
+                  <c:v>0.23136009465728463</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.17014002717213444</c:v>
+                  <c:v>0.24671371251032773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7499,49 +7532,49 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>34816.997620489827</c:v>
+                  <c:v>43573.686958582868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11064.487365538342</c:v>
+                  <c:v>-15683.846081835669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7680.940875406639</c:v>
+                  <c:v>-11132.349981689404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5249.0168356245849</c:v>
+                  <c:v>-7559.012159709222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3007.4172859122918</c:v>
+                  <c:v>-4110.0259933622874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27533.985699562461</c:v>
+                  <c:v>27713.448443183825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29437.230600261497</c:v>
+                  <c:v>30987.732199516122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30748.354865187594</c:v>
+                  <c:v>33720.060858322802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31974.890467860259</c:v>
+                  <c:v>36485.9545066258</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33137.984573843059</c:v>
+                  <c:v>39321.665234251093</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34216.49001757252</c:v>
+                  <c:v>42217.726953692705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35231.553964611972</c:v>
+                  <c:v>45213.070355008676</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36204.323580524811</c:v>
+                  <c:v>48348.169512199907</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37113.651699747701</c:v>
+                  <c:v>51618.202520353399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37959.538322280612</c:v>
+                  <c:v>55043.711819752963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7629,49 +7662,49 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>34816.997620489827</c:v>
+                  <c:v>43573.686958582868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11064.487365538342</c:v>
+                  <c:v>-15683.846081835669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7680.940875406639</c:v>
+                  <c:v>-11132.349981689404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5249.0168356245849</c:v>
+                  <c:v>-7559.012159709222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3007.4172859122918</c:v>
+                  <c:v>-4110.0259933622874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27533.985699562461</c:v>
+                  <c:v>27713.448443183825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29437.230600261497</c:v>
+                  <c:v>30987.732199516122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30748.354865187594</c:v>
+                  <c:v>33720.060858322802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31974.890467860259</c:v>
+                  <c:v>36485.9545066258</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33137.984573843059</c:v>
+                  <c:v>39321.665234251093</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34216.49001757252</c:v>
+                  <c:v>42217.726953692705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35231.553964611972</c:v>
+                  <c:v>45213.070355008676</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36204.323580524811</c:v>
+                  <c:v>48348.169512199907</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37113.651699747701</c:v>
+                  <c:v>51618.202520353399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37959.538322280612</c:v>
+                  <c:v>55043.711819752963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8048,46 +8081,46 @@
                   <c:v>75210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8459,49 +8492,49 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>34816.997620489827</c:v>
+                  <c:v>43573.686958582868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11064.487365538342</c:v>
+                  <c:v>-15683.846081835669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7680.940875406639</c:v>
+                  <c:v>-11132.349981689404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5249.0168356245849</c:v>
+                  <c:v>-7559.012159709222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3007.4172859122918</c:v>
+                  <c:v>-4110.0259933622874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27533.985699562461</c:v>
+                  <c:v>27713.448443183825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29437.230600261497</c:v>
+                  <c:v>30987.732199516122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30748.354865187594</c:v>
+                  <c:v>33720.060858322802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31974.890467860259</c:v>
+                  <c:v>36485.9545066258</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33137.984573843059</c:v>
+                  <c:v>39321.665234251093</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34216.49001757252</c:v>
+                  <c:v>42217.726953692705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35231.553964611972</c:v>
+                  <c:v>45213.070355008676</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36204.323580524811</c:v>
+                  <c:v>48348.169512199907</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37113.651699747701</c:v>
+                  <c:v>51618.202520353399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37959.538322280612</c:v>
+                  <c:v>55043.711819752963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8529,49 +8562,49 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>213307.24614000943</c:v>
+                  <c:v>226652.49571112159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>244160.53625738036</c:v>
+                  <c:v>271702.81806375593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>248624.39601231203</c:v>
+                  <c:v>277454.66223590221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>251832.79521116908</c:v>
+                  <c:v>281890.7502346324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>254790.10229881137</c:v>
+                  <c:v>286134.96699867933</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>257496.31727523863</c:v>
+                  <c:v>290196.02452804294</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>260007.23838738768</c:v>
+                  <c:v>294145.50407487527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>261736.98404242378</c:v>
+                  <c:v>297342.96761158196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>263355.13320358645</c:v>
+                  <c:v>300543.98743598495</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>264889.58499434427</c:v>
+                  <c:v>303792.31781336025</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>266312.4402912287</c:v>
+                  <c:v>307070.99048075185</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>267651.59821770818</c:v>
+                  <c:v>310426.43830366782</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>268934.95789725101</c:v>
+                  <c:v>313906.63753155904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>270134.62020638888</c:v>
+                  <c:v>317499.26408406254</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>271250.58514512179</c:v>
+                  <c:v>321224.86040146212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8602,46 +8635,46 @@
                   <c:v>75210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>109812.45</c:v>
+                  <c:v>134719.95000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8669,49 +8702,49 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>64643.936437172168</c:v>
+                  <c:v>69232.496670191293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96630.077384056305</c:v>
+                  <c:v>103884.21790672922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97710.390648856308</c:v>
+                  <c:v>105084.56597872921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98486.865807931288</c:v>
+                  <c:v>105947.31615547922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99202.573345861296</c:v>
+                  <c:v>106742.54675317924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99857.513262646287</c:v>
+                  <c:v>107470.25777182922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100465.18947409629</c:v>
+                  <c:v>108145.45356232922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100883.8108642063</c:v>
+                  <c:v>108610.58844022923</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101275.42442269629</c:v>
+                  <c:v>109045.71461632922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>101646.7821074713</c:v>
+                  <c:v>109458.33426607923</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>101991.1319606263</c:v>
+                  <c:v>109840.94521402921</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>102315.2259400663</c:v>
+                  <c:v>110201.04963562921</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>102625.81600369629</c:v>
+                  <c:v>110546.1497063292</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102916.15019361129</c:v>
+                  <c:v>110868.74325067924</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103186.22850981129</c:v>
+                  <c:v>111168.83026867923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8739,49 +8772,49 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>73453.309702837258</c:v>
+                  <c:v>82209.999040930299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37718.008873324041</c:v>
+                  <c:v>33098.650157026714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41101.555363455744</c:v>
+                  <c:v>37650.146257172979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43533.479403237798</c:v>
+                  <c:v>41223.484079153161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45775.078952950091</c:v>
+                  <c:v>44672.470245500095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47826.354012592361</c:v>
+                  <c:v>48005.816756213724</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49729.598913291396</c:v>
+                  <c:v>51280.100512546021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51040.723178217493</c:v>
+                  <c:v>54012.429171352705</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52267.258780890159</c:v>
+                  <c:v>56778.322819655703</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53430.352886872963</c:v>
+                  <c:v>59614.033547280997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54508.858330602423</c:v>
+                  <c:v>62510.095266722608</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55523.922277641876</c:v>
+                  <c:v>65505.43866803858</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56496.691893554715</c:v>
+                  <c:v>68640.537825229811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57406.020012777604</c:v>
+                  <c:v>71910.570833383303</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>58251.906635310515</c:v>
+                  <c:v>75336.080132782867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9675,13 +9708,13 @@
                   <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5735.3623070004733</c:v>
+                  <c:v>6372.6247855560787</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56723.198359905007</c:v>
+                  <c:v>63025.775955450001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2828.7040371508333</c:v>
+                  <c:v>3143.0044857231478</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13245.119999999999</c:v>
@@ -9693,10 +9726,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81378</c:v>
+                  <c:v>105678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2034.45</c:v>
+                  <c:v>2641.9500000000003</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>12000</c:v>
@@ -10365,13 +10398,13 @@
                   <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5735.3623070004733</c:v>
+                  <c:v>6372.6247855560787</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56723.198359905007</c:v>
+                  <c:v>63025.775955450001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2828.7040371508333</c:v>
+                  <c:v>3143.0044857231478</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13245.119999999999</c:v>
@@ -10383,10 +10416,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81378</c:v>
+                  <c:v>105678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2034.45</c:v>
+                  <c:v>2641.9500000000003</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>12000</c:v>
@@ -11221,16 +11254,16 @@
                 <c:formatCode>_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>234380.53625738036</c:v>
+                  <c:v>260422.81806375593</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7200</c:v>
+                  <c:v>7920</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1980</c:v>
+                  <c:v>2759.9999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -11502,34 +11535,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.82818050488328576</c:v>
+                  <c:v>0.92020056098142866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51366499546627742</c:v>
+                  <c:v>0.57073888385141924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62050345962648679</c:v>
+                  <c:v>0.68944828847387407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62074609021209182</c:v>
+                  <c:v>0.6897178780134352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5874960511084037E-2</c:v>
+                  <c:v>1.7638845012315593E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64244045062338273</c:v>
+                  <c:v>0.71382272291486948</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25410989175010196</c:v>
+                  <c:v>0.2823443241667799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9022472241454822</c:v>
+                  <c:v>1.0024969157172023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.12741379547757473</c:v>
+                  <c:v>-0.14157088386397187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0097648469642859</c:v>
+                  <c:v>1.1219609410714282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14238,8 +14271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262F1FB0-CD2F-E14E-8300-C92D3DA9F93F}">
   <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -14250,12 +14283,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="269" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B2" s="355">
         <f>start_date</f>
@@ -14327,7 +14360,7 @@
     </row>
     <row r="10" spans="1:2" s="359" customFormat="1">
       <c r="A10" s="335" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B10" s="335">
         <f>packaging_cost_full</f>
@@ -14381,11 +14414,11 @@
     </row>
     <row r="16" spans="1:2" ht="16">
       <c r="A16" s="352" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B16" s="333" t="str">
         <f>climate_control</f>
-        <v>Medium</v>
+        <v>High</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16">
@@ -14452,17 +14485,17 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="16">
-      <c r="A24" s="333" t="s">
-        <v>770</v>
-      </c>
-      <c r="B24" s="333" t="str">
-        <f>insultation_level</f>
-        <v>Medium</v>
+      <c r="A24" s="390" t="s">
+        <v>885</v>
+      </c>
+      <c r="B24" s="333" t="str" cm="1">
+        <f t="array" ref="B24">insulation_level</f>
+        <v>High</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16">
       <c r="A25" s="333" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B25" s="333" t="str">
         <f>roof_type</f>
@@ -14471,7 +14504,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="336" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B26" s="336" t="str">
         <f>co2_enrichment</f>
@@ -14480,7 +14513,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="339" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B27" s="339" t="str">
         <f>structure_type</f>
@@ -14489,7 +14522,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="340" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B28" s="340">
         <f>water_price</f>
@@ -14498,7 +14531,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="341" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B29" s="341">
         <f>electricity_price</f>
@@ -14507,7 +14540,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="342" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B30" s="342">
         <f>labour_improvement</f>
@@ -14516,7 +14549,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="342" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B31" s="342">
         <f>percentage_renewable_energy</f>
@@ -14525,7 +14558,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="332" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B32" s="332" t="str">
         <f>biosecurity_level</f>
@@ -14534,7 +14567,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="343" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B33" s="343">
         <f>loan_amount</f>
@@ -14543,7 +14576,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="342" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B34" s="342">
         <f>tax_rate</f>
@@ -14552,7 +14585,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="342" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B35" s="342">
         <f>loan_interest</f>
@@ -14561,7 +14594,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="344" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B36" s="344">
         <f>loan_tenure</f>
@@ -14570,7 +14603,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="344" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B37" s="344" t="str">
         <f>loan_type</f>
@@ -14579,7 +14612,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="332" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B38" s="332" t="str">
         <f>crop_typ1</f>
@@ -14588,7 +14621,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="342" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B39" s="342">
         <f>crop1_percent</f>
@@ -14597,7 +14630,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="338" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B40" s="338" t="str">
         <f>crop1_system</f>
@@ -14606,7 +14639,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="338" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B41" s="338">
         <f>crop1_harvest_weight</f>
@@ -14615,7 +14648,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="338" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B42" s="338">
         <f>crop1_product_weight</f>
@@ -14624,7 +14657,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="345" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B43" s="345">
         <f>crop1_customer_percent</f>
@@ -14633,7 +14666,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="346" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B44" s="346">
         <f>crop1_price1</f>
@@ -14642,7 +14675,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="346" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B45" s="346">
         <f>crop1_price2</f>
@@ -14651,7 +14684,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="338" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B46" s="338" t="str">
         <f>crop_typ2</f>
@@ -14660,7 +14693,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="347" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B47" s="347">
         <f>crop2_percent</f>
@@ -14669,7 +14702,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="338" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B48" s="338" t="str">
         <f>crop2_system</f>
@@ -14678,7 +14711,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="338" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B49" s="338">
         <f>crop2_harvest_weight</f>
@@ -14687,7 +14720,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="338" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B50" s="338">
         <f>crop2_product_weight</f>
@@ -14696,7 +14729,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="345" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B51" s="345">
         <f>crop2_customer_percent</f>
@@ -14705,7 +14738,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="346" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B52" s="346">
         <f>crop2_price1</f>
@@ -14714,7 +14747,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="346" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B53" s="346">
         <f>crop2_price2</f>
@@ -14723,7 +14756,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="338" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B54" s="338" t="str">
         <f>crop_typ3</f>
@@ -14732,7 +14765,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="347" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B55" s="347">
         <f>crop3_percent</f>
@@ -14741,7 +14774,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="338" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B56" s="338" t="str">
         <f>crop3_system</f>
@@ -14750,7 +14783,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="338" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B57" s="338">
         <f>crop3_harvest_weight</f>
@@ -14759,7 +14792,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="338" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B58" s="338">
         <f>crop3_product_weight</f>
@@ -14768,7 +14801,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="345" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B59" s="345">
         <f>crop3_customer_percent</f>
@@ -14777,7 +14810,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="346" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B60" s="346">
         <f>crop3_price1</f>
@@ -14786,7 +14819,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="346" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B61" s="346">
         <f>crop3_price2</f>
@@ -14795,7 +14828,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="338" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B62" s="338" t="str">
         <f>crop_typ4</f>
@@ -14804,7 +14837,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="342" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B63" s="342">
         <f>crop4_percent</f>
@@ -14813,7 +14846,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="338" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B64" s="338" t="str">
         <f>crop4_system</f>
@@ -14822,7 +14855,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="338" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B65" s="338">
         <f>crop4_harvest_weight</f>
@@ -14831,7 +14864,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="338" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B66" s="338">
         <f>crop4_product_weight</f>
@@ -14840,7 +14873,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="338" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B67" s="338">
         <f>crop4_customer_percent</f>
@@ -14849,7 +14882,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="346" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B68" s="346">
         <f>crop4_price1</f>
@@ -14858,7 +14891,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="346" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B69" s="346">
         <f>crop4_price2</f>
@@ -14867,7 +14900,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="332" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B70" s="332">
         <f>vadded_products_multiplier</f>
@@ -14876,25 +14909,25 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="332" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B71" s="332">
         <f>education_multiplier</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="332" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B72" s="332">
         <f>tourism_multiplier</f>
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="332" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B73" s="332">
         <f>hospitality_multiplier</f>
@@ -14903,7 +14936,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="348" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B74" s="348">
         <f>vadded_avg_revenue_y1</f>
@@ -14912,7 +14945,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="348" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B75" s="348">
         <f>education_avg_revenue_y1</f>
@@ -14921,16 +14954,16 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="348" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B76" s="348">
         <f>tourism_avg_revenue_y1</f>
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="348" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B77" s="348">
         <f>hospitality_avg_revenue_y1</f>
@@ -14939,7 +14972,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="349" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B78" s="349">
         <f>monthly_rent_y1</f>
@@ -14948,7 +14981,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="350" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B79" s="350">
         <f>monthly_distribution_y1</f>
@@ -14957,7 +14990,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="338" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B80" s="338">
         <f>monthly_rent_y2</f>
@@ -14966,7 +14999,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="338" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B81" s="338">
         <f>monthly_distribution_y2</f>
@@ -14975,7 +15008,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="348" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B82" s="348">
         <f>delivery_msalary</f>
@@ -14984,7 +15017,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="348" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B83" s="348">
         <f>farmhand_msalary</f>
@@ -14993,7 +15026,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="348" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B84" s="348">
         <f>parttime_wage</f>
@@ -15002,7 +15035,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="348" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B85" s="348">
         <f>ceo_msalary</f>
@@ -15011,7 +15044,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="348" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B86" s="348">
         <f>hgrower_msalary</f>
@@ -15020,7 +15053,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="348" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B87" s="348">
         <f>marketer_msalary</f>
@@ -15029,7 +15062,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="348" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B88" s="348">
         <f>scientist_msalary</f>
@@ -15038,7 +15071,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="348" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B89" s="348">
         <f>salesperson_msalary</f>
@@ -15047,7 +15080,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="348" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B90" s="348">
         <f>manager_msalary</f>
@@ -15056,7 +15089,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="348" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B91" s="348">
         <f>admin_msalary</f>
@@ -15065,7 +15098,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="332" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B92" s="332">
         <f>ceo_count_y1</f>
@@ -15074,7 +15107,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="332" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B93" s="332">
         <f>hgrower_count_y1</f>
@@ -15083,7 +15116,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="332" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B94" s="332">
         <f>marketer_count_y1</f>
@@ -15092,7 +15125,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="332" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B95" s="332">
         <f>scientist_count_y1</f>
@@ -15101,7 +15134,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="332" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B96" s="332">
         <f>salesperson_count_y1</f>
@@ -15110,7 +15143,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="332" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B97" s="332">
         <f>manager_count_y1</f>
@@ -15119,7 +15152,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="332" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B98" s="332">
         <f>delivery_count_y1</f>
@@ -15128,7 +15161,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="332" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B99" s="332">
         <f>farmhand_count_y1</f>
@@ -15137,7 +15170,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="332" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B100" s="332">
         <f>admin_count_y1</f>
@@ -15146,7 +15179,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="332" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B101" s="332">
         <f>parttime_count_y1</f>
@@ -15155,7 +15188,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="332" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B102" s="332">
         <f>ceo_count_y2</f>
@@ -15164,7 +15197,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="332" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B103" s="332">
         <f>hgrower_count_y2</f>
@@ -15173,7 +15206,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="332" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B104" s="332">
         <f>marketer_count_y2</f>
@@ -15182,7 +15215,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="332" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B105" s="332">
         <f>scientist_count_y2</f>
@@ -15191,7 +15224,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="332" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B106" s="332">
         <f>salesperson_count_y2</f>
@@ -15200,16 +15233,16 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="332" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B107" s="332">
         <f>manager_count_y2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="332" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B108" s="332">
         <f>delivery_count_y2</f>
@@ -15218,7 +15251,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="332" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B109" s="332">
         <f>farmhand_count_y2</f>
@@ -15227,7 +15260,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="332" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B110" s="332">
         <f>admin_count_y2</f>
@@ -15236,7 +15269,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="332" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B111" s="332">
         <f>parttime_count_y2</f>
@@ -15245,7 +15278,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="358" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B112">
         <f>Overview!F98</f>
@@ -15254,7 +15287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="358" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B113" s="144">
         <f>Overview!G98</f>
@@ -15263,7 +15296,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="362" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B114" s="363">
         <f>'CapEx Breakdown'!C37</f>
@@ -15272,7 +15305,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="362" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B115" s="363">
         <f>'CapEx Breakdown'!E37</f>
@@ -15281,7 +15314,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="358" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B116" s="106">
         <f>'CapEx Breakdown'!D25+'CapEx Breakdown'!C25</f>
@@ -15290,7 +15323,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="358" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B117" s="106">
         <f>('CapEx Breakdown'!D34+'CapEx Breakdown'!C34)-('CapEx Breakdown'!C25+'CapEx Breakdown'!D25)</f>
@@ -15299,7 +15332,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="358" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B118" s="106">
         <f>'CapEx Breakdown'!D16+'CapEx Breakdown'!D17+'CapEx Breakdown'!D18+'CapEx Breakdown'!C18+'CapEx Breakdown'!C17+'CapEx Breakdown'!C16</f>
@@ -15308,7 +15341,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="47" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B119">
         <f>target_productivity_space</f>
@@ -15317,7 +15350,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="47" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B120">
         <f>target_productivity_energy</f>
@@ -15326,7 +15359,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="47" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B121">
         <f>target_productivity_labour</f>
@@ -15335,7 +15368,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="47" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B122">
         <f>target_productivity_water</f>
@@ -15344,7 +15377,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="47" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B123">
         <f>target_productivity_nutrients</f>
@@ -15353,7 +15386,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="47" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B124">
         <f>target_productivity_volume</f>
@@ -15362,7 +15395,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="47" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B125">
         <f>target_productivity_plants</f>
@@ -15371,7 +15404,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="47" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B126">
         <f>target_productivity_CO2</f>
@@ -15380,7 +15413,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="47" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B127">
         <f>target_productivity_CO2_omitted</f>
@@ -15389,7 +15422,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="47" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B128">
         <f>target_productivity_CO2_net</f>
@@ -15398,7 +15431,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="47" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B129" t="str">
         <f>ipm</f>
@@ -15407,7 +15440,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="47" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B130" t="str">
         <f>pest_detection</f>
@@ -15416,7 +15449,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="47" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B131" t="s">
         <v>540</v>
@@ -15652,67 +15685,67 @@
       </c>
       <c r="C6" s="49">
         <f>Overview!F81</f>
-        <v>10358.937178334121</v>
+        <v>11471.04130926013</v>
       </c>
       <c r="D6" s="49">
         <f>Overview!H81</f>
-        <v>213307.24614000943</v>
+        <v>226652.49571112159</v>
       </c>
       <c r="E6" s="49">
         <f>Overview!I81</f>
-        <v>244160.53625738036</v>
+        <v>271702.81806375593</v>
       </c>
       <c r="F6" s="49">
         <f>Overview!J81</f>
-        <v>248624.39601231203</v>
+        <v>277454.66223590221</v>
       </c>
       <c r="G6" s="49">
         <f>Overview!K81</f>
-        <v>251832.79521116908</v>
+        <v>281890.7502346324</v>
       </c>
       <c r="H6" s="49">
         <f>Overview!L81</f>
-        <v>254790.10229881137</v>
+        <v>286134.96699867933</v>
       </c>
       <c r="I6" s="49">
         <f>Overview!M81</f>
-        <v>257496.31727523863</v>
+        <v>290196.02452804294</v>
       </c>
       <c r="J6" s="49">
         <f>Overview!N81</f>
-        <v>260007.23838738768</v>
+        <v>294145.50407487527</v>
       </c>
       <c r="K6" s="49">
         <f>Overview!O81</f>
-        <v>261736.98404242378</v>
+        <v>297342.96761158196</v>
       </c>
       <c r="L6" s="49">
         <f>Overview!P81</f>
-        <v>263355.13320358645</v>
+        <v>300543.98743598495</v>
       </c>
       <c r="M6" s="49">
         <f>Overview!Q81</f>
-        <v>264889.58499434427</v>
+        <v>303792.31781336025</v>
       </c>
       <c r="N6" s="49">
         <f>Overview!R81</f>
-        <v>266312.4402912287</v>
+        <v>307070.99048075185</v>
       </c>
       <c r="O6" s="49">
         <f>Overview!S81</f>
-        <v>267651.59821770818</v>
+        <v>310426.43830366782</v>
       </c>
       <c r="P6" s="49">
         <f>Overview!T81</f>
-        <v>268934.95789725101</v>
+        <v>313906.63753155904</v>
       </c>
       <c r="Q6" s="49">
         <f>Overview!U81</f>
-        <v>270134.62020638888</v>
+        <v>317499.26408406254</v>
       </c>
       <c r="R6" s="49">
         <f>Overview!V81</f>
-        <v>271250.58514512179</v>
+        <v>321224.86040146212</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -15731,67 +15764,67 @@
       </c>
       <c r="C7" s="49">
         <f>Overview!F90</f>
-        <v>5386.9947030976809</v>
+        <v>5769.3747225159404</v>
       </c>
       <c r="D7" s="49">
         <f>Overview!H90</f>
-        <v>64643.936437172168</v>
+        <v>69232.496670191293</v>
       </c>
       <c r="E7" s="49">
         <f>Overview!I90</f>
-        <v>96630.077384056305</v>
+        <v>103884.21790672922</v>
       </c>
       <c r="F7" s="49">
         <f>Overview!J90</f>
-        <v>97710.390648856308</v>
+        <v>105084.56597872921</v>
       </c>
       <c r="G7" s="49">
         <f>Overview!K90</f>
-        <v>98486.865807931288</v>
+        <v>105947.31615547922</v>
       </c>
       <c r="H7" s="49">
         <f>Overview!L90</f>
-        <v>99202.573345861296</v>
+        <v>106742.54675317924</v>
       </c>
       <c r="I7" s="49">
         <f>Overview!M90</f>
-        <v>99857.513262646287</v>
+        <v>107470.25777182922</v>
       </c>
       <c r="J7" s="49">
         <f>Overview!N90</f>
-        <v>100465.18947409629</v>
+        <v>108145.45356232922</v>
       </c>
       <c r="K7" s="49">
         <f>Overview!O90</f>
-        <v>100883.8108642063</v>
+        <v>108610.58844022923</v>
       </c>
       <c r="L7" s="49">
         <f>Overview!P90</f>
-        <v>101275.42442269629</v>
+        <v>109045.71461632922</v>
       </c>
       <c r="M7" s="49">
         <f>Overview!Q90</f>
-        <v>101646.7821074713</v>
+        <v>109458.33426607923</v>
       </c>
       <c r="N7" s="49">
         <f>Overview!R90</f>
-        <v>101991.1319606263</v>
+        <v>109840.94521402921</v>
       </c>
       <c r="O7" s="49">
         <f>Overview!S90</f>
-        <v>102315.2259400663</v>
+        <v>110201.04963562921</v>
       </c>
       <c r="P7" s="49">
         <f>Overview!T90</f>
-        <v>102625.81600369629</v>
+        <v>110546.1497063292</v>
       </c>
       <c r="Q7" s="49">
         <f>Overview!U90</f>
-        <v>102916.15019361129</v>
+        <v>110868.74325067924</v>
       </c>
       <c r="R7" s="49">
         <f>Overview!V90</f>
-        <v>103186.22850981129</v>
+        <v>111168.83026867923</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -15810,67 +15843,67 @@
       </c>
       <c r="C8" s="50">
         <f>Overview!F92</f>
-        <v>4971.9424752364403</v>
+        <v>5701.6665867441898</v>
       </c>
       <c r="D8" s="50">
         <f>Overview!H92</f>
-        <v>148663.30970283726</v>
+        <v>157419.9990409303</v>
       </c>
       <c r="E8" s="50">
         <f>Overview!I92</f>
-        <v>147530.45887332404</v>
+        <v>167818.60015702673</v>
       </c>
       <c r="F8" s="50">
         <f>Overview!J92</f>
-        <v>150914.00536345574</v>
+        <v>172370.09625717299</v>
       </c>
       <c r="G8" s="50">
         <f>Overview!K92</f>
-        <v>153345.92940323779</v>
+        <v>175943.43407915317</v>
       </c>
       <c r="H8" s="50">
         <f>Overview!L92</f>
-        <v>155587.52895295009</v>
+        <v>179392.42024550011</v>
       </c>
       <c r="I8" s="50">
         <f>Overview!M92</f>
-        <v>157638.80401259236</v>
+        <v>182725.76675621374</v>
       </c>
       <c r="J8" s="50">
         <f>Overview!N92</f>
-        <v>159542.04891329139</v>
+        <v>186000.05051254603</v>
       </c>
       <c r="K8" s="50">
         <f>Overview!O92</f>
-        <v>160853.17317821749</v>
+        <v>188732.37917135272</v>
       </c>
       <c r="L8" s="50">
         <f>Overview!P92</f>
-        <v>162079.70878089016</v>
+        <v>191498.27281965571</v>
       </c>
       <c r="M8" s="50">
         <f>Overview!Q92</f>
-        <v>163242.80288687296</v>
+        <v>194333.98354728101</v>
       </c>
       <c r="N8" s="50">
         <f>Overview!R92</f>
-        <v>164321.30833060242</v>
+        <v>197230.04526672262</v>
       </c>
       <c r="O8" s="50">
         <f>Overview!S92</f>
-        <v>165336.37227764187</v>
+        <v>200225.38866803859</v>
       </c>
       <c r="P8" s="50">
         <f>Overview!T92</f>
-        <v>166309.14189355471</v>
+        <v>203360.48782522982</v>
       </c>
       <c r="Q8" s="50">
         <f>Overview!U92</f>
-        <v>167218.4700127776</v>
+        <v>206630.52083338331</v>
       </c>
       <c r="R8" s="50">
         <f>Overview!V92</f>
-        <v>168064.35663531051</v>
+        <v>210056.03013278288</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -15926,59 +15959,59 @@
       </c>
       <c r="E10" s="50">
         <f>Overview!I100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="F10" s="50">
         <f>Overview!J100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="G10" s="50">
         <f>Overview!K100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="H10" s="50">
         <f>Overview!L100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="I10" s="50">
         <f>Overview!M100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="J10" s="50">
         <f>Overview!N100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="K10" s="50">
         <f>Overview!O100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="L10" s="50">
         <f>Overview!P100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="M10" s="50">
         <f>Overview!Q100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="N10" s="50">
         <f>Overview!R100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="O10" s="50">
         <f>Overview!S100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="P10" s="50">
         <f>Overview!T100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="Q10" s="50">
         <f>Overview!U100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="R10" s="50">
         <f>Overview!V100</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -16026,67 +16059,67 @@
       </c>
       <c r="C12" s="50">
         <f>Overview!F102</f>
-        <v>-1295.5575247635597</v>
+        <v>-565.83341325581023</v>
       </c>
       <c r="D12" s="50">
         <f>Overview!H102</f>
-        <v>73453.309702837258</v>
+        <v>82209.999040930299</v>
       </c>
       <c r="E12" s="50">
         <f>Overview!I102</f>
-        <v>37718.008873324041</v>
+        <v>33098.650157026714</v>
       </c>
       <c r="F12" s="50">
         <f>Overview!J102</f>
-        <v>41101.555363455744</v>
+        <v>37650.146257172979</v>
       </c>
       <c r="G12" s="50">
         <f>Overview!K102</f>
-        <v>43533.479403237798</v>
+        <v>41223.484079153161</v>
       </c>
       <c r="H12" s="50">
         <f>Overview!L102</f>
-        <v>45775.078952950091</v>
+        <v>44672.470245500095</v>
       </c>
       <c r="I12" s="50">
         <f>Overview!M102</f>
-        <v>47826.354012592361</v>
+        <v>48005.816756213724</v>
       </c>
       <c r="J12" s="50">
         <f>Overview!N102</f>
-        <v>49729.598913291396</v>
+        <v>51280.100512546021</v>
       </c>
       <c r="K12" s="50">
         <f>Overview!O102</f>
-        <v>51040.723178217493</v>
+        <v>54012.429171352705</v>
       </c>
       <c r="L12" s="50">
         <f>Overview!P102</f>
-        <v>52267.258780890159</v>
+        <v>56778.322819655703</v>
       </c>
       <c r="M12" s="50">
         <f>Overview!Q102</f>
-        <v>53430.352886872963</v>
+        <v>59614.033547280997</v>
       </c>
       <c r="N12" s="50">
         <f>Overview!R102</f>
-        <v>54508.858330602423</v>
+        <v>62510.095266722608</v>
       </c>
       <c r="O12" s="50">
         <f>Overview!S102</f>
-        <v>55523.922277641876</v>
+        <v>65505.43866803858</v>
       </c>
       <c r="P12" s="50">
         <f>Overview!T102</f>
-        <v>56496.691893554715</v>
+        <v>68640.537825229811</v>
       </c>
       <c r="Q12" s="50">
         <f>Overview!U102</f>
-        <v>57406.020012777604</v>
+        <v>71910.570833383303</v>
       </c>
       <c r="R12" s="50">
         <f>Overview!V102</f>
-        <v>58251.906635310515</v>
+        <v>75336.080132782867</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -16391,67 +16424,67 @@
       </c>
       <c r="C18" s="78">
         <f>C12-C16</f>
-        <v>-2141.0728711398056</v>
+        <v>-1411.348759632056</v>
       </c>
       <c r="D18" s="78">
         <f>D12-(D12*Overview!$B$56)-D14-D16</f>
-        <v>34816.997620489827</v>
+        <v>43573.686958582868</v>
       </c>
       <c r="E18" s="78">
         <f>E12-(E12*Overview!$B$56)-E14-E16</f>
-        <v>-11064.487365538342</v>
+        <v>-15683.846081835669</v>
       </c>
       <c r="F18" s="78">
         <f>F12-(F12*Overview!$B$56)-F14-F16</f>
-        <v>-7680.940875406639</v>
+        <v>-11132.349981689404</v>
       </c>
       <c r="G18" s="78">
         <f>G12-(G12*Overview!$B$56)-G14-G16</f>
-        <v>-5249.0168356245849</v>
+        <v>-7559.012159709222</v>
       </c>
       <c r="H18" s="78">
         <f>H12-(H12*Overview!$B$56)-H14-H16</f>
-        <v>-3007.4172859122918</v>
+        <v>-4110.0259933622874</v>
       </c>
       <c r="I18" s="78">
         <f>I12-(I12*Overview!$B$56)-I14-I16</f>
-        <v>27533.985699562461</v>
+        <v>27713.448443183825</v>
       </c>
       <c r="J18" s="78">
         <f>J12-(J12*Overview!$B$56)-J14-J16</f>
-        <v>29437.230600261497</v>
+        <v>30987.732199516122</v>
       </c>
       <c r="K18" s="78">
         <f>K12-(K12*Overview!$B$56)-K14-K16</f>
-        <v>30748.354865187594</v>
+        <v>33720.060858322802</v>
       </c>
       <c r="L18" s="78">
         <f>L12-(L12*Overview!$B$56)-L14-L16</f>
-        <v>31974.890467860259</v>
+        <v>36485.9545066258</v>
       </c>
       <c r="M18" s="78">
         <f>M12-(M12*Overview!$B$56)-M14-M16</f>
-        <v>33137.984573843059</v>
+        <v>39321.665234251093</v>
       </c>
       <c r="N18" s="78">
         <f>N12-(N12*Overview!$B$56)-N14-N16</f>
-        <v>34216.49001757252</v>
+        <v>42217.726953692705</v>
       </c>
       <c r="O18" s="78">
         <f>O12-(O12*Overview!$B$56)-O14-O16</f>
-        <v>35231.553964611972</v>
+        <v>45213.070355008676</v>
       </c>
       <c r="P18" s="78">
         <f>P12-(P12*Overview!$B$56)-P14-P16</f>
-        <v>36204.323580524811</v>
+        <v>48348.169512199907</v>
       </c>
       <c r="Q18" s="78">
         <f>Q12-(Q12*Overview!$B$56)-Q14-Q16</f>
-        <v>37113.651699747701</v>
+        <v>51618.202520353399</v>
       </c>
       <c r="R18" s="78">
         <f>R12-(R12*Overview!$B$56)-R14-R16</f>
-        <v>37959.538322280612</v>
+        <v>55043.711819752963</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -16471,63 +16504,63 @@
       <c r="C19" s="51"/>
       <c r="D19" s="51">
         <f>-H3+D12</f>
-        <v>-149654.32083654255</v>
+        <v>-140897.63149844951</v>
       </c>
       <c r="E19" s="51">
         <f>D19+E12</f>
-        <v>-111936.31196321851</v>
+        <v>-107798.9813414228</v>
       </c>
       <c r="F19" s="51">
         <f>E19+F12</f>
-        <v>-70834.756599762768</v>
+        <v>-70148.835084249818</v>
       </c>
       <c r="G19" s="51">
         <f t="shared" ref="G19:J19" si="0">F19+G12</f>
-        <v>-27301.27719652497</v>
+        <v>-28925.351005096658</v>
       </c>
       <c r="H19" s="51">
         <f>G19+H12</f>
-        <v>18473.80175642512</v>
+        <v>15747.119240403437</v>
       </c>
       <c r="I19" s="51">
         <f t="shared" si="0"/>
-        <v>66300.155769017481</v>
+        <v>63752.935996617161</v>
       </c>
       <c r="J19" s="51">
         <f t="shared" si="0"/>
-        <v>116029.75468230888</v>
+        <v>115033.03650916318</v>
       </c>
       <c r="K19" s="51">
         <f t="shared" ref="K19:R19" si="1">J19+K12</f>
-        <v>167070.47786052636</v>
+        <v>169045.46568051589</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="1"/>
-        <v>219337.7366414165</v>
+        <v>225823.78850017159</v>
       </c>
       <c r="M19" s="51">
         <f t="shared" si="1"/>
-        <v>272768.08952828945</v>
+        <v>285437.82204745256</v>
       </c>
       <c r="N19" s="51">
         <f t="shared" si="1"/>
-        <v>327276.94785889186</v>
+        <v>347947.91731417517</v>
       </c>
       <c r="O19" s="51">
         <f t="shared" si="1"/>
-        <v>382800.87013653375</v>
+        <v>413453.35598221375</v>
       </c>
       <c r="P19" s="51">
         <f t="shared" si="1"/>
-        <v>439297.56203008845</v>
+        <v>482093.89380744356</v>
       </c>
       <c r="Q19" s="51">
         <f t="shared" si="1"/>
-        <v>496703.58204286604</v>
+        <v>554004.46464082692</v>
       </c>
       <c r="R19" s="51">
         <f t="shared" si="1"/>
-        <v>554955.48867817654</v>
+        <v>629340.54477360984</v>
       </c>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
@@ -16608,63 +16641,63 @@
       <c r="C21" s="15"/>
       <c r="D21" s="76">
         <f>(D18/$H$3)</f>
-        <v>0.15605471465192411</v>
+        <v>0.19530343652182644</v>
       </c>
       <c r="E21" s="76">
         <f t="shared" ref="E21:R21" si="2">(E18/$H$3)</f>
-        <v>-4.9592599494643438E-2</v>
+        <v>-7.029721952547642E-2</v>
       </c>
       <c r="F21" s="76">
         <f t="shared" si="2"/>
-        <v>-3.4427064896155164E-2</v>
+        <v>-4.9896769351976414E-2</v>
       </c>
       <c r="G21" s="76">
         <f t="shared" si="2"/>
-        <v>-2.3526836903492204E-2</v>
+        <v>-3.3880563122985666E-2</v>
       </c>
       <c r="H21" s="76">
         <f t="shared" si="2"/>
-        <v>-1.3479670231993545E-2</v>
+        <v>-1.8421718627130702E-2</v>
       </c>
       <c r="I21" s="76">
         <f t="shared" si="2"/>
-        <v>0.12341122369054316</v>
+        <v>0.12421560112571872</v>
       </c>
       <c r="J21" s="76">
         <f>(J18/$H$3)</f>
-        <v>0.13194183690219261</v>
+        <v>0.1388914046758549</v>
       </c>
       <c r="K21" s="76">
         <f t="shared" si="2"/>
-        <v>0.13781848155910709</v>
+        <v>0.15113808871889306</v>
       </c>
       <c r="L21" s="76">
         <f t="shared" si="2"/>
-        <v>0.14331598785105873</v>
+        <v>0.16353521579884206</v>
       </c>
       <c r="M21" s="76">
         <f t="shared" si="2"/>
-        <v>0.14852914036928921</v>
+        <v>0.1762452729168785</v>
       </c>
       <c r="N21" s="76">
         <f t="shared" si="2"/>
-        <v>0.15336315452255725</v>
+        <v>0.18922583172806826</v>
       </c>
       <c r="O21" s="76">
         <f t="shared" si="2"/>
-        <v>0.15791281490210349</v>
+        <v>0.20265138509921249</v>
       </c>
       <c r="P21" s="76">
         <f t="shared" si="2"/>
-        <v>0.16227290609916875</v>
+        <v>0.21670334356254198</v>
       </c>
       <c r="Q21" s="76">
         <f t="shared" si="2"/>
-        <v>0.16634864352251244</v>
+        <v>0.23136009465728463</v>
       </c>
       <c r="R21" s="76">
         <f t="shared" si="2"/>
-        <v>0.17014002717213444</v>
+        <v>0.24671371251032773</v>
       </c>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
@@ -16806,7 +16839,7 @@
       </c>
       <c r="C26" s="145">
         <f>SUM(Overview!O68:O71)/(0.065*3*365)</f>
-        <v>119.8836728174807</v>
+        <v>133.20408090831188</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -16840,7 +16873,7 @@
       </c>
       <c r="C27" s="1">
         <f>Overview!G140</f>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -16874,7 +16907,7 @@
       </c>
       <c r="C28" s="146">
         <f>SUM(Overview!V68:V71)</f>
-        <v>8854.9059582120917</v>
+        <v>9838.7843980134367</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -45288,7 +45321,7 @@
       <c r="W1007" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -45302,8 +45335,8 @@
   </sheetPr>
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -45322,26 +45355,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13">
-      <c r="A1" s="381" t="s">
+      <c r="A1" s="368" t="s">
         <v>518</v>
       </c>
-      <c r="B1" s="382"/>
-      <c r="C1" s="382"/>
-      <c r="D1" s="382"/>
-      <c r="E1" s="382"/>
-      <c r="F1" s="382"/>
-      <c r="G1" s="382"/>
-      <c r="H1" s="382"/>
+      <c r="B1" s="369"/>
+      <c r="C1" s="369"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="369"/>
+      <c r="G1" s="369"/>
+      <c r="H1" s="369"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A2" s="382"/>
-      <c r="B2" s="382"/>
-      <c r="C2" s="382"/>
-      <c r="D2" s="382"/>
-      <c r="E2" s="382"/>
-      <c r="F2" s="382"/>
-      <c r="G2" s="382"/>
-      <c r="H2" s="382"/>
+      <c r="A2" s="369"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
     </row>
     <row r="3" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="59" t="s">
@@ -45349,28 +45382,28 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="13">
-      <c r="A4" s="383" t="s">
+      <c r="A4" s="370" t="s">
         <v>517</v>
       </c>
-      <c r="B4" s="382"/>
-      <c r="C4" s="382"/>
-      <c r="D4" s="382"/>
-      <c r="E4" s="382"/>
-      <c r="F4" s="382"/>
-      <c r="G4" s="382"/>
-      <c r="H4" s="382"/>
+      <c r="B4" s="369"/>
+      <c r="C4" s="369"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="369"/>
+      <c r="G4" s="369"/>
+      <c r="H4" s="369"/>
     </row>
     <row r="5" spans="1:22" ht="13">
-      <c r="A5" s="384" t="s">
+      <c r="A5" s="371" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="382"/>
-      <c r="C5" s="382"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="382"/>
-      <c r="F5" s="382"/>
-      <c r="G5" s="382"/>
-      <c r="H5" s="382"/>
+      <c r="B5" s="369"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
+      <c r="G5" s="369"/>
+      <c r="H5" s="369"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="13">
       <c r="A6" s="92" t="s">
@@ -45385,16 +45418,16 @@
       <c r="H6" s="93"/>
     </row>
     <row r="7" spans="1:22" ht="13">
-      <c r="A7" s="385" t="s">
+      <c r="A7" s="372" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="382"/>
-      <c r="C7" s="382"/>
-      <c r="D7" s="382"/>
-      <c r="E7" s="382"/>
-      <c r="F7" s="382"/>
-      <c r="G7" s="382"/>
-      <c r="H7" s="382"/>
+      <c r="B7" s="369"/>
+      <c r="C7" s="369"/>
+      <c r="D7" s="369"/>
+      <c r="E7" s="369"/>
+      <c r="F7" s="369"/>
+      <c r="G7" s="369"/>
+      <c r="H7" s="369"/>
     </row>
     <row r="8" spans="1:22" s="26" customFormat="1" ht="13">
       <c r="A8" s="256" t="s">
@@ -45437,7 +45470,7 @@
     </row>
     <row r="12" spans="1:22" s="351" customFormat="1" ht="14" thickBot="1">
       <c r="A12" s="353" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B12" s="354">
         <v>44228</v>
@@ -45458,8 +45491,8 @@
       <c r="Q13" s="218"/>
       <c r="R13" s="219"/>
       <c r="S13" s="219"/>
-      <c r="T13" s="380"/>
-      <c r="U13" s="380"/>
+      <c r="T13" s="367"/>
+      <c r="U13" s="367"/>
     </row>
     <row r="14" spans="1:22" ht="16">
       <c r="A14" s="2" t="s">
@@ -45644,7 +45677,7 @@
       </c>
       <c r="D18" s="269"/>
       <c r="E18" s="269"/>
-      <c r="F18" s="367" t="s">
+      <c r="F18" s="374" t="s">
         <v>618</v>
       </c>
       <c r="G18" s="323" t="s">
@@ -45695,7 +45728,7 @@
       </c>
       <c r="D19" s="269"/>
       <c r="E19" s="269"/>
-      <c r="F19" s="367"/>
+      <c r="F19" s="374"/>
       <c r="G19" s="292" t="s">
         <v>585</v>
       </c>
@@ -45842,7 +45875,7 @@
       </c>
       <c r="D23" s="269"/>
       <c r="E23" s="269"/>
-      <c r="F23" s="378" t="s">
+      <c r="F23" s="383" t="s">
         <v>316</v>
       </c>
       <c r="G23" s="326" t="s">
@@ -45874,7 +45907,7 @@
       </c>
       <c r="D24" s="269"/>
       <c r="E24" s="269"/>
-      <c r="F24" s="378"/>
+      <c r="F24" s="383"/>
       <c r="G24" s="326" t="s">
         <v>596</v>
       </c>
@@ -45898,15 +45931,15 @@
       </c>
       <c r="B25" s="236">
         <f>SUM(F68:F71)</f>
-        <v>323.72088710333099</v>
+        <v>359.68987455925657</v>
       </c>
       <c r="C25" s="235">
         <f>SUM(G68:G71)</f>
-        <v>661.45668796183475</v>
+        <v>734.95187551314973</v>
       </c>
       <c r="D25" s="269"/>
       <c r="E25" s="269"/>
-      <c r="F25" s="377" t="s">
+      <c r="F25" s="382" t="s">
         <v>542</v>
       </c>
       <c r="G25" s="323" t="s">
@@ -45939,15 +45972,15 @@
       </c>
       <c r="B26" s="237">
         <f>F72</f>
-        <v>9558.9371783341212</v>
+        <v>10621.04130926013</v>
       </c>
       <c r="C26" s="238">
         <f>G72</f>
-        <v>19531.711354781699</v>
+        <v>21701.901505312995</v>
       </c>
       <c r="D26" s="269"/>
       <c r="E26" s="269"/>
-      <c r="F26" s="377"/>
+      <c r="F26" s="382"/>
       <c r="G26" s="323" t="s">
         <v>315</v>
       </c>
@@ -45976,7 +46009,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
-      <c r="F27" s="375" t="s">
+      <c r="F27" s="380" t="s">
         <v>588</v>
       </c>
       <c r="G27" s="185" t="s">
@@ -46009,7 +46042,7 @@
       </c>
       <c r="B28" s="54"/>
       <c r="C28" s="47"/>
-      <c r="F28" s="376"/>
+      <c r="F28" s="381"/>
       <c r="G28" s="185" t="s">
         <v>315</v>
       </c>
@@ -46042,7 +46075,7 @@
         <v>79</v>
       </c>
       <c r="C29" s="47"/>
-      <c r="F29" s="379" t="s">
+      <c r="F29" s="384" t="s">
         <v>587</v>
       </c>
       <c r="G29" s="185" t="s">
@@ -46050,15 +46083,15 @@
       </c>
       <c r="H29" s="181">
         <f>H39/H20</f>
-        <v>3751.0877250000003</v>
+        <v>4167.8752500000001</v>
       </c>
       <c r="I29" s="181">
         <f>I39/I20</f>
-        <v>141.45876855000006</v>
+        <v>157.17640950000003</v>
       </c>
       <c r="J29" s="181">
         <f>J39/J20</f>
-        <v>106.12230042857146</v>
+        <v>117.91366714285718</v>
       </c>
       <c r="K29" s="181">
         <f>K39/K20</f>
@@ -46066,7 +46099,7 @@
       </c>
       <c r="L29" s="183">
         <f t="shared" si="0"/>
-        <v>3998.668793978572</v>
+        <v>4442.9653266428568</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="26" customFormat="1" ht="16">
@@ -46074,24 +46107,24 @@
         <v>223</v>
       </c>
       <c r="B30" s="361" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C30" s="170"/>
-      <c r="F30" s="376"/>
+      <c r="F30" s="381"/>
       <c r="G30" s="185" t="s">
         <v>483</v>
       </c>
       <c r="H30" s="182">
         <f>H40/H20</f>
-        <v>7502.1754500000006</v>
+        <v>8335.7505000000001</v>
       </c>
       <c r="I30" s="182">
         <f>I40/I20</f>
-        <v>282.91753710000012</v>
+        <v>314.35281900000007</v>
       </c>
       <c r="J30" s="182">
         <f>J40/J20</f>
-        <v>212.24460085714293</v>
+        <v>235.82733428571436</v>
       </c>
       <c r="K30" s="182">
         <f>K40/K20</f>
@@ -46099,7 +46132,7 @@
       </c>
       <c r="L30" s="266">
         <f t="shared" si="0"/>
-        <v>7997.337587957144</v>
+        <v>8885.9306532857136</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="26" customFormat="1" ht="16">
@@ -46110,7 +46143,7 @@
         <v>165</v>
       </c>
       <c r="C31" s="170"/>
-      <c r="F31" s="371" t="s">
+      <c r="F31" s="376" t="s">
         <v>531</v>
       </c>
       <c r="G31" s="212" t="s">
@@ -46118,15 +46151,15 @@
       </c>
       <c r="H31" s="208">
         <f>H29*LOOKUP(H15, Consumables!$A$35:$A$116, Consumables!$D$35:$D$116)*(1/LOOKUP(H15, Consumables!$A$35:$A$116, Consumables!$G$35:$G$116))</f>
-        <v>116.01302242268044</v>
+        <v>128.90335824742269</v>
       </c>
       <c r="I31" s="208">
         <f>I29*LOOKUP(I15, Consumables!$A$35:$A$116, Consumables!$D$35:$D$116)*(1/LOOKUP(I15, Consumables!$A$35:$A$116, Consumables!$G$35:$G$116))/4</f>
-        <v>1.0937533650773201</v>
+        <v>1.2152815167525777</v>
       </c>
       <c r="J31" s="208">
         <f>J29*LOOKUP(J15, Consumables!$A$35:$A$116, Consumables!$D$35:$D$116)*(1/LOOKUP(J15, Consumables!$A$35:$A$116, Consumables!$G$35:$G$116))/4</f>
-        <v>0.8205332507363774</v>
+        <v>0.91170361192930816</v>
       </c>
       <c r="K31" s="208">
         <f>K29*LOOKUP(K15, Consumables!$A$35:$A$116, Consumables!$D$35:$D$116)*(1/LOOKUP(K15, Consumables!$A$35:$A$116, Consumables!$G$35:$G$116))</f>
@@ -46142,21 +46175,21 @@
         <v>164</v>
       </c>
       <c r="C32" s="170"/>
-      <c r="F32" s="372"/>
+      <c r="F32" s="377"/>
       <c r="G32" s="212" t="s">
         <v>315</v>
       </c>
       <c r="H32" s="208">
         <f>H30*LOOKUP(H15, Consumables!$A$35:$A$116, Consumables!$D$35:$D$116)*(1/LOOKUP(H15, Consumables!$A$35:$A$116, Consumables!$G$35:$G$116))</f>
-        <v>232.02604484536087</v>
+        <v>257.80671649484538</v>
       </c>
       <c r="I32" s="208">
         <f>I30*LOOKUP(I15,Consumables!$A$35:$A$116,Consumables!$D$35:$D$116)/(1/LOOKUP(H15,Consumables!$A$35:$A$116,Consumables!$G$35:$G$116))/4</f>
-        <v>2.0582250824025006</v>
+        <v>2.2869167582250003</v>
       </c>
       <c r="J32" s="208">
         <f>J30*LOOKUP(J15, Consumables!$A$35:$A$116, Consumables!$D$35:$D$116)*(1/LOOKUP(H15, Consumables!$A$35:$A$116, Consumables!$G$35:$G$116))/4</f>
-        <v>1.6410665014727548</v>
+        <v>1.8234072238586163</v>
       </c>
       <c r="K32" s="208">
         <f>K30*LOOKUP(K15, Consumables!$A$35:$A$116, Consumables!$D$35:$D$116)*(1/LOOKUP(H15, Consumables!$A$35:$A$116, Consumables!$G$35:$G$116))</f>
@@ -46169,7 +46202,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="356" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33" s="170"/>
       <c r="F33" s="273" t="s">
@@ -46178,15 +46211,15 @@
       <c r="G33" s="269"/>
       <c r="H33" s="293">
         <f>(H32/H30)+(H16*$G$84/H30)+(H16*$C$37*(VLOOKUP(Overview!$B$37,Database!$A$109:$X$130,6,FALSE)*H18*$B$46*H19)/(H30*1000))+VLOOKUP($B$39, Consumables!$A$23:$F$25, 2, FALSE)</f>
-        <v>0.27199333339309739</v>
+        <v>0.25088678355894234</v>
       </c>
       <c r="I33" s="293">
         <f>(I32/I30)+(I16*$G$84/I30)+(I16*$C$37*(VLOOKUP(Overview!$B$37,Database!$A$109:$X$130,6,FALSE)*I18*$B$46*I19)/(I30*1000))+VLOOKUP($B$39, Consumables!$A$23:$F$25, 2, FALSE)</f>
-        <v>0.44845205601573312</v>
+        <v>0.40733435041415988</v>
       </c>
       <c r="J33" s="293">
         <f>(J32/J30)+(J16*$G$84/J30)+(J16*$C$37*(VLOOKUP(Overview!$B$37,Database!$A$109:$X$130,6,FALSE)*J18*$B$46*J19)/(J30*1000))+VLOOKUP($B$39, Consumables!$A$23:$F$25, 2, FALSE)</f>
-        <v>0.58582222598385858</v>
+        <v>0.53101319926176138</v>
       </c>
       <c r="K33" s="293" t="e">
         <f>(K32/K30)+(K16*$G$84/K30)+(K16*$C$37*(VLOOKUP(Overview!$B$37,Database!$A$109:$X$130,6,FALSE)*K18*$B$46*K19)/(K30*1000))+VLOOKUP($B$39, Consumables!$A$23:$F$25, 2, FALSE)</f>
@@ -46201,7 +46234,7 @@
       <c r="B34" s="356" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="370" t="s">
+      <c r="F34" s="373" t="s">
         <v>615</v>
       </c>
       <c r="G34" s="185" t="s">
@@ -46209,19 +46242,19 @@
       </c>
       <c r="H34" s="271">
         <f>VLOOKUP($B33,'Production Technologies'!$A$71:$F$73,3,FALSE)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I34" s="271">
         <f>VLOOKUP($B33,'Production Technologies'!$A$71:$F$73,3,FALSE)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J34" s="271">
         <f>VLOOKUP($B33,'Production Technologies'!$A$71:$F$73,3,FALSE)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K34" s="271">
         <f>VLOOKUP($B33,'Production Technologies'!$A$71:$F$73,3,FALSE)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L34" s="277"/>
     </row>
@@ -46235,7 +46268,7 @@
       <c r="C35" s="254" t="s">
         <v>489</v>
       </c>
-      <c r="F35" s="370"/>
+      <c r="F35" s="373"/>
       <c r="G35" s="185" t="s">
         <v>533</v>
       </c>
@@ -46267,7 +46300,7 @@
       <c r="C36" s="264">
         <v>8</v>
       </c>
-      <c r="F36" s="370"/>
+      <c r="F36" s="373"/>
       <c r="G36" s="185" t="s">
         <v>534</v>
       </c>
@@ -46300,7 +46333,7 @@
         <f>C36*16</f>
         <v>128</v>
       </c>
-      <c r="F37" s="370"/>
+      <c r="F37" s="373"/>
       <c r="G37" s="185" t="s">
         <v>535</v>
       </c>
@@ -46331,25 +46364,25 @@
         <f>C36*VLOOKUP(B36, Database!A97:I107, 5, FALSE)</f>
         <v>2880</v>
       </c>
-      <c r="F38" s="370"/>
+      <c r="F38" s="373"/>
       <c r="G38" s="185" t="s">
         <v>536</v>
       </c>
       <c r="H38" s="183">
         <f>SUM(H34:H37)</f>
-        <v>3.6</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="I38" s="183">
         <f>SUM(I34:I37)</f>
-        <v>3.6</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="J38" s="183">
         <f>SUM(J34:J37)</f>
-        <v>3.6</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="K38" s="183">
         <f>SUM(K34:K37)</f>
-        <v>3.6</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="L38" s="277"/>
     </row>
@@ -46361,7 +46394,7 @@
         <v>507</v>
       </c>
       <c r="C39" s="170"/>
-      <c r="F39" s="373" t="s">
+      <c r="F39" s="378" t="s">
         <v>589</v>
       </c>
       <c r="G39" s="212" t="s">
@@ -46369,15 +46402,15 @@
       </c>
       <c r="H39" s="283">
         <f>H25*H34*H35*H36*H37</f>
-        <v>375.10877250000004</v>
+        <v>416.78752500000002</v>
       </c>
       <c r="I39" s="283">
         <f>I25*I34*I35*I36*I37</f>
-        <v>10.609407641250003</v>
+        <v>11.788230712500003</v>
       </c>
       <c r="J39" s="283">
         <f>J25*J34*J35*J36*J37</f>
-        <v>7.9591725321428592</v>
+        <v>8.8435250357142881</v>
       </c>
       <c r="K39" s="283">
         <f>K25*K34*K35*K36*K37</f>
@@ -46393,21 +46426,21 @@
         <v>4</v>
       </c>
       <c r="C40" s="170"/>
-      <c r="F40" s="374"/>
+      <c r="F40" s="379"/>
       <c r="G40" s="212" t="s">
         <v>315</v>
       </c>
       <c r="H40" s="294">
         <f>H26*H34*H35*H36*H37</f>
-        <v>750.21754500000009</v>
+        <v>833.57505000000003</v>
       </c>
       <c r="I40" s="294">
         <f>I26*I34*I35*I36*I37</f>
-        <v>21.218815282500007</v>
+        <v>23.576461425000005</v>
       </c>
       <c r="J40" s="294">
         <f>J26*J34*J35*J36*J37</f>
-        <v>15.918345064285718</v>
+        <v>17.687050071428576</v>
       </c>
       <c r="K40" s="294">
         <f>K26*K34*K35*K36*K37</f>
@@ -46415,7 +46448,7 @@
       </c>
       <c r="L40" s="360">
         <f>crop1_ayield_full*12</f>
-        <v>9002.6105400000015</v>
+        <v>10002.900600000001</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="26" customFormat="1" ht="16">
@@ -46423,11 +46456,11 @@
         <v>73</v>
       </c>
       <c r="B41" s="310" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C41" s="170"/>
       <c r="D41" s="55"/>
-      <c r="F41" s="367" t="s">
+      <c r="F41" s="374" t="s">
         <v>613</v>
       </c>
       <c r="G41" s="292" t="s">
@@ -46435,15 +46468,15 @@
       </c>
       <c r="H41" s="183">
         <f>(H29/VLOOKUP($B$36, Database!$A$97:$I$107, 5, FALSE))/4</f>
-        <v>2.6049220312500001</v>
+        <v>2.8943578125</v>
       </c>
       <c r="I41" s="183">
         <f>(I29/VLOOKUP($B$36, Database!$A$97:$I$107, 5, FALSE))/4</f>
-        <v>9.8235255937500043E-2</v>
+        <v>0.10915028437500002</v>
       </c>
       <c r="J41" s="183">
         <f>(J29/VLOOKUP($B$36, Database!$A$97:$I$107, 5, FALSE))/4</f>
-        <v>7.3696041964285738E-2</v>
+        <v>8.1884491071428603E-2</v>
       </c>
       <c r="K41" s="183">
         <f>(K29/VLOOKUP($B$36, Database!$A$97:$I$107, 5, FALSE))/4</f>
@@ -46458,13 +46491,13 @@
         <v>166</v>
       </c>
       <c r="C42" s="170"/>
-      <c r="F42" s="367"/>
+      <c r="F42" s="374"/>
       <c r="G42" s="212" t="s">
         <v>614</v>
       </c>
       <c r="H42" s="183">
         <f>H41*B21</f>
-        <v>5.2098440625000002</v>
+        <v>5.788715625</v>
       </c>
       <c r="I42" s="183">
         <f t="shared" ref="I42:K42" si="1">I41*C21</f>
@@ -46496,11 +46529,11 @@
         <v>722</v>
       </c>
       <c r="C44" s="170"/>
-      <c r="G44" s="369" t="s">
+      <c r="G44" s="385" t="s">
         <v>602</v>
       </c>
-      <c r="H44" s="369"/>
-      <c r="I44" s="369"/>
+      <c r="H44" s="385"/>
+      <c r="I44" s="385"/>
     </row>
     <row r="45" spans="1:12" s="160" customFormat="1" ht="16">
       <c r="A45" s="171" t="s">
@@ -46543,21 +46576,21 @@
       </c>
       <c r="G46" s="183">
         <f>SUM(I68:I71)</f>
-        <v>7937.4802555420183</v>
+        <v>8819.4225061577963</v>
       </c>
       <c r="H46" s="185" t="s">
         <v>511</v>
       </c>
       <c r="I46" s="183">
         <f>SUM(V68:V71)/growing_area_full</f>
-        <v>74.536245439495715</v>
+        <v>82.818050488328581</v>
       </c>
       <c r="J46" s="275">
         <v>90</v>
       </c>
       <c r="K46" s="183">
         <f>I46/J46</f>
-        <v>0.82818050488328576</v>
+        <v>0.92020056098142866</v>
       </c>
       <c r="L46" s="269">
         <v>1</v>
@@ -46583,14 +46616,14 @@
       </c>
       <c r="I47" s="183">
         <f>(SUM(I68:I71)/G47)</f>
-        <v>3.5956549682639422E-2</v>
+        <v>3.9951721869599353E-2</v>
       </c>
       <c r="J47" s="275">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K47" s="183">
         <f>I47/J47</f>
-        <v>0.51366499546627742</v>
+        <v>0.57073888385141924</v>
       </c>
       <c r="L47" s="269">
         <v>1</v>
@@ -46616,14 +46649,14 @@
       </c>
       <c r="I48" s="322">
         <f>G46/G48</f>
-        <v>3.7230207577589205</v>
+        <v>4.1366897308432442</v>
       </c>
       <c r="J48" s="275">
         <v>6</v>
       </c>
       <c r="K48" s="183">
         <f t="shared" ref="K48:K55" si="2">I48/J48</f>
-        <v>0.62050345962648679</v>
+        <v>0.68944828847387407</v>
       </c>
       <c r="L48" s="269">
         <v>1</v>
@@ -46649,14 +46682,14 @@
       </c>
       <c r="I49" s="322">
         <f>G46/G49</f>
-        <v>0.31037304510604591</v>
+        <v>0.3448589390067176</v>
       </c>
       <c r="J49" s="275">
         <v>0.5</v>
       </c>
       <c r="K49" s="183">
         <f t="shared" si="2"/>
-        <v>0.62074609021209182</v>
+        <v>0.6897178780134352</v>
       </c>
       <c r="L49" s="269">
         <v>1</v>
@@ -46664,7 +46697,7 @@
     </row>
     <row r="50" spans="1:12" s="26" customFormat="1" ht="13">
       <c r="A50" s="366" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B50" s="365" t="s">
         <v>540</v>
@@ -46681,14 +46714,14 @@
       </c>
       <c r="I50" s="183">
         <f>G46/G50</f>
-        <v>7.9374802555420185</v>
+        <v>8.819422506157796</v>
       </c>
       <c r="J50" s="275">
         <v>500</v>
       </c>
       <c r="K50" s="183">
         <f t="shared" si="2"/>
-        <v>1.5874960511084037E-2</v>
+        <v>1.7638845012315593E-2</v>
       </c>
       <c r="L50" s="269">
         <v>1</v>
@@ -46696,7 +46729,7 @@
     </row>
     <row r="51" spans="1:12" s="96" customFormat="1" ht="13">
       <c r="A51" s="366" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B51" s="365" t="s">
         <v>540</v>
@@ -46714,14 +46747,14 @@
       </c>
       <c r="I51" s="183">
         <f>G46/G51</f>
-        <v>83.517258581039755</v>
+        <v>92.796953978933033</v>
       </c>
       <c r="J51" s="275">
         <v>130</v>
       </c>
       <c r="K51" s="183">
         <f t="shared" si="2"/>
-        <v>0.64244045062338273</v>
+        <v>0.71382272291486948</v>
       </c>
       <c r="L51" s="269">
         <v>1</v>
@@ -46743,14 +46776,14 @@
       </c>
       <c r="I52" s="269">
         <f>G46/G52</f>
-        <v>127.05494587505098</v>
+        <v>141.17216208338996</v>
       </c>
       <c r="J52" s="275">
         <v>500</v>
       </c>
       <c r="K52" s="183">
         <f t="shared" si="2"/>
-        <v>0.25410989175010196</v>
+        <v>0.2823443241667799</v>
       </c>
       <c r="L52" s="269">
         <v>1</v>
@@ -46771,14 +46804,14 @@
       </c>
       <c r="I53" s="183">
         <f>G46/G53</f>
-        <v>45112.361207274109</v>
+        <v>50124.845785860118</v>
       </c>
       <c r="J53" s="275">
         <v>50000</v>
       </c>
       <c r="K53" s="183">
         <f>I53/J53</f>
-        <v>0.9022472241454822</v>
+        <v>1.0024969157172023</v>
       </c>
       <c r="L53" s="269">
         <v>1</v>
@@ -46804,14 +46837,14 @@
       </c>
       <c r="I54" s="183">
         <f>G46/G54</f>
-        <v>127.41379547757472</v>
+        <v>141.57088386397189</v>
       </c>
       <c r="J54" s="275">
         <v>-1000</v>
       </c>
       <c r="K54" s="183">
         <f>I54/J54</f>
-        <v>-0.12741379547757473</v>
+        <v>-0.14157088386397187</v>
       </c>
       <c r="L54" s="269">
         <v>1</v>
@@ -46832,21 +46865,21 @@
       </c>
       <c r="G55" s="183">
         <f>SUM(H30:K30)*12</f>
-        <v>95968.051055485732</v>
+        <v>106631.16783942856</v>
       </c>
       <c r="H55" s="185" t="s">
         <v>720</v>
       </c>
       <c r="I55" s="183">
         <f>G55/C17</f>
-        <v>807.81187757142868</v>
+        <v>897.56875285714261</v>
       </c>
       <c r="J55" s="275">
         <v>800</v>
       </c>
       <c r="K55" s="183">
         <f t="shared" si="2"/>
-        <v>1.0097648469642859</v>
+        <v>1.1219609410714282</v>
       </c>
       <c r="L55" s="269">
         <v>1</v>
@@ -46888,7 +46921,7 @@
       <c r="C58" s="54"/>
       <c r="I58" s="102">
         <f>SUM(V68:V71)</f>
-        <v>8854.9059582120917</v>
+        <v>9838.7843980134367</v>
       </c>
       <c r="J58" s="26"/>
     </row>
@@ -47026,71 +47059,71 @@
       <c r="E68" s="28"/>
       <c r="F68" s="11">
         <f>crop1_ayield_pilot-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$63,'Production Technologies'!$B$61:$B$63)*crop1_ayield_pilot)</f>
-        <v>308.45194362675005</v>
+        <v>342.72438180749998</v>
       </c>
       <c r="G68" s="188">
         <f>crop1_ayield_full-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$63,'Production Technologies'!$C$61:$C$63)*crop1_ayield_full)</f>
-        <v>630.25775955450013</v>
+        <v>700.28639950500008</v>
       </c>
       <c r="H68" s="129">
         <f>F68*12</f>
-        <v>3701.4233235210004</v>
+        <v>4112.6925816900002</v>
       </c>
       <c r="I68" s="188">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!C61:C62)*(crop1_ayield_full*12))</f>
-        <v>7563.0931146540015</v>
+        <v>8403.4367940600005</v>
       </c>
       <c r="J68" s="147">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!D61:D62)*(crop1_ayield_full*12))</f>
-        <v>7707.1348832940012</v>
+        <v>8563.4832036600001</v>
       </c>
       <c r="K68" s="147">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!E61:E62)*(crop1_ayield_full*12))</f>
-        <v>7810.6649045040012</v>
+        <v>8678.5165605600014</v>
       </c>
       <c r="L68" s="147">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!F61:F62)*(crop1_ayield_full*12))</f>
-        <v>7906.0925762280012</v>
+        <v>8784.5473069200016</v>
       </c>
       <c r="M68" s="147">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!G61:G62)*(crop1_ayield_full*12))</f>
-        <v>7993.4178984660011</v>
+        <v>8881.5754427400007</v>
       </c>
       <c r="N68" s="147">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!H61:H62)*(crop1_ayield_full*12))</f>
-        <v>8074.4413933260012</v>
+        <v>8971.6015481400009</v>
       </c>
       <c r="O68" s="147">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!I61:I62)*(crop1_ayield_full*12))</f>
-        <v>8130.2575786740017</v>
+        <v>9033.6195318600003</v>
       </c>
       <c r="P68" s="147">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!J61:J62)*(crop1_ayield_full*12))</f>
-        <v>8182.4727198060009</v>
+        <v>9091.6363553400006</v>
       </c>
       <c r="Q68" s="147">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!K61:K62)*(crop1_ayield_full*12))</f>
-        <v>8231.9870777760007</v>
+        <v>9146.6523086400011</v>
       </c>
       <c r="R68" s="147">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!L61:L62)*(crop1_ayield_full*12))</f>
-        <v>8277.9003915300018</v>
+        <v>9197.6671017000008</v>
       </c>
       <c r="S68" s="147">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!M61:M62)*(crop1_ayield_full*12))</f>
-        <v>8321.1129221220017</v>
+        <v>9245.6810245800007</v>
       </c>
       <c r="T68" s="147">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!N61:N62)*(crop1_ayield_full*12))</f>
-        <v>8362.5249306060014</v>
+        <v>9291.6943673400001</v>
       </c>
       <c r="U68" s="147">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!O61:O62)*(crop1_ayield_full*12))</f>
-        <v>8401.2361559280016</v>
+        <v>9334.7068399200016</v>
       </c>
       <c r="V68" s="147">
         <f>(crop1_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!P61:P62)*(crop1_ayield_full*12))</f>
-        <v>8437.2465980880006</v>
+        <v>9374.7184423200015</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="16">
@@ -47103,71 +47136,71 @@
       <c r="E69" s="128"/>
       <c r="F69" s="137">
         <f>crop2_ayield_pilot-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!$B$61:$B$62)*crop2_ayield_pilot)</f>
-        <v>8.724115903399877</v>
+        <v>9.693462114888753</v>
       </c>
       <c r="G69" s="188">
         <f>crop2_ayield_full-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$63,'Production Technologies'!$C$61:$C$63)*crop2_ayield_full)</f>
-        <v>17.825926718828256</v>
+        <v>19.806585243142504</v>
       </c>
       <c r="H69" s="207">
         <f>F69*12</f>
-        <v>104.68939084079852</v>
+        <v>116.32154537866504</v>
       </c>
       <c r="I69" s="188">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!C61:C62)*(crop2_ayield_full*12))</f>
-        <v>213.91112062593908</v>
+        <v>237.67902291771006</v>
       </c>
       <c r="J69" s="147">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!D61:D62)*(crop2_ayield_full*12))</f>
-        <v>217.98513316017909</v>
+        <v>242.20570351131005</v>
       </c>
       <c r="K69" s="147">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!E61:E62)*(crop2_ayield_full*12))</f>
-        <v>220.91332966916409</v>
+        <v>245.45925518796005</v>
       </c>
       <c r="L69" s="147">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!F61:F62)*(crop2_ayield_full*12))</f>
-        <v>223.61236297309807</v>
+        <v>248.45818108122006</v>
       </c>
       <c r="M69" s="147">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!G61:G62)*(crop2_ayield_full*12))</f>
-        <v>226.08223307198108</v>
+        <v>251.20248119109004</v>
       </c>
       <c r="N69" s="147">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!H61:H62)*(crop2_ayield_full*12))</f>
-        <v>228.37386512249108</v>
+        <v>253.74873902499004</v>
       </c>
       <c r="O69" s="147">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!I61:I62)*(crop2_ayield_full*12))</f>
-        <v>229.95254497950907</v>
+        <v>255.50282775501006</v>
       </c>
       <c r="P69" s="147">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!J61:J62)*(crop2_ayield_full*12))</f>
-        <v>231.42937452317108</v>
+        <v>257.14374947019007</v>
       </c>
       <c r="Q69" s="147">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!K61:K62)*(crop2_ayield_full*12))</f>
-        <v>232.82981633181609</v>
+        <v>258.69979592424005</v>
       </c>
       <c r="R69" s="147">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!L61:L62)*(crop2_ayield_full*12))</f>
-        <v>234.12840782710509</v>
+        <v>260.14267536345005</v>
       </c>
       <c r="S69" s="147">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!M61:M62)*(crop2_ayield_full*12))</f>
-        <v>235.3506115873771</v>
+        <v>261.50067954153008</v>
       </c>
       <c r="T69" s="147">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!N61:N62)*(crop2_ayield_full*12))</f>
-        <v>236.52189019097108</v>
+        <v>262.80210021219006</v>
       </c>
       <c r="U69" s="147">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!O61:O62)*(crop2_ayield_full*12))</f>
-        <v>237.61678105954809</v>
+        <v>264.01864562172005</v>
       </c>
       <c r="V69" s="147">
         <f>(crop2_ayield_full*12)-(LOOKUP($B$31, 'Production Technologies'!$A$61:$A$62, 'Production Technologies'!P61:P62)*(crop2_ayield_full*12))</f>
-        <v>238.63528419310808</v>
+        <v>265.15031577012007</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="16">
@@ -47180,71 +47213,71 @@
       <c r="E70" s="128"/>
       <c r="F70" s="137">
         <f>crop3_ayield_pilot-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!$B$61:$B$62)*crop3_ayield_pilot)</f>
-        <v>6.544827573181073</v>
+        <v>7.2720306368678589</v>
       </c>
       <c r="G70" s="188">
         <f>crop3_ayield_full-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$63,'Production Technologies'!$C$61:$C$63)*crop3_ayield_full)</f>
-        <v>13.373001688506433</v>
+        <v>14.858890765007146</v>
       </c>
       <c r="H70" s="207">
         <f>F70*12</f>
-        <v>78.537930878172872</v>
+        <v>87.2643676424143</v>
       </c>
       <c r="I70" s="188">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!C61:C62)*(crop3_ayield_full*12))</f>
-        <v>160.47602026207718</v>
+        <v>178.30668918008578</v>
       </c>
       <c r="J70" s="147">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!D61:D62)*(crop3_ayield_full*12))</f>
-        <v>163.53234251442004</v>
+        <v>181.70260279380005</v>
       </c>
       <c r="K70" s="147">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!E61:E62)*(crop3_ayield_full*12))</f>
-        <v>165.72907413329148</v>
+        <v>184.14341570365721</v>
       </c>
       <c r="L70" s="147">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!F61:F62)*(crop3_ayield_full*12))</f>
-        <v>167.75388762546862</v>
+        <v>186.39320847274291</v>
       </c>
       <c r="M70" s="147">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!G61:G62)*(crop3_ayield_full*12))</f>
-        <v>169.60678299095147</v>
+        <v>188.45198110105721</v>
       </c>
       <c r="N70" s="147">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!H61:H62)*(crop3_ayield_full*12))</f>
-        <v>171.32596425789433</v>
+        <v>190.3621825087715</v>
       </c>
       <c r="O70" s="147">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!I61:I62)*(crop3_ayield_full*12))</f>
-        <v>172.51028913067719</v>
+        <v>191.67809903408579</v>
       </c>
       <c r="P70" s="147">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!J61:J62)*(crop3_ayield_full*12))</f>
-        <v>173.61820594715147</v>
+        <v>192.90911771905721</v>
       </c>
       <c r="Q70" s="147">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!K61:K62)*(crop3_ayield_full*12))</f>
-        <v>174.66881672139434</v>
+        <v>194.07646302377151</v>
       </c>
       <c r="R70" s="147">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!L61:L62)*(crop3_ayield_full*12))</f>
-        <v>175.64301943932861</v>
+        <v>195.15891048814291</v>
       </c>
       <c r="S70" s="147">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!M61:M62)*(crop3_ayield_full*12))</f>
-        <v>176.55991611503148</v>
+        <v>196.17768457225719</v>
       </c>
       <c r="T70" s="147">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!N61:N62)*(crop3_ayield_full*12))</f>
-        <v>177.43860876258006</v>
+        <v>197.15400973620007</v>
       </c>
       <c r="U70" s="147">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!O61:O62)*(crop3_ayield_full*12))</f>
-        <v>178.2599953678972</v>
+        <v>198.06666151988577</v>
       </c>
       <c r="V70" s="147">
         <f>(crop3_ayield_full*12)-(LOOKUP($B$31,'Production Technologies'!$A$61:$A$62,'Production Technologies'!P61:P62)*(crop3_ayield_full*12))</f>
-        <v>179.02407593098292</v>
+        <v>198.91563992331436</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="16">
@@ -47334,71 +47367,71 @@
       <c r="E72" s="206"/>
       <c r="F72" s="220">
         <f>((F68/$H$21)*($H$23*$H$22+$H$24*(1-$H$22)))+((F69/$I$21))*($I$23*$I$22+$I$24*(1-$I$22))+((F70/$J$21)*($J$23*$J$22+$J$24*(1-$J$22)))+((F71/$K$21)*($K$23*$K$22+$K$24*(1-$K$22)))</f>
-        <v>9558.9371783341212</v>
+        <v>10621.04130926013</v>
       </c>
       <c r="G72" s="189">
         <f>((G68/$H$21)*($H$23*$H$22+$H$24*(1-$H$22)))+((G69/$I$21))*($I$23*$I$22+$I$24*(1-$I$22))+((G70/$J$21)*($J$23*$J$22+$J$24*(1-$J$22)))+((G71/$K$21)*($K$23*$K$22+$K$24*(1-$K$22)))</f>
-        <v>19531.711354781699</v>
+        <v>21701.901505312995</v>
       </c>
       <c r="H72" s="220">
         <f>((H68/$H$21)*($H$23*$H$22+$H$24*(1-$H$22)))+((H69/$I$21))*($I$23*$I$22+$I$24*(1-$I$22))+((H70/$J$21)*($J$23*$J$22+$J$24*(1-$J$22)))+((H71/$K$21)*($K$23*$K$22+$K$24*(1-$K$22)))</f>
-        <v>114707.24614000942</v>
+        <v>127452.49571112159</v>
       </c>
       <c r="I72" s="189">
         <f>((I68/$H$21)*($H$23*$H$22+$H$24*(1-$H$22)))+((I69/$I$21))*($I$23*$I$22+$I$24*(1-$I$22))+((I70/$J$21)*($J$23*$J$22+$J$24*(1-$J$22)))+((I71/$K$21)*($K$23*$K$22+$K$24*(1-$K$22)))</f>
-        <v>234380.53625738036</v>
+        <v>260422.81806375593</v>
       </c>
       <c r="J72" s="220">
         <f>((J68/$H$21)*($H$23*$H$22+$H$24*(1-$H$22)))+((J69/$I$21))*($I$23*$I$22+$I$24*(1-$I$22))+((J70/$J$21)*($J$23*$J$22+$J$24*(1-$J$22)))+((J71/$K$21)*($K$23*$K$22+$K$24*(1-$K$22)))</f>
-        <v>238844.39601231203</v>
+        <v>265382.66223590221</v>
       </c>
       <c r="K72" s="220">
         <f t="shared" ref="K72:U72" si="3">((K68/$H$21)*($H$23*$H$22+$H$24*(1-$H$22)))+((K69/$I$21))*($I$23*$I$22+$I$24*(1-$I$22))+((K70/$J$21)*($J$23*$J$22+$J$24*(1-$J$22)))+((K71/$K$21)*($K$23*$K$22+$K$24*(1-$K$22)))</f>
-        <v>242052.79521116908</v>
+        <v>268947.55023463239</v>
       </c>
       <c r="L72" s="220">
         <f t="shared" si="3"/>
-        <v>245010.10229881137</v>
+        <v>272233.44699867931</v>
       </c>
       <c r="M72" s="220">
         <f t="shared" si="3"/>
-        <v>247716.31727523863</v>
+        <v>275240.35252804292</v>
       </c>
       <c r="N72" s="220">
         <f t="shared" si="3"/>
-        <v>250227.23838738768</v>
+        <v>278030.26487487525</v>
       </c>
       <c r="O72" s="220">
         <f t="shared" si="3"/>
-        <v>251956.98404242378</v>
+        <v>279952.20449158194</v>
       </c>
       <c r="P72" s="220">
         <f t="shared" si="3"/>
-        <v>253575.13320358645</v>
+        <v>281750.14800398494</v>
       </c>
       <c r="Q72" s="220">
         <f t="shared" si="3"/>
-        <v>255109.58499434424</v>
+        <v>283455.09443816025</v>
       </c>
       <c r="R72" s="220">
         <f t="shared" si="3"/>
-        <v>256532.4402912287</v>
+        <v>285036.04476803186</v>
       </c>
       <c r="S72" s="220">
         <f t="shared" si="3"/>
-        <v>257871.59821770818</v>
+        <v>286523.99801967578</v>
       </c>
       <c r="T72" s="220">
         <f t="shared" si="3"/>
-        <v>259154.95789725104</v>
+        <v>287949.95321916783</v>
       </c>
       <c r="U72" s="220">
         <f t="shared" si="3"/>
-        <v>260354.62020638891</v>
+        <v>289282.91134043218</v>
       </c>
       <c r="V72" s="220">
         <f>((V68/$H$21)*($H$23*$H$22+$H$24*(1-$H$22)))+((V69/$I$21))*($I$23*$I$22+$I$24*(1-$I$22))+((V70/$J$21)*($J$23*$J$22+$J$24*(1-$J$22)))+((V71/$K$21)*($K$23*$K$22+$K$24*(1-$K$22)))</f>
-        <v>261470.58514512182</v>
+        <v>290522.87238346873</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" customHeight="1">
@@ -47531,71 +47564,71 @@
       <c r="E75" s="206"/>
       <c r="F75" s="35">
         <f>F72</f>
-        <v>9558.9371783341212</v>
+        <v>10621.04130926013</v>
       </c>
       <c r="G75" s="190">
         <f>G72</f>
-        <v>19531.711354781699</v>
+        <v>21701.901505312995</v>
       </c>
       <c r="H75" s="35">
         <f t="shared" ref="H75:V75" si="4">H72</f>
-        <v>114707.24614000942</v>
+        <v>127452.49571112159</v>
       </c>
       <c r="I75" s="35">
         <f t="shared" si="4"/>
-        <v>234380.53625738036</v>
+        <v>260422.81806375593</v>
       </c>
       <c r="J75" s="35">
         <f t="shared" si="4"/>
-        <v>238844.39601231203</v>
+        <v>265382.66223590221</v>
       </c>
       <c r="K75" s="35">
         <f t="shared" si="4"/>
-        <v>242052.79521116908</v>
+        <v>268947.55023463239</v>
       </c>
       <c r="L75" s="35">
         <f t="shared" si="4"/>
-        <v>245010.10229881137</v>
+        <v>272233.44699867931</v>
       </c>
       <c r="M75" s="35">
         <f t="shared" si="4"/>
-        <v>247716.31727523863</v>
+        <v>275240.35252804292</v>
       </c>
       <c r="N75" s="35">
         <f t="shared" si="4"/>
-        <v>250227.23838738768</v>
+        <v>278030.26487487525</v>
       </c>
       <c r="O75" s="35">
         <f t="shared" si="4"/>
-        <v>251956.98404242378</v>
+        <v>279952.20449158194</v>
       </c>
       <c r="P75" s="35">
         <f t="shared" si="4"/>
-        <v>253575.13320358645</v>
+        <v>281750.14800398494</v>
       </c>
       <c r="Q75" s="35">
         <f t="shared" si="4"/>
-        <v>255109.58499434424</v>
+        <v>283455.09443816025</v>
       </c>
       <c r="R75" s="35">
         <f t="shared" si="4"/>
-        <v>256532.4402912287</v>
+        <v>285036.04476803186</v>
       </c>
       <c r="S75" s="35">
         <f t="shared" si="4"/>
-        <v>257871.59821770818</v>
+        <v>286523.99801967578</v>
       </c>
       <c r="T75" s="35">
         <f t="shared" si="4"/>
-        <v>259154.95789725104</v>
+        <v>287949.95321916783</v>
       </c>
       <c r="U75" s="35">
         <f t="shared" si="4"/>
-        <v>260354.62020638891</v>
+        <v>289282.91134043218</v>
       </c>
       <c r="V75" s="35">
         <f t="shared" si="4"/>
-        <v>261470.58514512182</v>
+        <v>290522.87238346873</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="13">
@@ -47686,7 +47719,7 @@
         <v>27</v>
       </c>
       <c r="C77" s="193">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D77" s="206"/>
       <c r="E77" s="206"/>
@@ -47695,7 +47728,7 @@
       </c>
       <c r="G77" s="194">
         <f>F77*$C$77</f>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H77" s="35">
         <f t="shared" si="5"/>
@@ -47703,59 +47736,59 @@
       </c>
       <c r="I77" s="101">
         <f t="shared" si="5"/>
-        <v>7200</v>
+        <v>7920</v>
       </c>
       <c r="J77" s="82">
         <f t="shared" ref="J77:V77" si="7">I77*$C$77</f>
-        <v>7200</v>
+        <v>8712</v>
       </c>
       <c r="K77" s="82">
         <f t="shared" si="7"/>
-        <v>7200</v>
+        <v>9583.2000000000007</v>
       </c>
       <c r="L77" s="82">
         <f t="shared" si="7"/>
-        <v>7200</v>
+        <v>10541.520000000002</v>
       </c>
       <c r="M77" s="82">
         <f t="shared" si="7"/>
-        <v>7200</v>
+        <v>11595.672000000004</v>
       </c>
       <c r="N77" s="82">
         <f t="shared" si="7"/>
-        <v>7200</v>
+        <v>12755.239200000005</v>
       </c>
       <c r="O77" s="82">
         <f t="shared" si="7"/>
-        <v>7200</v>
+        <v>14030.763120000007</v>
       </c>
       <c r="P77" s="82">
         <f t="shared" si="7"/>
-        <v>7200</v>
+        <v>15433.839432000008</v>
       </c>
       <c r="Q77" s="82">
         <f t="shared" si="7"/>
-        <v>7200</v>
+        <v>16977.22337520001</v>
       </c>
       <c r="R77" s="82">
         <f t="shared" si="7"/>
-        <v>7200</v>
+        <v>18674.945712720011</v>
       </c>
       <c r="S77" s="82">
         <f t="shared" si="7"/>
-        <v>7200</v>
+        <v>20542.440283992015</v>
       </c>
       <c r="T77" s="82">
         <f t="shared" si="7"/>
-        <v>7200</v>
+        <v>22596.684312391219</v>
       </c>
       <c r="U77" s="82">
         <f t="shared" si="7"/>
-        <v>7200</v>
+        <v>24856.352743630341</v>
       </c>
       <c r="V77" s="82">
         <f t="shared" si="7"/>
-        <v>7200</v>
+        <v>27341.988017993379</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="13">
@@ -47766,76 +47799,76 @@
         <v>27</v>
       </c>
       <c r="C78" s="193">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D78" s="206"/>
       <c r="E78" s="206"/>
       <c r="F78" s="37">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G78" s="194">
         <f>F78*$C$78</f>
-        <v>165</v>
+        <v>229.99999999999997</v>
       </c>
       <c r="H78" s="35">
         <f t="shared" si="5"/>
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="I78" s="101">
         <f t="shared" si="5"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="J78" s="82">
         <f t="shared" si="6"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="K78" s="82">
         <f t="shared" si="6"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="L78" s="82">
         <f t="shared" si="6"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="M78" s="82">
         <f t="shared" si="6"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="N78" s="82">
         <f t="shared" si="6"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="O78" s="82">
         <f t="shared" si="6"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="P78" s="82">
         <f t="shared" si="6"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="Q78" s="82">
         <f t="shared" si="6"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="R78" s="82">
         <f t="shared" si="6"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="S78" s="82">
         <f t="shared" si="6"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="T78" s="82">
         <f t="shared" si="6"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="U78" s="82">
         <f t="shared" si="6"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="V78" s="82">
         <f t="shared" si="6"/>
-        <v>1980</v>
+        <v>2759.9999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:22" ht="13">
@@ -47988,71 +48021,71 @@
       <c r="E81" s="204"/>
       <c r="F81" s="38">
         <f>SUM(F75:F80)</f>
-        <v>10358.937178334121</v>
+        <v>11471.04130926013</v>
       </c>
       <c r="G81" s="38">
         <f>SUM(G75:G80)</f>
-        <v>20346.711354781699</v>
+        <v>22641.901505312995</v>
       </c>
       <c r="H81" s="38">
         <f>SUM(H75:H80)</f>
-        <v>213307.24614000943</v>
+        <v>226652.49571112159</v>
       </c>
       <c r="I81" s="38">
         <f>SUM(I75:I80)</f>
-        <v>244160.53625738036</v>
+        <v>271702.81806375593</v>
       </c>
       <c r="J81" s="38">
         <f t="shared" ref="J81:V81" si="8">SUM(J75:J80)</f>
-        <v>248624.39601231203</v>
+        <v>277454.66223590221</v>
       </c>
       <c r="K81" s="38">
         <f t="shared" si="8"/>
-        <v>251832.79521116908</v>
+        <v>281890.7502346324</v>
       </c>
       <c r="L81" s="38">
         <f t="shared" si="8"/>
-        <v>254790.10229881137</v>
+        <v>286134.96699867933</v>
       </c>
       <c r="M81" s="38">
         <f t="shared" si="8"/>
-        <v>257496.31727523863</v>
+        <v>290196.02452804294</v>
       </c>
       <c r="N81" s="38">
         <f t="shared" si="8"/>
-        <v>260007.23838738768</v>
+        <v>294145.50407487527</v>
       </c>
       <c r="O81" s="38">
         <f t="shared" si="8"/>
-        <v>261736.98404242378</v>
+        <v>297342.96761158196</v>
       </c>
       <c r="P81" s="38">
         <f>SUM(P75:P80)</f>
-        <v>263355.13320358645</v>
+        <v>300543.98743598495</v>
       </c>
       <c r="Q81" s="38">
         <f t="shared" si="8"/>
-        <v>264889.58499434427</v>
+        <v>303792.31781336025</v>
       </c>
       <c r="R81" s="38">
         <f t="shared" si="8"/>
-        <v>266312.4402912287</v>
+        <v>307070.99048075185</v>
       </c>
       <c r="S81" s="38">
         <f>SUM(S75:S80)</f>
-        <v>267651.59821770818</v>
+        <v>310426.43830366782</v>
       </c>
       <c r="T81" s="38">
         <f t="shared" si="8"/>
-        <v>268934.95789725101</v>
+        <v>313906.63753155904</v>
       </c>
       <c r="U81" s="38">
         <f t="shared" si="8"/>
-        <v>270134.62020638888</v>
+        <v>317499.26408406254</v>
       </c>
       <c r="V81" s="38">
         <f t="shared" si="8"/>
-        <v>271250.58514512179</v>
+        <v>321224.86040146212</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="13">
@@ -48230,71 +48263,71 @@
       <c r="E85" s="206"/>
       <c r="F85" s="41">
         <f>F75*0.025</f>
-        <v>238.97342945835305</v>
+        <v>265.52603273150328</v>
       </c>
       <c r="G85" s="194">
         <f>I85/12</f>
-        <v>477.94685891670611</v>
+        <v>531.05206546300656</v>
       </c>
       <c r="H85" s="35">
         <f>F85*12</f>
-        <v>2867.6811535002366</v>
+        <v>3186.3123927780393</v>
       </c>
       <c r="I85" s="36">
         <f>H85*B21</f>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
       <c r="J85" s="82">
         <f t="shared" ref="J85:V89" si="10">I85</f>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
       <c r="K85" s="82">
         <f t="shared" si="10"/>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
       <c r="L85" s="82">
         <f t="shared" si="10"/>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
       <c r="M85" s="82">
         <f t="shared" si="10"/>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
       <c r="N85" s="82">
         <f t="shared" si="10"/>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
       <c r="O85" s="82">
         <f t="shared" si="10"/>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
       <c r="P85" s="82">
         <f t="shared" si="10"/>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
       <c r="Q85" s="82">
         <f t="shared" si="10"/>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
       <c r="R85" s="82">
         <f t="shared" si="10"/>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
       <c r="S85" s="82">
         <f t="shared" si="10"/>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
       <c r="T85" s="82">
         <f t="shared" si="10"/>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
       <c r="U85" s="82">
         <f t="shared" si="10"/>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
       <c r="V85" s="82">
         <f t="shared" si="10"/>
-        <v>5735.3623070004733</v>
+        <v>6372.6247855560787</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="13">
@@ -48309,71 +48342,71 @@
       <c r="E86" s="206"/>
       <c r="F86" s="35">
         <f>(B$23*F68/crop1_product_weight)</f>
-        <v>3084.5194362675002</v>
+        <v>3427.2438180749996</v>
       </c>
       <c r="G86" s="194">
         <f>I86/12</f>
-        <v>4726.9331966587506</v>
+        <v>5252.1479962875001</v>
       </c>
       <c r="H86" s="35">
         <f>F86*12</f>
-        <v>37014.233235210006</v>
+        <v>41126.925816899995</v>
       </c>
       <c r="I86" s="36">
         <f>C$23*(y2_wa_yield_crop1/H21)</f>
-        <v>56723.198359905007</v>
+        <v>63025.775955450001</v>
       </c>
       <c r="J86" s="364">
         <f>$C$23*(y3_wa_yield_crop1/$H$21)</f>
-        <v>57803.51162470501</v>
+        <v>64226.124027450001</v>
       </c>
       <c r="K86" s="364">
         <f>$C$23*(K68/$H$21)</f>
-        <v>58579.986783779997</v>
+        <v>65088.874204200009</v>
       </c>
       <c r="L86" s="364">
         <f t="shared" ref="L86:V86" si="11">$C$23*(L68/$H$21)</f>
-        <v>59295.694321710005</v>
+        <v>65884.104801900015</v>
       </c>
       <c r="M86" s="364">
         <f t="shared" si="11"/>
-        <v>59950.634238494997</v>
+        <v>66611.815820549993</v>
       </c>
       <c r="N86" s="364">
         <f t="shared" si="11"/>
-        <v>60558.310449944998</v>
+        <v>67287.011611049995</v>
       </c>
       <c r="O86" s="364">
         <f t="shared" si="11"/>
-        <v>60976.931840055011</v>
+        <v>67752.146488950006</v>
       </c>
       <c r="P86" s="364">
         <f t="shared" si="11"/>
-        <v>61368.545398545</v>
+        <v>68187.272665049997</v>
       </c>
       <c r="Q86" s="364">
         <f t="shared" si="11"/>
-        <v>61739.903083320009</v>
+        <v>68599.892314800003</v>
       </c>
       <c r="R86" s="364">
         <f t="shared" si="11"/>
-        <v>62084.252936475008</v>
+        <v>68982.503262750004</v>
       </c>
       <c r="S86" s="364">
         <f t="shared" si="11"/>
-        <v>62408.346915915005</v>
+        <v>69342.607684350005</v>
       </c>
       <c r="T86" s="364">
         <f t="shared" si="11"/>
-        <v>62718.936979545004</v>
+        <v>69687.707755049996</v>
       </c>
       <c r="U86" s="364">
         <f t="shared" si="11"/>
-        <v>63009.27116946</v>
+        <v>70010.301299400016</v>
       </c>
       <c r="V86" s="364">
         <f t="shared" si="11"/>
-        <v>63279.349485660001</v>
+        <v>70310.388317400008</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="13">
@@ -48388,71 +48421,71 @@
       <c r="E87" s="206"/>
       <c r="F87" s="41">
         <f>SUM(H31:K31)</f>
-        <v>117.92730903849413</v>
+        <v>131.03034337610458</v>
       </c>
       <c r="G87" s="194">
         <f>SUM(H32:K32)</f>
-        <v>235.72533642923611</v>
+        <v>261.917040476929</v>
       </c>
       <c r="H87" s="35">
         <f>F87*12</f>
-        <v>1415.1277084619296</v>
+        <v>1572.3641205132549</v>
       </c>
       <c r="I87" s="36">
         <f>G87*12</f>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
       <c r="J87" s="82">
         <f t="shared" si="10"/>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
       <c r="K87" s="82">
         <f t="shared" si="10"/>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
       <c r="L87" s="82">
         <f t="shared" si="10"/>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
       <c r="M87" s="82">
         <f t="shared" si="10"/>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
       <c r="N87" s="82">
         <f t="shared" si="10"/>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
       <c r="O87" s="82">
         <f t="shared" si="10"/>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
       <c r="P87" s="82">
         <f t="shared" si="10"/>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
       <c r="Q87" s="82">
         <f t="shared" si="10"/>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
       <c r="R87" s="82">
         <f t="shared" si="10"/>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
       <c r="S87" s="82">
         <f t="shared" si="10"/>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
       <c r="T87" s="82">
         <f t="shared" si="10"/>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
       <c r="U87" s="82">
         <f t="shared" si="10"/>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
       <c r="V87" s="82">
         <f t="shared" si="10"/>
-        <v>2828.7040371508333</v>
+        <v>3143.0044857231478</v>
       </c>
     </row>
     <row r="88" spans="1:22" ht="13">
@@ -48623,71 +48656,71 @@
       <c r="E90" s="21"/>
       <c r="F90" s="38">
         <f>SUM(F84:F89)</f>
-        <v>5386.9947030976809</v>
+        <v>5769.3747225159404</v>
       </c>
       <c r="G90" s="195">
         <f>SUM(G84:G89)</f>
-        <v>8052.50644867136</v>
+        <v>8657.0181588941032</v>
       </c>
       <c r="H90" s="38">
         <f t="shared" ref="H90:V90" si="12">SUM(H84:H89)</f>
-        <v>64643.936437172168</v>
+        <v>69232.496670191293</v>
       </c>
       <c r="I90" s="38">
         <f t="shared" si="12"/>
-        <v>96630.077384056305</v>
+        <v>103884.21790672922</v>
       </c>
       <c r="J90" s="38">
         <f t="shared" si="12"/>
-        <v>97710.390648856308</v>
+        <v>105084.56597872921</v>
       </c>
       <c r="K90" s="38">
         <f t="shared" si="12"/>
-        <v>98486.865807931288</v>
+        <v>105947.31615547922</v>
       </c>
       <c r="L90" s="38">
         <f t="shared" si="12"/>
-        <v>99202.573345861296</v>
+        <v>106742.54675317924</v>
       </c>
       <c r="M90" s="38">
         <f t="shared" si="12"/>
-        <v>99857.513262646287</v>
+        <v>107470.25777182922</v>
       </c>
       <c r="N90" s="38">
         <f t="shared" si="12"/>
-        <v>100465.18947409629</v>
+        <v>108145.45356232922</v>
       </c>
       <c r="O90" s="38">
         <f t="shared" si="12"/>
-        <v>100883.8108642063</v>
+        <v>108610.58844022923</v>
       </c>
       <c r="P90" s="38">
         <f t="shared" si="12"/>
-        <v>101275.42442269629</v>
+        <v>109045.71461632922</v>
       </c>
       <c r="Q90" s="38">
         <f t="shared" si="12"/>
-        <v>101646.7821074713</v>
+        <v>109458.33426607923</v>
       </c>
       <c r="R90" s="38">
         <f t="shared" si="12"/>
-        <v>101991.1319606263</v>
+        <v>109840.94521402921</v>
       </c>
       <c r="S90" s="38">
         <f t="shared" si="12"/>
-        <v>102315.2259400663</v>
+        <v>110201.04963562921</v>
       </c>
       <c r="T90" s="38">
         <f t="shared" si="12"/>
-        <v>102625.81600369629</v>
+        <v>110546.1497063292</v>
       </c>
       <c r="U90" s="38">
         <f t="shared" si="12"/>
-        <v>102916.15019361129</v>
+        <v>110868.74325067924</v>
       </c>
       <c r="V90" s="38">
         <f t="shared" si="12"/>
-        <v>103186.22850981129</v>
+        <v>111168.83026867923</v>
       </c>
     </row>
     <row r="91" spans="1:22" s="102" customFormat="1" ht="13">
@@ -48724,71 +48757,71 @@
       <c r="E92" s="204"/>
       <c r="F92" s="83">
         <f>F81-F90</f>
-        <v>4971.9424752364403</v>
+        <v>5701.6665867441898</v>
       </c>
       <c r="G92" s="83">
         <f>G81-G90</f>
-        <v>12294.204906110339</v>
+        <v>13984.883346418892</v>
       </c>
       <c r="H92" s="83">
         <f>H81-H90</f>
-        <v>148663.30970283726</v>
+        <v>157419.9990409303</v>
       </c>
       <c r="I92" s="83">
         <f t="shared" ref="I92:V92" si="13">I81-I90</f>
-        <v>147530.45887332404</v>
+        <v>167818.60015702673</v>
       </c>
       <c r="J92" s="83">
         <f t="shared" si="13"/>
-        <v>150914.00536345574</v>
+        <v>172370.09625717299</v>
       </c>
       <c r="K92" s="83">
         <f t="shared" si="13"/>
-        <v>153345.92940323779</v>
+        <v>175943.43407915317</v>
       </c>
       <c r="L92" s="83">
         <f t="shared" si="13"/>
-        <v>155587.52895295009</v>
+        <v>179392.42024550011</v>
       </c>
       <c r="M92" s="83">
         <f t="shared" si="13"/>
-        <v>157638.80401259236</v>
+        <v>182725.76675621374</v>
       </c>
       <c r="N92" s="83">
         <f t="shared" si="13"/>
-        <v>159542.04891329139</v>
+        <v>186000.05051254603</v>
       </c>
       <c r="O92" s="83">
         <f t="shared" si="13"/>
-        <v>160853.17317821749</v>
+        <v>188732.37917135272</v>
       </c>
       <c r="P92" s="83">
         <f t="shared" si="13"/>
-        <v>162079.70878089016</v>
+        <v>191498.27281965571</v>
       </c>
       <c r="Q92" s="83">
         <f t="shared" si="13"/>
-        <v>163242.80288687296</v>
+        <v>194333.98354728101</v>
       </c>
       <c r="R92" s="83">
         <f t="shared" si="13"/>
-        <v>164321.30833060242</v>
+        <v>197230.04526672262</v>
       </c>
       <c r="S92" s="83">
         <f t="shared" si="13"/>
-        <v>165336.37227764187</v>
+        <v>200225.38866803859</v>
       </c>
       <c r="T92" s="83">
         <f t="shared" si="13"/>
-        <v>166309.14189355471</v>
+        <v>203360.48782522982</v>
       </c>
       <c r="U92" s="83">
         <f t="shared" si="13"/>
-        <v>167218.4700127776</v>
+        <v>206630.52083338331</v>
       </c>
       <c r="V92" s="83">
         <f t="shared" si="13"/>
-        <v>168064.35663531051</v>
+        <v>210056.03013278288</v>
       </c>
     </row>
     <row r="93" spans="1:22" ht="13">
@@ -48967,7 +49000,7 @@
       </c>
       <c r="G96" s="194">
         <f>I96/12</f>
-        <v>6781.5</v>
+        <v>8806.5</v>
       </c>
       <c r="H96" s="35">
         <f>H127</f>
@@ -48975,59 +49008,59 @@
       </c>
       <c r="I96" s="36">
         <f>I127</f>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="J96" s="82">
         <f>I96</f>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="K96" s="82">
         <f t="shared" ref="K96:V96" si="15">J96</f>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="L96" s="82">
         <f t="shared" si="15"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="M96" s="82">
         <f t="shared" si="15"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="N96" s="82">
         <f t="shared" si="15"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="O96" s="82">
         <f t="shared" si="15"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="P96" s="82">
         <f t="shared" si="15"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="Q96" s="82">
         <f t="shared" si="15"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="R96" s="82">
         <f t="shared" si="15"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="S96" s="82">
         <f t="shared" si="15"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="T96" s="82">
         <f t="shared" si="15"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="U96" s="82">
         <f t="shared" si="15"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="V96" s="82">
         <f t="shared" si="15"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
     </row>
     <row r="97" spans="1:22" s="26" customFormat="1" ht="13">
@@ -49046,7 +49079,7 @@
       </c>
       <c r="G97" s="194">
         <f>I97/12</f>
-        <v>169.53749999999999</v>
+        <v>220.16250000000002</v>
       </c>
       <c r="H97" s="35">
         <f>H127*B$24</f>
@@ -49054,59 +49087,59 @@
       </c>
       <c r="I97" s="36">
         <f>I127*C$24</f>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
       <c r="J97" s="82">
         <f>I97</f>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
       <c r="K97" s="82">
         <f t="shared" ref="K97:V99" si="16">J97</f>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
       <c r="L97" s="82">
         <f t="shared" si="16"/>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
       <c r="M97" s="82">
         <f t="shared" si="16"/>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
       <c r="N97" s="82">
         <f t="shared" si="16"/>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
       <c r="O97" s="82">
         <f t="shared" si="16"/>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
       <c r="P97" s="82">
         <f t="shared" si="16"/>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
       <c r="Q97" s="82">
         <f t="shared" si="16"/>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
       <c r="R97" s="82">
         <f t="shared" si="16"/>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
       <c r="S97" s="82">
         <f t="shared" si="16"/>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
       <c r="T97" s="82">
         <f t="shared" si="16"/>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
       <c r="U97" s="82">
         <f t="shared" si="16"/>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
       <c r="V97" s="82">
         <f t="shared" si="16"/>
-        <v>2034.45</v>
+        <v>2641.9500000000003</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="13">
@@ -49277,7 +49310,7 @@
       </c>
       <c r="G100" s="38">
         <f t="shared" si="17"/>
-        <v>9151.0375000000004</v>
+        <v>11226.6625</v>
       </c>
       <c r="H100" s="38">
         <f t="shared" si="17"/>
@@ -49285,59 +49318,59 @@
       </c>
       <c r="I100" s="38">
         <f t="shared" si="17"/>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="J100" s="38">
         <f>SUM(J95:J99)</f>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="K100" s="38">
         <f t="shared" si="17"/>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="L100" s="38">
         <f t="shared" si="17"/>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="M100" s="38">
         <f t="shared" si="17"/>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="N100" s="38">
         <f t="shared" si="17"/>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="O100" s="38">
         <f t="shared" si="17"/>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="P100" s="38">
         <f t="shared" si="17"/>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="Q100" s="38">
         <f t="shared" si="17"/>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="R100" s="38">
         <f t="shared" si="17"/>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="S100" s="38">
         <f t="shared" si="17"/>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="T100" s="38">
         <f t="shared" si="17"/>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="U100" s="38">
         <f t="shared" si="17"/>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
       <c r="V100" s="38">
         <f t="shared" si="17"/>
-        <v>109812.45</v>
+        <v>134719.95000000001</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="13">
@@ -49374,71 +49407,71 @@
       <c r="E102" s="204"/>
       <c r="F102" s="43">
         <f>F92-F100</f>
-        <v>-1295.5575247635597</v>
+        <v>-565.83341325581023</v>
       </c>
       <c r="G102" s="43">
         <f>G92-G100</f>
-        <v>3143.1674061103386</v>
+        <v>2758.2208464188916</v>
       </c>
       <c r="H102" s="43">
         <f>H92-H100</f>
-        <v>73453.309702837258</v>
+        <v>82209.999040930299</v>
       </c>
       <c r="I102" s="43">
         <f>I92-I100</f>
-        <v>37718.008873324041</v>
+        <v>33098.650157026714</v>
       </c>
       <c r="J102" s="43">
         <f t="shared" ref="J102:V102" si="18">J92-J100</f>
-        <v>41101.555363455744</v>
+        <v>37650.146257172979</v>
       </c>
       <c r="K102" s="43">
         <f t="shared" si="18"/>
-        <v>43533.479403237798</v>
+        <v>41223.484079153161</v>
       </c>
       <c r="L102" s="43">
         <f t="shared" si="18"/>
-        <v>45775.078952950091</v>
+        <v>44672.470245500095</v>
       </c>
       <c r="M102" s="43">
         <f t="shared" si="18"/>
-        <v>47826.354012592361</v>
+        <v>48005.816756213724</v>
       </c>
       <c r="N102" s="43">
         <f t="shared" si="18"/>
-        <v>49729.598913291396</v>
+        <v>51280.100512546021</v>
       </c>
       <c r="O102" s="43">
         <f t="shared" si="18"/>
-        <v>51040.723178217493</v>
+        <v>54012.429171352705</v>
       </c>
       <c r="P102" s="43">
         <f t="shared" si="18"/>
-        <v>52267.258780890159</v>
+        <v>56778.322819655703</v>
       </c>
       <c r="Q102" s="43">
         <f t="shared" si="18"/>
-        <v>53430.352886872963</v>
+        <v>59614.033547280997</v>
       </c>
       <c r="R102" s="43">
         <f t="shared" si="18"/>
-        <v>54508.858330602423</v>
+        <v>62510.095266722608</v>
       </c>
       <c r="S102" s="43">
         <f t="shared" si="18"/>
-        <v>55523.922277641876</v>
+        <v>65505.43866803858</v>
       </c>
       <c r="T102" s="43">
         <f t="shared" si="18"/>
-        <v>56496.691893554715</v>
+        <v>68640.537825229811</v>
       </c>
       <c r="U102" s="43">
         <f t="shared" si="18"/>
-        <v>57406.020012777604</v>
+        <v>71910.570833383303</v>
       </c>
       <c r="V102" s="43">
         <f t="shared" si="18"/>
-        <v>58251.906635310515</v>
+        <v>75336.080132782867</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="13">
@@ -49801,71 +49834,71 @@
       <c r="E109" s="206"/>
       <c r="F109" s="42">
         <f>F102</f>
-        <v>-1295.5575247635597</v>
+        <v>-565.83341325581023</v>
       </c>
       <c r="G109" s="42">
         <f>G102</f>
-        <v>3143.1674061103386</v>
+        <v>2758.2208464188916</v>
       </c>
       <c r="H109" s="42">
         <f>H102-H106-H104-H107</f>
-        <v>34816.997620489827</v>
+        <v>43573.686958582868</v>
       </c>
       <c r="I109" s="42">
         <f t="shared" ref="I109:V109" si="22">I102-I106-I104-I107</f>
-        <v>-11064.487365538342</v>
+        <v>-15683.846081835669</v>
       </c>
       <c r="J109" s="42">
         <f t="shared" si="22"/>
-        <v>-7680.940875406639</v>
+        <v>-11132.349981689404</v>
       </c>
       <c r="K109" s="42">
         <f t="shared" si="22"/>
-        <v>-5249.0168356245849</v>
+        <v>-7559.012159709222</v>
       </c>
       <c r="L109" s="42">
         <f t="shared" si="22"/>
-        <v>-3007.4172859122918</v>
+        <v>-4110.0259933622874</v>
       </c>
       <c r="M109" s="42">
         <f t="shared" si="22"/>
-        <v>27533.985699562461</v>
+        <v>27713.448443183825</v>
       </c>
       <c r="N109" s="42">
         <f t="shared" si="22"/>
-        <v>29437.230600261497</v>
+        <v>30987.732199516122</v>
       </c>
       <c r="O109" s="42">
         <f t="shared" si="22"/>
-        <v>30748.354865187594</v>
+        <v>33720.060858322802</v>
       </c>
       <c r="P109" s="42">
         <f t="shared" si="22"/>
-        <v>31974.890467860259</v>
+        <v>36485.9545066258</v>
       </c>
       <c r="Q109" s="42">
         <f t="shared" si="22"/>
-        <v>33137.984573843059</v>
+        <v>39321.665234251093</v>
       </c>
       <c r="R109" s="42">
         <f t="shared" si="22"/>
-        <v>34216.49001757252</v>
+        <v>42217.726953692705</v>
       </c>
       <c r="S109" s="42">
         <f t="shared" si="22"/>
-        <v>35231.553964611972</v>
+        <v>45213.070355008676</v>
       </c>
       <c r="T109" s="42">
         <f t="shared" si="22"/>
-        <v>36204.323580524811</v>
+        <v>48348.169512199907</v>
       </c>
       <c r="U109" s="42">
         <f t="shared" si="22"/>
-        <v>37113.651699747701</v>
+        <v>51618.202520353399</v>
       </c>
       <c r="V109" s="42">
         <f t="shared" si="22"/>
-        <v>37959.538322280612</v>
+        <v>55043.711819752963</v>
       </c>
     </row>
     <row r="110" spans="1:22" ht="13">
@@ -50835,59 +50868,59 @@
       </c>
       <c r="I125" s="36">
         <f>G135*$C125</f>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="J125" s="82">
         <f>I125</f>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="K125" s="82">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="L125" s="82">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="M125" s="82">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="N125" s="82">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="O125" s="82">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="P125" s="82">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="Q125" s="82">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="R125" s="82">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="S125" s="82">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="T125" s="82">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="U125" s="82">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="V125" s="82">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="126" spans="1:22" ht="13">
@@ -50984,7 +51017,7 @@
       </c>
       <c r="G127" s="38">
         <f>I127/12</f>
-        <v>6781.5</v>
+        <v>8806.5</v>
       </c>
       <c r="H127" s="38">
         <f t="shared" ref="H127:V127" si="33">SUM(H120:H126)</f>
@@ -50992,59 +51025,59 @@
       </c>
       <c r="I127" s="46">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="J127" s="84">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="K127" s="84">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="L127" s="84">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="M127" s="84">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="N127" s="84">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="O127" s="84">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="P127" s="84">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="Q127" s="84">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="R127" s="84">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="S127" s="84">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="T127" s="84">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="U127" s="84">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="V127" s="84">
         <f t="shared" si="33"/>
-        <v>81378</v>
+        <v>105678</v>
       </c>
     </row>
     <row r="128" spans="1:22" ht="15.75" customHeight="1">
@@ -51480,59 +51513,59 @@
         <v>1</v>
       </c>
       <c r="G135" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" s="211">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" s="211">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" s="211">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" s="211">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" s="211">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" s="211">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" s="211">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O135" s="211">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135" s="211">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q135" s="211">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R135" s="211">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S135" s="211">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T135" s="211">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:22" ht="15.75" customHeight="1">
@@ -51819,76 +51852,76 @@
       </c>
       <c r="G140" s="25">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H140" s="85">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="I140" s="85">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J140" s="85">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="K140" s="85">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L140" s="85">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M140" s="85">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N140" s="85">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O140" s="85">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P140" s="85">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q140" s="85">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="R140" s="85">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="S140" s="85">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="T140" s="85">
         <f t="shared" si="37"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="U140" s="206"/>
       <c r="V140" s="206"/>
     </row>
     <row r="142" spans="1:22" ht="15.75" customHeight="1">
       <c r="F142" s="269"/>
-      <c r="G142" s="367" t="s">
+      <c r="G142" s="374" t="s">
         <v>632</v>
       </c>
-      <c r="H142" s="368"/>
-      <c r="I142" s="368"/>
+      <c r="H142" s="375"/>
+      <c r="I142" s="375"/>
       <c r="K142" s="269"/>
-      <c r="L142" s="367" t="s">
+      <c r="L142" s="374" t="s">
         <v>633</v>
       </c>
-      <c r="M142" s="368"/>
-      <c r="N142" s="368"/>
+      <c r="M142" s="375"/>
+      <c r="N142" s="375"/>
     </row>
     <row r="143" spans="1:22" ht="15.75" customHeight="1">
       <c r="F143" s="272" t="s">
@@ -52227,17 +52260,17 @@
     </row>
     <row r="153" spans="6:17" ht="15.75" customHeight="1">
       <c r="F153" s="269"/>
-      <c r="G153" s="367" t="s">
+      <c r="G153" s="374" t="s">
         <v>631</v>
       </c>
-      <c r="H153" s="367"/>
-      <c r="I153" s="367"/>
+      <c r="H153" s="374"/>
+      <c r="I153" s="374"/>
       <c r="K153" s="269"/>
-      <c r="L153" s="367" t="s">
+      <c r="L153" s="374" t="s">
         <v>631</v>
       </c>
-      <c r="M153" s="367"/>
-      <c r="N153" s="367"/>
+      <c r="M153" s="374"/>
+      <c r="N153" s="374"/>
       <c r="P153" s="47" t="s">
         <v>64</v>
       </c>
@@ -52344,11 +52377,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="L142:N142"/>
+    <mergeCell ref="L153:N153"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="F41:F42"/>
     <mergeCell ref="F34:F38"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G142:I142"/>
@@ -52358,13 +52391,13 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="L142:N142"/>
-    <mergeCell ref="L153:N153"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A7:H7"/>
   </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <conditionalFormatting sqref="L16">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>1</formula>
@@ -52504,34 +52537,34 @@
       <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="370" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="383"/>
-      <c r="C2" s="382"/>
-      <c r="D2" s="382"/>
-      <c r="E2" s="382"/>
-      <c r="F2" s="382"/>
-      <c r="G2" s="382"/>
-      <c r="H2" s="382"/>
-      <c r="I2" s="382"/>
-      <c r="J2" s="382"/>
-      <c r="K2" s="382"/>
+      <c r="B2" s="370"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
+      <c r="K2" s="369"/>
     </row>
     <row r="3" spans="1:11" s="96" customFormat="1">
-      <c r="A3" s="384" t="s">
+      <c r="A3" s="371" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="384"/>
-      <c r="C3" s="382"/>
-      <c r="D3" s="382"/>
-      <c r="E3" s="382"/>
-      <c r="F3" s="382"/>
-      <c r="G3" s="382"/>
-      <c r="H3" s="382"/>
-      <c r="I3" s="382"/>
-      <c r="J3" s="382"/>
-      <c r="K3" s="382"/>
+      <c r="B3" s="371"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
+      <c r="I3" s="369"/>
+      <c r="J3" s="369"/>
+      <c r="K3" s="369"/>
     </row>
     <row r="4" spans="1:11" s="96" customFormat="1">
       <c r="A4" s="92" t="s">
@@ -52549,19 +52582,19 @@
       <c r="K4" s="93"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="385" t="s">
+      <c r="A5" s="372" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="385"/>
-      <c r="C5" s="382"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="382"/>
-      <c r="F5" s="382"/>
-      <c r="G5" s="382"/>
-      <c r="H5" s="382"/>
-      <c r="I5" s="382"/>
-      <c r="J5" s="382"/>
-      <c r="K5" s="382"/>
+      <c r="B5" s="372"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
+      <c r="G5" s="369"/>
+      <c r="H5" s="369"/>
+      <c r="I5" s="369"/>
+      <c r="J5" s="369"/>
+      <c r="K5" s="369"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="94" t="s">
@@ -66900,7 +66933,7 @@
   <mergeCells count="1">
     <mergeCell ref="J6:O6"/>
   </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="W113" r:id="rId1" xr:uid="{6951BE87-0DEE-2D41-B852-49720AF62F95}"/>
     <hyperlink ref="W110" r:id="rId2" xr:uid="{2C271945-9AF5-9B49-9AAA-CA44B011A012}"/>
